--- a/Documentation/My Project/03-Unit_Test_Cases-(Smart Shop).xlsx
+++ b/Documentation/My Project/03-Unit_Test_Cases-(Smart Shop).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CTS\smart-shop\Documentation\References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\761251\Desktop\Training\Agile\git copy\smart-shop\Documentation\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B909BE3-B2B1-45AC-87A4-22645B77FC1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="1" r:id="rId1"/>
@@ -605,7 +604,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
@@ -1423,6 +1422,40 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1471,13 +1504,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1492,6 +1548,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1510,38 +1575,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,53 +1628,19 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
+    <cellStyle name="Normal 2 2 2" xfId="4"/>
+    <cellStyle name="Normal 2 3" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="0"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -3450,10 +3449,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -3508,64 +3507,64 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="111"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="114"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="120"/>
     </row>
     <row r="11" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="126"/>
     </row>
     <row r="12" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="120"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="129"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
@@ -3626,12 +3625,12 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="117"/>
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3678,7 +3677,7 @@
       <c r="C25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="169" t="s">
+      <c r="D25" s="114" t="s">
         <v>153</v>
       </c>
       <c r="E25" s="50"/>
@@ -3801,7 +3800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4134,25 +4133,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="41" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="138"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="135"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
@@ -4177,83 +4176,83 @@
       <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
     </row>
     <row r="7" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="140" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="126"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="142"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
     </row>
     <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="123"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="145"/>
     </row>
     <row r="11" spans="1:4" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="129"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="148"/>
     </row>
     <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="145"/>
     </row>
     <row r="13" spans="1:4" s="48" customFormat="1" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="130" t="s">
+      <c r="A13" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="151"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4294,15 +4293,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4777,13 +4776,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="56" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
       <c r="G1" s="93" t="s">
         <v>52</v>
       </c>
@@ -4793,16 +4792,16 @@
       <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:25" s="62" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
     </row>
     <row r="3" spans="1:25" s="67" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
@@ -4861,17 +4860,17 @@
       <c r="J4" s="84"/>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="146"/>
-      <c r="S4" s="146"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="146"/>
-      <c r="V4" s="146"/>
-      <c r="W4" s="146"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
       <c r="X4" s="68"/>
       <c r="Y4" s="68"/>
     </row>
@@ -5082,11 +5081,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="164" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+    <row r="11" spans="1:25" s="109" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="158" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="98" t="s">
@@ -5108,25 +5107,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:25" s="168" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="150"/>
+    <row r="12" spans="1:25" s="113" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="157"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="98" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="165" t="s">
+      <c r="E12" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="165" t="s">
+      <c r="F12" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="166" t="s">
+      <c r="G12" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="167" t="s">
+      <c r="H12" s="112" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5143,16 +5142,16 @@
       <c r="D13" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="161" t="s">
+      <c r="E13" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="161" t="s">
+      <c r="F13" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="162" t="s">
+      <c r="G13" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="163" t="s">
+      <c r="H13" s="108" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5797,7 +5796,7 @@
     <mergeCell ref="B11:B12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65518:C65520 IY65518:IY65520 SU65518:SU65520 ACQ65518:ACQ65520 AMM65518:AMM65520 AWI65518:AWI65520 BGE65518:BGE65520 BQA65518:BQA65520 BZW65518:BZW65520 CJS65518:CJS65520 CTO65518:CTO65520 DDK65518:DDK65520 DNG65518:DNG65520 DXC65518:DXC65520 EGY65518:EGY65520 EQU65518:EQU65520 FAQ65518:FAQ65520 FKM65518:FKM65520 FUI65518:FUI65520 GEE65518:GEE65520 GOA65518:GOA65520 GXW65518:GXW65520 HHS65518:HHS65520 HRO65518:HRO65520 IBK65518:IBK65520 ILG65518:ILG65520 IVC65518:IVC65520 JEY65518:JEY65520 JOU65518:JOU65520 JYQ65518:JYQ65520 KIM65518:KIM65520 KSI65518:KSI65520 LCE65518:LCE65520 LMA65518:LMA65520 LVW65518:LVW65520 MFS65518:MFS65520 MPO65518:MPO65520 MZK65518:MZK65520 NJG65518:NJG65520 NTC65518:NTC65520 OCY65518:OCY65520 OMU65518:OMU65520 OWQ65518:OWQ65520 PGM65518:PGM65520 PQI65518:PQI65520 QAE65518:QAE65520 QKA65518:QKA65520 QTW65518:QTW65520 RDS65518:RDS65520 RNO65518:RNO65520 RXK65518:RXK65520 SHG65518:SHG65520 SRC65518:SRC65520 TAY65518:TAY65520 TKU65518:TKU65520 TUQ65518:TUQ65520 UEM65518:UEM65520 UOI65518:UOI65520 UYE65518:UYE65520 VIA65518:VIA65520 VRW65518:VRW65520 WBS65518:WBS65520 WLO65518:WLO65520 WVK65518:WVK65520 C131054:C131056 IY131054:IY131056 SU131054:SU131056 ACQ131054:ACQ131056 AMM131054:AMM131056 AWI131054:AWI131056 BGE131054:BGE131056 BQA131054:BQA131056 BZW131054:BZW131056 CJS131054:CJS131056 CTO131054:CTO131056 DDK131054:DDK131056 DNG131054:DNG131056 DXC131054:DXC131056 EGY131054:EGY131056 EQU131054:EQU131056 FAQ131054:FAQ131056 FKM131054:FKM131056 FUI131054:FUI131056 GEE131054:GEE131056 GOA131054:GOA131056 GXW131054:GXW131056 HHS131054:HHS131056 HRO131054:HRO131056 IBK131054:IBK131056 ILG131054:ILG131056 IVC131054:IVC131056 JEY131054:JEY131056 JOU131054:JOU131056 JYQ131054:JYQ131056 KIM131054:KIM131056 KSI131054:KSI131056 LCE131054:LCE131056 LMA131054:LMA131056 LVW131054:LVW131056 MFS131054:MFS131056 MPO131054:MPO131056 MZK131054:MZK131056 NJG131054:NJG131056 NTC131054:NTC131056 OCY131054:OCY131056 OMU131054:OMU131056 OWQ131054:OWQ131056 PGM131054:PGM131056 PQI131054:PQI131056 QAE131054:QAE131056 QKA131054:QKA131056 QTW131054:QTW131056 RDS131054:RDS131056 RNO131054:RNO131056 RXK131054:RXK131056 SHG131054:SHG131056 SRC131054:SRC131056 TAY131054:TAY131056 TKU131054:TKU131056 TUQ131054:TUQ131056 UEM131054:UEM131056 UOI131054:UOI131056 UYE131054:UYE131056 VIA131054:VIA131056 VRW131054:VRW131056 WBS131054:WBS131056 WLO131054:WLO131056 WVK131054:WVK131056 C196590:C196592 IY196590:IY196592 SU196590:SU196592 ACQ196590:ACQ196592 AMM196590:AMM196592 AWI196590:AWI196592 BGE196590:BGE196592 BQA196590:BQA196592 BZW196590:BZW196592 CJS196590:CJS196592 CTO196590:CTO196592 DDK196590:DDK196592 DNG196590:DNG196592 DXC196590:DXC196592 EGY196590:EGY196592 EQU196590:EQU196592 FAQ196590:FAQ196592 FKM196590:FKM196592 FUI196590:FUI196592 GEE196590:GEE196592 GOA196590:GOA196592 GXW196590:GXW196592 HHS196590:HHS196592 HRO196590:HRO196592 IBK196590:IBK196592 ILG196590:ILG196592 IVC196590:IVC196592 JEY196590:JEY196592 JOU196590:JOU196592 JYQ196590:JYQ196592 KIM196590:KIM196592 KSI196590:KSI196592 LCE196590:LCE196592 LMA196590:LMA196592 LVW196590:LVW196592 MFS196590:MFS196592 MPO196590:MPO196592 MZK196590:MZK196592 NJG196590:NJG196592 NTC196590:NTC196592 OCY196590:OCY196592 OMU196590:OMU196592 OWQ196590:OWQ196592 PGM196590:PGM196592 PQI196590:PQI196592 QAE196590:QAE196592 QKA196590:QKA196592 QTW196590:QTW196592 RDS196590:RDS196592 RNO196590:RNO196592 RXK196590:RXK196592 SHG196590:SHG196592 SRC196590:SRC196592 TAY196590:TAY196592 TKU196590:TKU196592 TUQ196590:TUQ196592 UEM196590:UEM196592 UOI196590:UOI196592 UYE196590:UYE196592 VIA196590:VIA196592 VRW196590:VRW196592 WBS196590:WBS196592 WLO196590:WLO196592 WVK196590:WVK196592 C262126:C262128 IY262126:IY262128 SU262126:SU262128 ACQ262126:ACQ262128 AMM262126:AMM262128 AWI262126:AWI262128 BGE262126:BGE262128 BQA262126:BQA262128 BZW262126:BZW262128 CJS262126:CJS262128 CTO262126:CTO262128 DDK262126:DDK262128 DNG262126:DNG262128 DXC262126:DXC262128 EGY262126:EGY262128 EQU262126:EQU262128 FAQ262126:FAQ262128 FKM262126:FKM262128 FUI262126:FUI262128 GEE262126:GEE262128 GOA262126:GOA262128 GXW262126:GXW262128 HHS262126:HHS262128 HRO262126:HRO262128 IBK262126:IBK262128 ILG262126:ILG262128 IVC262126:IVC262128 JEY262126:JEY262128 JOU262126:JOU262128 JYQ262126:JYQ262128 KIM262126:KIM262128 KSI262126:KSI262128 LCE262126:LCE262128 LMA262126:LMA262128 LVW262126:LVW262128 MFS262126:MFS262128 MPO262126:MPO262128 MZK262126:MZK262128 NJG262126:NJG262128 NTC262126:NTC262128 OCY262126:OCY262128 OMU262126:OMU262128 OWQ262126:OWQ262128 PGM262126:PGM262128 PQI262126:PQI262128 QAE262126:QAE262128 QKA262126:QKA262128 QTW262126:QTW262128 RDS262126:RDS262128 RNO262126:RNO262128 RXK262126:RXK262128 SHG262126:SHG262128 SRC262126:SRC262128 TAY262126:TAY262128 TKU262126:TKU262128 TUQ262126:TUQ262128 UEM262126:UEM262128 UOI262126:UOI262128 UYE262126:UYE262128 VIA262126:VIA262128 VRW262126:VRW262128 WBS262126:WBS262128 WLO262126:WLO262128 WVK262126:WVK262128 C327662:C327664 IY327662:IY327664 SU327662:SU327664 ACQ327662:ACQ327664 AMM327662:AMM327664 AWI327662:AWI327664 BGE327662:BGE327664 BQA327662:BQA327664 BZW327662:BZW327664 CJS327662:CJS327664 CTO327662:CTO327664 DDK327662:DDK327664 DNG327662:DNG327664 DXC327662:DXC327664 EGY327662:EGY327664 EQU327662:EQU327664 FAQ327662:FAQ327664 FKM327662:FKM327664 FUI327662:FUI327664 GEE327662:GEE327664 GOA327662:GOA327664 GXW327662:GXW327664 HHS327662:HHS327664 HRO327662:HRO327664 IBK327662:IBK327664 ILG327662:ILG327664 IVC327662:IVC327664 JEY327662:JEY327664 JOU327662:JOU327664 JYQ327662:JYQ327664 KIM327662:KIM327664 KSI327662:KSI327664 LCE327662:LCE327664 LMA327662:LMA327664 LVW327662:LVW327664 MFS327662:MFS327664 MPO327662:MPO327664 MZK327662:MZK327664 NJG327662:NJG327664 NTC327662:NTC327664 OCY327662:OCY327664 OMU327662:OMU327664 OWQ327662:OWQ327664 PGM327662:PGM327664 PQI327662:PQI327664 QAE327662:QAE327664 QKA327662:QKA327664 QTW327662:QTW327664 RDS327662:RDS327664 RNO327662:RNO327664 RXK327662:RXK327664 SHG327662:SHG327664 SRC327662:SRC327664 TAY327662:TAY327664 TKU327662:TKU327664 TUQ327662:TUQ327664 UEM327662:UEM327664 UOI327662:UOI327664 UYE327662:UYE327664 VIA327662:VIA327664 VRW327662:VRW327664 WBS327662:WBS327664 WLO327662:WLO327664 WVK327662:WVK327664 C393198:C393200 IY393198:IY393200 SU393198:SU393200 ACQ393198:ACQ393200 AMM393198:AMM393200 AWI393198:AWI393200 BGE393198:BGE393200 BQA393198:BQA393200 BZW393198:BZW393200 CJS393198:CJS393200 CTO393198:CTO393200 DDK393198:DDK393200 DNG393198:DNG393200 DXC393198:DXC393200 EGY393198:EGY393200 EQU393198:EQU393200 FAQ393198:FAQ393200 FKM393198:FKM393200 FUI393198:FUI393200 GEE393198:GEE393200 GOA393198:GOA393200 GXW393198:GXW393200 HHS393198:HHS393200 HRO393198:HRO393200 IBK393198:IBK393200 ILG393198:ILG393200 IVC393198:IVC393200 JEY393198:JEY393200 JOU393198:JOU393200 JYQ393198:JYQ393200 KIM393198:KIM393200 KSI393198:KSI393200 LCE393198:LCE393200 LMA393198:LMA393200 LVW393198:LVW393200 MFS393198:MFS393200 MPO393198:MPO393200 MZK393198:MZK393200 NJG393198:NJG393200 NTC393198:NTC393200 OCY393198:OCY393200 OMU393198:OMU393200 OWQ393198:OWQ393200 PGM393198:PGM393200 PQI393198:PQI393200 QAE393198:QAE393200 QKA393198:QKA393200 QTW393198:QTW393200 RDS393198:RDS393200 RNO393198:RNO393200 RXK393198:RXK393200 SHG393198:SHG393200 SRC393198:SRC393200 TAY393198:TAY393200 TKU393198:TKU393200 TUQ393198:TUQ393200 UEM393198:UEM393200 UOI393198:UOI393200 UYE393198:UYE393200 VIA393198:VIA393200 VRW393198:VRW393200 WBS393198:WBS393200 WLO393198:WLO393200 WVK393198:WVK393200 C458734:C458736 IY458734:IY458736 SU458734:SU458736 ACQ458734:ACQ458736 AMM458734:AMM458736 AWI458734:AWI458736 BGE458734:BGE458736 BQA458734:BQA458736 BZW458734:BZW458736 CJS458734:CJS458736 CTO458734:CTO458736 DDK458734:DDK458736 DNG458734:DNG458736 DXC458734:DXC458736 EGY458734:EGY458736 EQU458734:EQU458736 FAQ458734:FAQ458736 FKM458734:FKM458736 FUI458734:FUI458736 GEE458734:GEE458736 GOA458734:GOA458736 GXW458734:GXW458736 HHS458734:HHS458736 HRO458734:HRO458736 IBK458734:IBK458736 ILG458734:ILG458736 IVC458734:IVC458736 JEY458734:JEY458736 JOU458734:JOU458736 JYQ458734:JYQ458736 KIM458734:KIM458736 KSI458734:KSI458736 LCE458734:LCE458736 LMA458734:LMA458736 LVW458734:LVW458736 MFS458734:MFS458736 MPO458734:MPO458736 MZK458734:MZK458736 NJG458734:NJG458736 NTC458734:NTC458736 OCY458734:OCY458736 OMU458734:OMU458736 OWQ458734:OWQ458736 PGM458734:PGM458736 PQI458734:PQI458736 QAE458734:QAE458736 QKA458734:QKA458736 QTW458734:QTW458736 RDS458734:RDS458736 RNO458734:RNO458736 RXK458734:RXK458736 SHG458734:SHG458736 SRC458734:SRC458736 TAY458734:TAY458736 TKU458734:TKU458736 TUQ458734:TUQ458736 UEM458734:UEM458736 UOI458734:UOI458736 UYE458734:UYE458736 VIA458734:VIA458736 VRW458734:VRW458736 WBS458734:WBS458736 WLO458734:WLO458736 WVK458734:WVK458736 C524270:C524272 IY524270:IY524272 SU524270:SU524272 ACQ524270:ACQ524272 AMM524270:AMM524272 AWI524270:AWI524272 BGE524270:BGE524272 BQA524270:BQA524272 BZW524270:BZW524272 CJS524270:CJS524272 CTO524270:CTO524272 DDK524270:DDK524272 DNG524270:DNG524272 DXC524270:DXC524272 EGY524270:EGY524272 EQU524270:EQU524272 FAQ524270:FAQ524272 FKM524270:FKM524272 FUI524270:FUI524272 GEE524270:GEE524272 GOA524270:GOA524272 GXW524270:GXW524272 HHS524270:HHS524272 HRO524270:HRO524272 IBK524270:IBK524272 ILG524270:ILG524272 IVC524270:IVC524272 JEY524270:JEY524272 JOU524270:JOU524272 JYQ524270:JYQ524272 KIM524270:KIM524272 KSI524270:KSI524272 LCE524270:LCE524272 LMA524270:LMA524272 LVW524270:LVW524272 MFS524270:MFS524272 MPO524270:MPO524272 MZK524270:MZK524272 NJG524270:NJG524272 NTC524270:NTC524272 OCY524270:OCY524272 OMU524270:OMU524272 OWQ524270:OWQ524272 PGM524270:PGM524272 PQI524270:PQI524272 QAE524270:QAE524272 QKA524270:QKA524272 QTW524270:QTW524272 RDS524270:RDS524272 RNO524270:RNO524272 RXK524270:RXK524272 SHG524270:SHG524272 SRC524270:SRC524272 TAY524270:TAY524272 TKU524270:TKU524272 TUQ524270:TUQ524272 UEM524270:UEM524272 UOI524270:UOI524272 UYE524270:UYE524272 VIA524270:VIA524272 VRW524270:VRW524272 WBS524270:WBS524272 WLO524270:WLO524272 WVK524270:WVK524272 C589806:C589808 IY589806:IY589808 SU589806:SU589808 ACQ589806:ACQ589808 AMM589806:AMM589808 AWI589806:AWI589808 BGE589806:BGE589808 BQA589806:BQA589808 BZW589806:BZW589808 CJS589806:CJS589808 CTO589806:CTO589808 DDK589806:DDK589808 DNG589806:DNG589808 DXC589806:DXC589808 EGY589806:EGY589808 EQU589806:EQU589808 FAQ589806:FAQ589808 FKM589806:FKM589808 FUI589806:FUI589808 GEE589806:GEE589808 GOA589806:GOA589808 GXW589806:GXW589808 HHS589806:HHS589808 HRO589806:HRO589808 IBK589806:IBK589808 ILG589806:ILG589808 IVC589806:IVC589808 JEY589806:JEY589808 JOU589806:JOU589808 JYQ589806:JYQ589808 KIM589806:KIM589808 KSI589806:KSI589808 LCE589806:LCE589808 LMA589806:LMA589808 LVW589806:LVW589808 MFS589806:MFS589808 MPO589806:MPO589808 MZK589806:MZK589808 NJG589806:NJG589808 NTC589806:NTC589808 OCY589806:OCY589808 OMU589806:OMU589808 OWQ589806:OWQ589808 PGM589806:PGM589808 PQI589806:PQI589808 QAE589806:QAE589808 QKA589806:QKA589808 QTW589806:QTW589808 RDS589806:RDS589808 RNO589806:RNO589808 RXK589806:RXK589808 SHG589806:SHG589808 SRC589806:SRC589808 TAY589806:TAY589808 TKU589806:TKU589808 TUQ589806:TUQ589808 UEM589806:UEM589808 UOI589806:UOI589808 UYE589806:UYE589808 VIA589806:VIA589808 VRW589806:VRW589808 WBS589806:WBS589808 WLO589806:WLO589808 WVK589806:WVK589808 C655342:C655344 IY655342:IY655344 SU655342:SU655344 ACQ655342:ACQ655344 AMM655342:AMM655344 AWI655342:AWI655344 BGE655342:BGE655344 BQA655342:BQA655344 BZW655342:BZW655344 CJS655342:CJS655344 CTO655342:CTO655344 DDK655342:DDK655344 DNG655342:DNG655344 DXC655342:DXC655344 EGY655342:EGY655344 EQU655342:EQU655344 FAQ655342:FAQ655344 FKM655342:FKM655344 FUI655342:FUI655344 GEE655342:GEE655344 GOA655342:GOA655344 GXW655342:GXW655344 HHS655342:HHS655344 HRO655342:HRO655344 IBK655342:IBK655344 ILG655342:ILG655344 IVC655342:IVC655344 JEY655342:JEY655344 JOU655342:JOU655344 JYQ655342:JYQ655344 KIM655342:KIM655344 KSI655342:KSI655344 LCE655342:LCE655344 LMA655342:LMA655344 LVW655342:LVW655344 MFS655342:MFS655344 MPO655342:MPO655344 MZK655342:MZK655344 NJG655342:NJG655344 NTC655342:NTC655344 OCY655342:OCY655344 OMU655342:OMU655344 OWQ655342:OWQ655344 PGM655342:PGM655344 PQI655342:PQI655344 QAE655342:QAE655344 QKA655342:QKA655344 QTW655342:QTW655344 RDS655342:RDS655344 RNO655342:RNO655344 RXK655342:RXK655344 SHG655342:SHG655344 SRC655342:SRC655344 TAY655342:TAY655344 TKU655342:TKU655344 TUQ655342:TUQ655344 UEM655342:UEM655344 UOI655342:UOI655344 UYE655342:UYE655344 VIA655342:VIA655344 VRW655342:VRW655344 WBS655342:WBS655344 WLO655342:WLO655344 WVK655342:WVK655344 C720878:C720880 IY720878:IY720880 SU720878:SU720880 ACQ720878:ACQ720880 AMM720878:AMM720880 AWI720878:AWI720880 BGE720878:BGE720880 BQA720878:BQA720880 BZW720878:BZW720880 CJS720878:CJS720880 CTO720878:CTO720880 DDK720878:DDK720880 DNG720878:DNG720880 DXC720878:DXC720880 EGY720878:EGY720880 EQU720878:EQU720880 FAQ720878:FAQ720880 FKM720878:FKM720880 FUI720878:FUI720880 GEE720878:GEE720880 GOA720878:GOA720880 GXW720878:GXW720880 HHS720878:HHS720880 HRO720878:HRO720880 IBK720878:IBK720880 ILG720878:ILG720880 IVC720878:IVC720880 JEY720878:JEY720880 JOU720878:JOU720880 JYQ720878:JYQ720880 KIM720878:KIM720880 KSI720878:KSI720880 LCE720878:LCE720880 LMA720878:LMA720880 LVW720878:LVW720880 MFS720878:MFS720880 MPO720878:MPO720880 MZK720878:MZK720880 NJG720878:NJG720880 NTC720878:NTC720880 OCY720878:OCY720880 OMU720878:OMU720880 OWQ720878:OWQ720880 PGM720878:PGM720880 PQI720878:PQI720880 QAE720878:QAE720880 QKA720878:QKA720880 QTW720878:QTW720880 RDS720878:RDS720880 RNO720878:RNO720880 RXK720878:RXK720880 SHG720878:SHG720880 SRC720878:SRC720880 TAY720878:TAY720880 TKU720878:TKU720880 TUQ720878:TUQ720880 UEM720878:UEM720880 UOI720878:UOI720880 UYE720878:UYE720880 VIA720878:VIA720880 VRW720878:VRW720880 WBS720878:WBS720880 WLO720878:WLO720880 WVK720878:WVK720880 C786414:C786416 IY786414:IY786416 SU786414:SU786416 ACQ786414:ACQ786416 AMM786414:AMM786416 AWI786414:AWI786416 BGE786414:BGE786416 BQA786414:BQA786416 BZW786414:BZW786416 CJS786414:CJS786416 CTO786414:CTO786416 DDK786414:DDK786416 DNG786414:DNG786416 DXC786414:DXC786416 EGY786414:EGY786416 EQU786414:EQU786416 FAQ786414:FAQ786416 FKM786414:FKM786416 FUI786414:FUI786416 GEE786414:GEE786416 GOA786414:GOA786416 GXW786414:GXW786416 HHS786414:HHS786416 HRO786414:HRO786416 IBK786414:IBK786416 ILG786414:ILG786416 IVC786414:IVC786416 JEY786414:JEY786416 JOU786414:JOU786416 JYQ786414:JYQ786416 KIM786414:KIM786416 KSI786414:KSI786416 LCE786414:LCE786416 LMA786414:LMA786416 LVW786414:LVW786416 MFS786414:MFS786416 MPO786414:MPO786416 MZK786414:MZK786416 NJG786414:NJG786416 NTC786414:NTC786416 OCY786414:OCY786416 OMU786414:OMU786416 OWQ786414:OWQ786416 PGM786414:PGM786416 PQI786414:PQI786416 QAE786414:QAE786416 QKA786414:QKA786416 QTW786414:QTW786416 RDS786414:RDS786416 RNO786414:RNO786416 RXK786414:RXK786416 SHG786414:SHG786416 SRC786414:SRC786416 TAY786414:TAY786416 TKU786414:TKU786416 TUQ786414:TUQ786416 UEM786414:UEM786416 UOI786414:UOI786416 UYE786414:UYE786416 VIA786414:VIA786416 VRW786414:VRW786416 WBS786414:WBS786416 WLO786414:WLO786416 WVK786414:WVK786416 C851950:C851952 IY851950:IY851952 SU851950:SU851952 ACQ851950:ACQ851952 AMM851950:AMM851952 AWI851950:AWI851952 BGE851950:BGE851952 BQA851950:BQA851952 BZW851950:BZW851952 CJS851950:CJS851952 CTO851950:CTO851952 DDK851950:DDK851952 DNG851950:DNG851952 DXC851950:DXC851952 EGY851950:EGY851952 EQU851950:EQU851952 FAQ851950:FAQ851952 FKM851950:FKM851952 FUI851950:FUI851952 GEE851950:GEE851952 GOA851950:GOA851952 GXW851950:GXW851952 HHS851950:HHS851952 HRO851950:HRO851952 IBK851950:IBK851952 ILG851950:ILG851952 IVC851950:IVC851952 JEY851950:JEY851952 JOU851950:JOU851952 JYQ851950:JYQ851952 KIM851950:KIM851952 KSI851950:KSI851952 LCE851950:LCE851952 LMA851950:LMA851952 LVW851950:LVW851952 MFS851950:MFS851952 MPO851950:MPO851952 MZK851950:MZK851952 NJG851950:NJG851952 NTC851950:NTC851952 OCY851950:OCY851952 OMU851950:OMU851952 OWQ851950:OWQ851952 PGM851950:PGM851952 PQI851950:PQI851952 QAE851950:QAE851952 QKA851950:QKA851952 QTW851950:QTW851952 RDS851950:RDS851952 RNO851950:RNO851952 RXK851950:RXK851952 SHG851950:SHG851952 SRC851950:SRC851952 TAY851950:TAY851952 TKU851950:TKU851952 TUQ851950:TUQ851952 UEM851950:UEM851952 UOI851950:UOI851952 UYE851950:UYE851952 VIA851950:VIA851952 VRW851950:VRW851952 WBS851950:WBS851952 WLO851950:WLO851952 WVK851950:WVK851952 C917486:C917488 IY917486:IY917488 SU917486:SU917488 ACQ917486:ACQ917488 AMM917486:AMM917488 AWI917486:AWI917488 BGE917486:BGE917488 BQA917486:BQA917488 BZW917486:BZW917488 CJS917486:CJS917488 CTO917486:CTO917488 DDK917486:DDK917488 DNG917486:DNG917488 DXC917486:DXC917488 EGY917486:EGY917488 EQU917486:EQU917488 FAQ917486:FAQ917488 FKM917486:FKM917488 FUI917486:FUI917488 GEE917486:GEE917488 GOA917486:GOA917488 GXW917486:GXW917488 HHS917486:HHS917488 HRO917486:HRO917488 IBK917486:IBK917488 ILG917486:ILG917488 IVC917486:IVC917488 JEY917486:JEY917488 JOU917486:JOU917488 JYQ917486:JYQ917488 KIM917486:KIM917488 KSI917486:KSI917488 LCE917486:LCE917488 LMA917486:LMA917488 LVW917486:LVW917488 MFS917486:MFS917488 MPO917486:MPO917488 MZK917486:MZK917488 NJG917486:NJG917488 NTC917486:NTC917488 OCY917486:OCY917488 OMU917486:OMU917488 OWQ917486:OWQ917488 PGM917486:PGM917488 PQI917486:PQI917488 QAE917486:QAE917488 QKA917486:QKA917488 QTW917486:QTW917488 RDS917486:RDS917488 RNO917486:RNO917488 RXK917486:RXK917488 SHG917486:SHG917488 SRC917486:SRC917488 TAY917486:TAY917488 TKU917486:TKU917488 TUQ917486:TUQ917488 UEM917486:UEM917488 UOI917486:UOI917488 UYE917486:UYE917488 VIA917486:VIA917488 VRW917486:VRW917488 WBS917486:WBS917488 WLO917486:WLO917488 WVK917486:WVK917488 C983022:C983024 IY983022:IY983024 SU983022:SU983024 ACQ983022:ACQ983024 AMM983022:AMM983024 AWI983022:AWI983024 BGE983022:BGE983024 BQA983022:BQA983024 BZW983022:BZW983024 CJS983022:CJS983024 CTO983022:CTO983024 DDK983022:DDK983024 DNG983022:DNG983024 DXC983022:DXC983024 EGY983022:EGY983024 EQU983022:EQU983024 FAQ983022:FAQ983024 FKM983022:FKM983024 FUI983022:FUI983024 GEE983022:GEE983024 GOA983022:GOA983024 GXW983022:GXW983024 HHS983022:HHS983024 HRO983022:HRO983024 IBK983022:IBK983024 ILG983022:ILG983024 IVC983022:IVC983024 JEY983022:JEY983024 JOU983022:JOU983024 JYQ983022:JYQ983024 KIM983022:KIM983024 KSI983022:KSI983024 LCE983022:LCE983024 LMA983022:LMA983024 LVW983022:LVW983024 MFS983022:MFS983024 MPO983022:MPO983024 MZK983022:MZK983024 NJG983022:NJG983024 NTC983022:NTC983024 OCY983022:OCY983024 OMU983022:OMU983024 OWQ983022:OWQ983024 PGM983022:PGM983024 PQI983022:PQI983024 QAE983022:QAE983024 QKA983022:QKA983024 QTW983022:QTW983024 RDS983022:RDS983024 RNO983022:RNO983024 RXK983022:RXK983024 SHG983022:SHG983024 SRC983022:SRC983024 TAY983022:TAY983024 TKU983022:TKU983024 TUQ983022:TUQ983024 UEM983022:UEM983024 UOI983022:UOI983024 UYE983022:UYE983024 VIA983022:VIA983024 VRW983022:VRW983024 WBS983022:WBS983024 WLO983022:WLO983024 WVK983022:WVK983024 C65506:C65508 IY65506:IY65508 SU65506:SU65508 ACQ65506:ACQ65508 AMM65506:AMM65508 AWI65506:AWI65508 BGE65506:BGE65508 BQA65506:BQA65508 BZW65506:BZW65508 CJS65506:CJS65508 CTO65506:CTO65508 DDK65506:DDK65508 DNG65506:DNG65508 DXC65506:DXC65508 EGY65506:EGY65508 EQU65506:EQU65508 FAQ65506:FAQ65508 FKM65506:FKM65508 FUI65506:FUI65508 GEE65506:GEE65508 GOA65506:GOA65508 GXW65506:GXW65508 HHS65506:HHS65508 HRO65506:HRO65508 IBK65506:IBK65508 ILG65506:ILG65508 IVC65506:IVC65508 JEY65506:JEY65508 JOU65506:JOU65508 JYQ65506:JYQ65508 KIM65506:KIM65508 KSI65506:KSI65508 LCE65506:LCE65508 LMA65506:LMA65508 LVW65506:LVW65508 MFS65506:MFS65508 MPO65506:MPO65508 MZK65506:MZK65508 NJG65506:NJG65508 NTC65506:NTC65508 OCY65506:OCY65508 OMU65506:OMU65508 OWQ65506:OWQ65508 PGM65506:PGM65508 PQI65506:PQI65508 QAE65506:QAE65508 QKA65506:QKA65508 QTW65506:QTW65508 RDS65506:RDS65508 RNO65506:RNO65508 RXK65506:RXK65508 SHG65506:SHG65508 SRC65506:SRC65508 TAY65506:TAY65508 TKU65506:TKU65508 TUQ65506:TUQ65508 UEM65506:UEM65508 UOI65506:UOI65508 UYE65506:UYE65508 VIA65506:VIA65508 VRW65506:VRW65508 WBS65506:WBS65508 WLO65506:WLO65508 WVK65506:WVK65508 C131042:C131044 IY131042:IY131044 SU131042:SU131044 ACQ131042:ACQ131044 AMM131042:AMM131044 AWI131042:AWI131044 BGE131042:BGE131044 BQA131042:BQA131044 BZW131042:BZW131044 CJS131042:CJS131044 CTO131042:CTO131044 DDK131042:DDK131044 DNG131042:DNG131044 DXC131042:DXC131044 EGY131042:EGY131044 EQU131042:EQU131044 FAQ131042:FAQ131044 FKM131042:FKM131044 FUI131042:FUI131044 GEE131042:GEE131044 GOA131042:GOA131044 GXW131042:GXW131044 HHS131042:HHS131044 HRO131042:HRO131044 IBK131042:IBK131044 ILG131042:ILG131044 IVC131042:IVC131044 JEY131042:JEY131044 JOU131042:JOU131044 JYQ131042:JYQ131044 KIM131042:KIM131044 KSI131042:KSI131044 LCE131042:LCE131044 LMA131042:LMA131044 LVW131042:LVW131044 MFS131042:MFS131044 MPO131042:MPO131044 MZK131042:MZK131044 NJG131042:NJG131044 NTC131042:NTC131044 OCY131042:OCY131044 OMU131042:OMU131044 OWQ131042:OWQ131044 PGM131042:PGM131044 PQI131042:PQI131044 QAE131042:QAE131044 QKA131042:QKA131044 QTW131042:QTW131044 RDS131042:RDS131044 RNO131042:RNO131044 RXK131042:RXK131044 SHG131042:SHG131044 SRC131042:SRC131044 TAY131042:TAY131044 TKU131042:TKU131044 TUQ131042:TUQ131044 UEM131042:UEM131044 UOI131042:UOI131044 UYE131042:UYE131044 VIA131042:VIA131044 VRW131042:VRW131044 WBS131042:WBS131044 WLO131042:WLO131044 WVK131042:WVK131044 C196578:C196580 IY196578:IY196580 SU196578:SU196580 ACQ196578:ACQ196580 AMM196578:AMM196580 AWI196578:AWI196580 BGE196578:BGE196580 BQA196578:BQA196580 BZW196578:BZW196580 CJS196578:CJS196580 CTO196578:CTO196580 DDK196578:DDK196580 DNG196578:DNG196580 DXC196578:DXC196580 EGY196578:EGY196580 EQU196578:EQU196580 FAQ196578:FAQ196580 FKM196578:FKM196580 FUI196578:FUI196580 GEE196578:GEE196580 GOA196578:GOA196580 GXW196578:GXW196580 HHS196578:HHS196580 HRO196578:HRO196580 IBK196578:IBK196580 ILG196578:ILG196580 IVC196578:IVC196580 JEY196578:JEY196580 JOU196578:JOU196580 JYQ196578:JYQ196580 KIM196578:KIM196580 KSI196578:KSI196580 LCE196578:LCE196580 LMA196578:LMA196580 LVW196578:LVW196580 MFS196578:MFS196580 MPO196578:MPO196580 MZK196578:MZK196580 NJG196578:NJG196580 NTC196578:NTC196580 OCY196578:OCY196580 OMU196578:OMU196580 OWQ196578:OWQ196580 PGM196578:PGM196580 PQI196578:PQI196580 QAE196578:QAE196580 QKA196578:QKA196580 QTW196578:QTW196580 RDS196578:RDS196580 RNO196578:RNO196580 RXK196578:RXK196580 SHG196578:SHG196580 SRC196578:SRC196580 TAY196578:TAY196580 TKU196578:TKU196580 TUQ196578:TUQ196580 UEM196578:UEM196580 UOI196578:UOI196580 UYE196578:UYE196580 VIA196578:VIA196580 VRW196578:VRW196580 WBS196578:WBS196580 WLO196578:WLO196580 WVK196578:WVK196580 C262114:C262116 IY262114:IY262116 SU262114:SU262116 ACQ262114:ACQ262116 AMM262114:AMM262116 AWI262114:AWI262116 BGE262114:BGE262116 BQA262114:BQA262116 BZW262114:BZW262116 CJS262114:CJS262116 CTO262114:CTO262116 DDK262114:DDK262116 DNG262114:DNG262116 DXC262114:DXC262116 EGY262114:EGY262116 EQU262114:EQU262116 FAQ262114:FAQ262116 FKM262114:FKM262116 FUI262114:FUI262116 GEE262114:GEE262116 GOA262114:GOA262116 GXW262114:GXW262116 HHS262114:HHS262116 HRO262114:HRO262116 IBK262114:IBK262116 ILG262114:ILG262116 IVC262114:IVC262116 JEY262114:JEY262116 JOU262114:JOU262116 JYQ262114:JYQ262116 KIM262114:KIM262116 KSI262114:KSI262116 LCE262114:LCE262116 LMA262114:LMA262116 LVW262114:LVW262116 MFS262114:MFS262116 MPO262114:MPO262116 MZK262114:MZK262116 NJG262114:NJG262116 NTC262114:NTC262116 OCY262114:OCY262116 OMU262114:OMU262116 OWQ262114:OWQ262116 PGM262114:PGM262116 PQI262114:PQI262116 QAE262114:QAE262116 QKA262114:QKA262116 QTW262114:QTW262116 RDS262114:RDS262116 RNO262114:RNO262116 RXK262114:RXK262116 SHG262114:SHG262116 SRC262114:SRC262116 TAY262114:TAY262116 TKU262114:TKU262116 TUQ262114:TUQ262116 UEM262114:UEM262116 UOI262114:UOI262116 UYE262114:UYE262116 VIA262114:VIA262116 VRW262114:VRW262116 WBS262114:WBS262116 WLO262114:WLO262116 WVK262114:WVK262116 C327650:C327652 IY327650:IY327652 SU327650:SU327652 ACQ327650:ACQ327652 AMM327650:AMM327652 AWI327650:AWI327652 BGE327650:BGE327652 BQA327650:BQA327652 BZW327650:BZW327652 CJS327650:CJS327652 CTO327650:CTO327652 DDK327650:DDK327652 DNG327650:DNG327652 DXC327650:DXC327652 EGY327650:EGY327652 EQU327650:EQU327652 FAQ327650:FAQ327652 FKM327650:FKM327652 FUI327650:FUI327652 GEE327650:GEE327652 GOA327650:GOA327652 GXW327650:GXW327652 HHS327650:HHS327652 HRO327650:HRO327652 IBK327650:IBK327652 ILG327650:ILG327652 IVC327650:IVC327652 JEY327650:JEY327652 JOU327650:JOU327652 JYQ327650:JYQ327652 KIM327650:KIM327652 KSI327650:KSI327652 LCE327650:LCE327652 LMA327650:LMA327652 LVW327650:LVW327652 MFS327650:MFS327652 MPO327650:MPO327652 MZK327650:MZK327652 NJG327650:NJG327652 NTC327650:NTC327652 OCY327650:OCY327652 OMU327650:OMU327652 OWQ327650:OWQ327652 PGM327650:PGM327652 PQI327650:PQI327652 QAE327650:QAE327652 QKA327650:QKA327652 QTW327650:QTW327652 RDS327650:RDS327652 RNO327650:RNO327652 RXK327650:RXK327652 SHG327650:SHG327652 SRC327650:SRC327652 TAY327650:TAY327652 TKU327650:TKU327652 TUQ327650:TUQ327652 UEM327650:UEM327652 UOI327650:UOI327652 UYE327650:UYE327652 VIA327650:VIA327652 VRW327650:VRW327652 WBS327650:WBS327652 WLO327650:WLO327652 WVK327650:WVK327652 C393186:C393188 IY393186:IY393188 SU393186:SU393188 ACQ393186:ACQ393188 AMM393186:AMM393188 AWI393186:AWI393188 BGE393186:BGE393188 BQA393186:BQA393188 BZW393186:BZW393188 CJS393186:CJS393188 CTO393186:CTO393188 DDK393186:DDK393188 DNG393186:DNG393188 DXC393186:DXC393188 EGY393186:EGY393188 EQU393186:EQU393188 FAQ393186:FAQ393188 FKM393186:FKM393188 FUI393186:FUI393188 GEE393186:GEE393188 GOA393186:GOA393188 GXW393186:GXW393188 HHS393186:HHS393188 HRO393186:HRO393188 IBK393186:IBK393188 ILG393186:ILG393188 IVC393186:IVC393188 JEY393186:JEY393188 JOU393186:JOU393188 JYQ393186:JYQ393188 KIM393186:KIM393188 KSI393186:KSI393188 LCE393186:LCE393188 LMA393186:LMA393188 LVW393186:LVW393188 MFS393186:MFS393188 MPO393186:MPO393188 MZK393186:MZK393188 NJG393186:NJG393188 NTC393186:NTC393188 OCY393186:OCY393188 OMU393186:OMU393188 OWQ393186:OWQ393188 PGM393186:PGM393188 PQI393186:PQI393188 QAE393186:QAE393188 QKA393186:QKA393188 QTW393186:QTW393188 RDS393186:RDS393188 RNO393186:RNO393188 RXK393186:RXK393188 SHG393186:SHG393188 SRC393186:SRC393188 TAY393186:TAY393188 TKU393186:TKU393188 TUQ393186:TUQ393188 UEM393186:UEM393188 UOI393186:UOI393188 UYE393186:UYE393188 VIA393186:VIA393188 VRW393186:VRW393188 WBS393186:WBS393188 WLO393186:WLO393188 WVK393186:WVK393188 C458722:C458724 IY458722:IY458724 SU458722:SU458724 ACQ458722:ACQ458724 AMM458722:AMM458724 AWI458722:AWI458724 BGE458722:BGE458724 BQA458722:BQA458724 BZW458722:BZW458724 CJS458722:CJS458724 CTO458722:CTO458724 DDK458722:DDK458724 DNG458722:DNG458724 DXC458722:DXC458724 EGY458722:EGY458724 EQU458722:EQU458724 FAQ458722:FAQ458724 FKM458722:FKM458724 FUI458722:FUI458724 GEE458722:GEE458724 GOA458722:GOA458724 GXW458722:GXW458724 HHS458722:HHS458724 HRO458722:HRO458724 IBK458722:IBK458724 ILG458722:ILG458724 IVC458722:IVC458724 JEY458722:JEY458724 JOU458722:JOU458724 JYQ458722:JYQ458724 KIM458722:KIM458724 KSI458722:KSI458724 LCE458722:LCE458724 LMA458722:LMA458724 LVW458722:LVW458724 MFS458722:MFS458724 MPO458722:MPO458724 MZK458722:MZK458724 NJG458722:NJG458724 NTC458722:NTC458724 OCY458722:OCY458724 OMU458722:OMU458724 OWQ458722:OWQ458724 PGM458722:PGM458724 PQI458722:PQI458724 QAE458722:QAE458724 QKA458722:QKA458724 QTW458722:QTW458724 RDS458722:RDS458724 RNO458722:RNO458724 RXK458722:RXK458724 SHG458722:SHG458724 SRC458722:SRC458724 TAY458722:TAY458724 TKU458722:TKU458724 TUQ458722:TUQ458724 UEM458722:UEM458724 UOI458722:UOI458724 UYE458722:UYE458724 VIA458722:VIA458724 VRW458722:VRW458724 WBS458722:WBS458724 WLO458722:WLO458724 WVK458722:WVK458724 C524258:C524260 IY524258:IY524260 SU524258:SU524260 ACQ524258:ACQ524260 AMM524258:AMM524260 AWI524258:AWI524260 BGE524258:BGE524260 BQA524258:BQA524260 BZW524258:BZW524260 CJS524258:CJS524260 CTO524258:CTO524260 DDK524258:DDK524260 DNG524258:DNG524260 DXC524258:DXC524260 EGY524258:EGY524260 EQU524258:EQU524260 FAQ524258:FAQ524260 FKM524258:FKM524260 FUI524258:FUI524260 GEE524258:GEE524260 GOA524258:GOA524260 GXW524258:GXW524260 HHS524258:HHS524260 HRO524258:HRO524260 IBK524258:IBK524260 ILG524258:ILG524260 IVC524258:IVC524260 JEY524258:JEY524260 JOU524258:JOU524260 JYQ524258:JYQ524260 KIM524258:KIM524260 KSI524258:KSI524260 LCE524258:LCE524260 LMA524258:LMA524260 LVW524258:LVW524260 MFS524258:MFS524260 MPO524258:MPO524260 MZK524258:MZK524260 NJG524258:NJG524260 NTC524258:NTC524260 OCY524258:OCY524260 OMU524258:OMU524260 OWQ524258:OWQ524260 PGM524258:PGM524260 PQI524258:PQI524260 QAE524258:QAE524260 QKA524258:QKA524260 QTW524258:QTW524260 RDS524258:RDS524260 RNO524258:RNO524260 RXK524258:RXK524260 SHG524258:SHG524260 SRC524258:SRC524260 TAY524258:TAY524260 TKU524258:TKU524260 TUQ524258:TUQ524260 UEM524258:UEM524260 UOI524258:UOI524260 UYE524258:UYE524260 VIA524258:VIA524260 VRW524258:VRW524260 WBS524258:WBS524260 WLO524258:WLO524260 WVK524258:WVK524260 C589794:C589796 IY589794:IY589796 SU589794:SU589796 ACQ589794:ACQ589796 AMM589794:AMM589796 AWI589794:AWI589796 BGE589794:BGE589796 BQA589794:BQA589796 BZW589794:BZW589796 CJS589794:CJS589796 CTO589794:CTO589796 DDK589794:DDK589796 DNG589794:DNG589796 DXC589794:DXC589796 EGY589794:EGY589796 EQU589794:EQU589796 FAQ589794:FAQ589796 FKM589794:FKM589796 FUI589794:FUI589796 GEE589794:GEE589796 GOA589794:GOA589796 GXW589794:GXW589796 HHS589794:HHS589796 HRO589794:HRO589796 IBK589794:IBK589796 ILG589794:ILG589796 IVC589794:IVC589796 JEY589794:JEY589796 JOU589794:JOU589796 JYQ589794:JYQ589796 KIM589794:KIM589796 KSI589794:KSI589796 LCE589794:LCE589796 LMA589794:LMA589796 LVW589794:LVW589796 MFS589794:MFS589796 MPO589794:MPO589796 MZK589794:MZK589796 NJG589794:NJG589796 NTC589794:NTC589796 OCY589794:OCY589796 OMU589794:OMU589796 OWQ589794:OWQ589796 PGM589794:PGM589796 PQI589794:PQI589796 QAE589794:QAE589796 QKA589794:QKA589796 QTW589794:QTW589796 RDS589794:RDS589796 RNO589794:RNO589796 RXK589794:RXK589796 SHG589794:SHG589796 SRC589794:SRC589796 TAY589794:TAY589796 TKU589794:TKU589796 TUQ589794:TUQ589796 UEM589794:UEM589796 UOI589794:UOI589796 UYE589794:UYE589796 VIA589794:VIA589796 VRW589794:VRW589796 WBS589794:WBS589796 WLO589794:WLO589796 WVK589794:WVK589796 C655330:C655332 IY655330:IY655332 SU655330:SU655332 ACQ655330:ACQ655332 AMM655330:AMM655332 AWI655330:AWI655332 BGE655330:BGE655332 BQA655330:BQA655332 BZW655330:BZW655332 CJS655330:CJS655332 CTO655330:CTO655332 DDK655330:DDK655332 DNG655330:DNG655332 DXC655330:DXC655332 EGY655330:EGY655332 EQU655330:EQU655332 FAQ655330:FAQ655332 FKM655330:FKM655332 FUI655330:FUI655332 GEE655330:GEE655332 GOA655330:GOA655332 GXW655330:GXW655332 HHS655330:HHS655332 HRO655330:HRO655332 IBK655330:IBK655332 ILG655330:ILG655332 IVC655330:IVC655332 JEY655330:JEY655332 JOU655330:JOU655332 JYQ655330:JYQ655332 KIM655330:KIM655332 KSI655330:KSI655332 LCE655330:LCE655332 LMA655330:LMA655332 LVW655330:LVW655332 MFS655330:MFS655332 MPO655330:MPO655332 MZK655330:MZK655332 NJG655330:NJG655332 NTC655330:NTC655332 OCY655330:OCY655332 OMU655330:OMU655332 OWQ655330:OWQ655332 PGM655330:PGM655332 PQI655330:PQI655332 QAE655330:QAE655332 QKA655330:QKA655332 QTW655330:QTW655332 RDS655330:RDS655332 RNO655330:RNO655332 RXK655330:RXK655332 SHG655330:SHG655332 SRC655330:SRC655332 TAY655330:TAY655332 TKU655330:TKU655332 TUQ655330:TUQ655332 UEM655330:UEM655332 UOI655330:UOI655332 UYE655330:UYE655332 VIA655330:VIA655332 VRW655330:VRW655332 WBS655330:WBS655332 WLO655330:WLO655332 WVK655330:WVK655332 C720866:C720868 IY720866:IY720868 SU720866:SU720868 ACQ720866:ACQ720868 AMM720866:AMM720868 AWI720866:AWI720868 BGE720866:BGE720868 BQA720866:BQA720868 BZW720866:BZW720868 CJS720866:CJS720868 CTO720866:CTO720868 DDK720866:DDK720868 DNG720866:DNG720868 DXC720866:DXC720868 EGY720866:EGY720868 EQU720866:EQU720868 FAQ720866:FAQ720868 FKM720866:FKM720868 FUI720866:FUI720868 GEE720866:GEE720868 GOA720866:GOA720868 GXW720866:GXW720868 HHS720866:HHS720868 HRO720866:HRO720868 IBK720866:IBK720868 ILG720866:ILG720868 IVC720866:IVC720868 JEY720866:JEY720868 JOU720866:JOU720868 JYQ720866:JYQ720868 KIM720866:KIM720868 KSI720866:KSI720868 LCE720866:LCE720868 LMA720866:LMA720868 LVW720866:LVW720868 MFS720866:MFS720868 MPO720866:MPO720868 MZK720866:MZK720868 NJG720866:NJG720868 NTC720866:NTC720868 OCY720866:OCY720868 OMU720866:OMU720868 OWQ720866:OWQ720868 PGM720866:PGM720868 PQI720866:PQI720868 QAE720866:QAE720868 QKA720866:QKA720868 QTW720866:QTW720868 RDS720866:RDS720868 RNO720866:RNO720868 RXK720866:RXK720868 SHG720866:SHG720868 SRC720866:SRC720868 TAY720866:TAY720868 TKU720866:TKU720868 TUQ720866:TUQ720868 UEM720866:UEM720868 UOI720866:UOI720868 UYE720866:UYE720868 VIA720866:VIA720868 VRW720866:VRW720868 WBS720866:WBS720868 WLO720866:WLO720868 WVK720866:WVK720868 C786402:C786404 IY786402:IY786404 SU786402:SU786404 ACQ786402:ACQ786404 AMM786402:AMM786404 AWI786402:AWI786404 BGE786402:BGE786404 BQA786402:BQA786404 BZW786402:BZW786404 CJS786402:CJS786404 CTO786402:CTO786404 DDK786402:DDK786404 DNG786402:DNG786404 DXC786402:DXC786404 EGY786402:EGY786404 EQU786402:EQU786404 FAQ786402:FAQ786404 FKM786402:FKM786404 FUI786402:FUI786404 GEE786402:GEE786404 GOA786402:GOA786404 GXW786402:GXW786404 HHS786402:HHS786404 HRO786402:HRO786404 IBK786402:IBK786404 ILG786402:ILG786404 IVC786402:IVC786404 JEY786402:JEY786404 JOU786402:JOU786404 JYQ786402:JYQ786404 KIM786402:KIM786404 KSI786402:KSI786404 LCE786402:LCE786404 LMA786402:LMA786404 LVW786402:LVW786404 MFS786402:MFS786404 MPO786402:MPO786404 MZK786402:MZK786404 NJG786402:NJG786404 NTC786402:NTC786404 OCY786402:OCY786404 OMU786402:OMU786404 OWQ786402:OWQ786404 PGM786402:PGM786404 PQI786402:PQI786404 QAE786402:QAE786404 QKA786402:QKA786404 QTW786402:QTW786404 RDS786402:RDS786404 RNO786402:RNO786404 RXK786402:RXK786404 SHG786402:SHG786404 SRC786402:SRC786404 TAY786402:TAY786404 TKU786402:TKU786404 TUQ786402:TUQ786404 UEM786402:UEM786404 UOI786402:UOI786404 UYE786402:UYE786404 VIA786402:VIA786404 VRW786402:VRW786404 WBS786402:WBS786404 WLO786402:WLO786404 WVK786402:WVK786404 C851938:C851940 IY851938:IY851940 SU851938:SU851940 ACQ851938:ACQ851940 AMM851938:AMM851940 AWI851938:AWI851940 BGE851938:BGE851940 BQA851938:BQA851940 BZW851938:BZW851940 CJS851938:CJS851940 CTO851938:CTO851940 DDK851938:DDK851940 DNG851938:DNG851940 DXC851938:DXC851940 EGY851938:EGY851940 EQU851938:EQU851940 FAQ851938:FAQ851940 FKM851938:FKM851940 FUI851938:FUI851940 GEE851938:GEE851940 GOA851938:GOA851940 GXW851938:GXW851940 HHS851938:HHS851940 HRO851938:HRO851940 IBK851938:IBK851940 ILG851938:ILG851940 IVC851938:IVC851940 JEY851938:JEY851940 JOU851938:JOU851940 JYQ851938:JYQ851940 KIM851938:KIM851940 KSI851938:KSI851940 LCE851938:LCE851940 LMA851938:LMA851940 LVW851938:LVW851940 MFS851938:MFS851940 MPO851938:MPO851940 MZK851938:MZK851940 NJG851938:NJG851940 NTC851938:NTC851940 OCY851938:OCY851940 OMU851938:OMU851940 OWQ851938:OWQ851940 PGM851938:PGM851940 PQI851938:PQI851940 QAE851938:QAE851940 QKA851938:QKA851940 QTW851938:QTW851940 RDS851938:RDS851940 RNO851938:RNO851940 RXK851938:RXK851940 SHG851938:SHG851940 SRC851938:SRC851940 TAY851938:TAY851940 TKU851938:TKU851940 TUQ851938:TUQ851940 UEM851938:UEM851940 UOI851938:UOI851940 UYE851938:UYE851940 VIA851938:VIA851940 VRW851938:VRW851940 WBS851938:WBS851940 WLO851938:WLO851940 WVK851938:WVK851940 C917474:C917476 IY917474:IY917476 SU917474:SU917476 ACQ917474:ACQ917476 AMM917474:AMM917476 AWI917474:AWI917476 BGE917474:BGE917476 BQA917474:BQA917476 BZW917474:BZW917476 CJS917474:CJS917476 CTO917474:CTO917476 DDK917474:DDK917476 DNG917474:DNG917476 DXC917474:DXC917476 EGY917474:EGY917476 EQU917474:EQU917476 FAQ917474:FAQ917476 FKM917474:FKM917476 FUI917474:FUI917476 GEE917474:GEE917476 GOA917474:GOA917476 GXW917474:GXW917476 HHS917474:HHS917476 HRO917474:HRO917476 IBK917474:IBK917476 ILG917474:ILG917476 IVC917474:IVC917476 JEY917474:JEY917476 JOU917474:JOU917476 JYQ917474:JYQ917476 KIM917474:KIM917476 KSI917474:KSI917476 LCE917474:LCE917476 LMA917474:LMA917476 LVW917474:LVW917476 MFS917474:MFS917476 MPO917474:MPO917476 MZK917474:MZK917476 NJG917474:NJG917476 NTC917474:NTC917476 OCY917474:OCY917476 OMU917474:OMU917476 OWQ917474:OWQ917476 PGM917474:PGM917476 PQI917474:PQI917476 QAE917474:QAE917476 QKA917474:QKA917476 QTW917474:QTW917476 RDS917474:RDS917476 RNO917474:RNO917476 RXK917474:RXK917476 SHG917474:SHG917476 SRC917474:SRC917476 TAY917474:TAY917476 TKU917474:TKU917476 TUQ917474:TUQ917476 UEM917474:UEM917476 UOI917474:UOI917476 UYE917474:UYE917476 VIA917474:VIA917476 VRW917474:VRW917476 WBS917474:WBS917476 WLO917474:WLO917476 WVK917474:WVK917476 C983010:C983012 IY983010:IY983012 SU983010:SU983012 ACQ983010:ACQ983012 AMM983010:AMM983012 AWI983010:AWI983012 BGE983010:BGE983012 BQA983010:BQA983012 BZW983010:BZW983012 CJS983010:CJS983012 CTO983010:CTO983012 DDK983010:DDK983012 DNG983010:DNG983012 DXC983010:DXC983012 EGY983010:EGY983012 EQU983010:EQU983012 FAQ983010:FAQ983012 FKM983010:FKM983012 FUI983010:FUI983012 GEE983010:GEE983012 GOA983010:GOA983012 GXW983010:GXW983012 HHS983010:HHS983012 HRO983010:HRO983012 IBK983010:IBK983012 ILG983010:ILG983012 IVC983010:IVC983012 JEY983010:JEY983012 JOU983010:JOU983012 JYQ983010:JYQ983012 KIM983010:KIM983012 KSI983010:KSI983012 LCE983010:LCE983012 LMA983010:LMA983012 LVW983010:LVW983012 MFS983010:MFS983012 MPO983010:MPO983012 MZK983010:MZK983012 NJG983010:NJG983012 NTC983010:NTC983012 OCY983010:OCY983012 OMU983010:OMU983012 OWQ983010:OWQ983012 PGM983010:PGM983012 PQI983010:PQI983012 QAE983010:QAE983012 QKA983010:QKA983012 QTW983010:QTW983012 RDS983010:RDS983012 RNO983010:RNO983012 RXK983010:RXK983012 SHG983010:SHG983012 SRC983010:SRC983012 TAY983010:TAY983012 TKU983010:TKU983012 TUQ983010:TUQ983012 UEM983010:UEM983012 UOI983010:UOI983012 UYE983010:UYE983012 VIA983010:VIA983012 VRW983010:VRW983012 WBS983010:WBS983012 WLO983010:WLO983012 WVK983010:WVK983012 C5:C7 IY5:IY7 SU5:SU7 ACQ5:ACQ7 AMM5:AMM7 AWI5:AWI7 BGE5:BGE7 BQA5:BQA7 BZW5:BZW7 CJS5:CJS7 CTO5:CTO7 DDK5:DDK7 DNG5:DNG7 DXC5:DXC7 EGY5:EGY7 EQU5:EQU7 FAQ5:FAQ7 FKM5:FKM7 FUI5:FUI7 GEE5:GEE7 GOA5:GOA7 GXW5:GXW7 HHS5:HHS7 HRO5:HRO7 IBK5:IBK7 ILG5:ILG7 IVC5:IVC7 JEY5:JEY7 JOU5:JOU7 JYQ5:JYQ7 KIM5:KIM7 KSI5:KSI7 LCE5:LCE7 LMA5:LMA7 LVW5:LVW7 MFS5:MFS7 MPO5:MPO7 MZK5:MZK7 NJG5:NJG7 NTC5:NTC7 OCY5:OCY7 OMU5:OMU7 OWQ5:OWQ7 PGM5:PGM7 PQI5:PQI7 QAE5:QAE7 QKA5:QKA7 QTW5:QTW7 RDS5:RDS7 RNO5:RNO7 RXK5:RXK7 SHG5:SHG7 SRC5:SRC7 TAY5:TAY7 TKU5:TKU7 TUQ5:TUQ7 UEM5:UEM7 UOI5:UOI7 UYE5:UYE7 VIA5:VIA7 VRW5:VRW7 WBS5:WBS7 WLO5:WLO7 WVK5:WVK7 C65499:C65504 IY65499:IY65504 SU65499:SU65504 ACQ65499:ACQ65504 AMM65499:AMM65504 AWI65499:AWI65504 BGE65499:BGE65504 BQA65499:BQA65504 BZW65499:BZW65504 CJS65499:CJS65504 CTO65499:CTO65504 DDK65499:DDK65504 DNG65499:DNG65504 DXC65499:DXC65504 EGY65499:EGY65504 EQU65499:EQU65504 FAQ65499:FAQ65504 FKM65499:FKM65504 FUI65499:FUI65504 GEE65499:GEE65504 GOA65499:GOA65504 GXW65499:GXW65504 HHS65499:HHS65504 HRO65499:HRO65504 IBK65499:IBK65504 ILG65499:ILG65504 IVC65499:IVC65504 JEY65499:JEY65504 JOU65499:JOU65504 JYQ65499:JYQ65504 KIM65499:KIM65504 KSI65499:KSI65504 LCE65499:LCE65504 LMA65499:LMA65504 LVW65499:LVW65504 MFS65499:MFS65504 MPO65499:MPO65504 MZK65499:MZK65504 NJG65499:NJG65504 NTC65499:NTC65504 OCY65499:OCY65504 OMU65499:OMU65504 OWQ65499:OWQ65504 PGM65499:PGM65504 PQI65499:PQI65504 QAE65499:QAE65504 QKA65499:QKA65504 QTW65499:QTW65504 RDS65499:RDS65504 RNO65499:RNO65504 RXK65499:RXK65504 SHG65499:SHG65504 SRC65499:SRC65504 TAY65499:TAY65504 TKU65499:TKU65504 TUQ65499:TUQ65504 UEM65499:UEM65504 UOI65499:UOI65504 UYE65499:UYE65504 VIA65499:VIA65504 VRW65499:VRW65504 WBS65499:WBS65504 WLO65499:WLO65504 WVK65499:WVK65504 C131035:C131040 IY131035:IY131040 SU131035:SU131040 ACQ131035:ACQ131040 AMM131035:AMM131040 AWI131035:AWI131040 BGE131035:BGE131040 BQA131035:BQA131040 BZW131035:BZW131040 CJS131035:CJS131040 CTO131035:CTO131040 DDK131035:DDK131040 DNG131035:DNG131040 DXC131035:DXC131040 EGY131035:EGY131040 EQU131035:EQU131040 FAQ131035:FAQ131040 FKM131035:FKM131040 FUI131035:FUI131040 GEE131035:GEE131040 GOA131035:GOA131040 GXW131035:GXW131040 HHS131035:HHS131040 HRO131035:HRO131040 IBK131035:IBK131040 ILG131035:ILG131040 IVC131035:IVC131040 JEY131035:JEY131040 JOU131035:JOU131040 JYQ131035:JYQ131040 KIM131035:KIM131040 KSI131035:KSI131040 LCE131035:LCE131040 LMA131035:LMA131040 LVW131035:LVW131040 MFS131035:MFS131040 MPO131035:MPO131040 MZK131035:MZK131040 NJG131035:NJG131040 NTC131035:NTC131040 OCY131035:OCY131040 OMU131035:OMU131040 OWQ131035:OWQ131040 PGM131035:PGM131040 PQI131035:PQI131040 QAE131035:QAE131040 QKA131035:QKA131040 QTW131035:QTW131040 RDS131035:RDS131040 RNO131035:RNO131040 RXK131035:RXK131040 SHG131035:SHG131040 SRC131035:SRC131040 TAY131035:TAY131040 TKU131035:TKU131040 TUQ131035:TUQ131040 UEM131035:UEM131040 UOI131035:UOI131040 UYE131035:UYE131040 VIA131035:VIA131040 VRW131035:VRW131040 WBS131035:WBS131040 WLO131035:WLO131040 WVK131035:WVK131040 C196571:C196576 IY196571:IY196576 SU196571:SU196576 ACQ196571:ACQ196576 AMM196571:AMM196576 AWI196571:AWI196576 BGE196571:BGE196576 BQA196571:BQA196576 BZW196571:BZW196576 CJS196571:CJS196576 CTO196571:CTO196576 DDK196571:DDK196576 DNG196571:DNG196576 DXC196571:DXC196576 EGY196571:EGY196576 EQU196571:EQU196576 FAQ196571:FAQ196576 FKM196571:FKM196576 FUI196571:FUI196576 GEE196571:GEE196576 GOA196571:GOA196576 GXW196571:GXW196576 HHS196571:HHS196576 HRO196571:HRO196576 IBK196571:IBK196576 ILG196571:ILG196576 IVC196571:IVC196576 JEY196571:JEY196576 JOU196571:JOU196576 JYQ196571:JYQ196576 KIM196571:KIM196576 KSI196571:KSI196576 LCE196571:LCE196576 LMA196571:LMA196576 LVW196571:LVW196576 MFS196571:MFS196576 MPO196571:MPO196576 MZK196571:MZK196576 NJG196571:NJG196576 NTC196571:NTC196576 OCY196571:OCY196576 OMU196571:OMU196576 OWQ196571:OWQ196576 PGM196571:PGM196576 PQI196571:PQI196576 QAE196571:QAE196576 QKA196571:QKA196576 QTW196571:QTW196576 RDS196571:RDS196576 RNO196571:RNO196576 RXK196571:RXK196576 SHG196571:SHG196576 SRC196571:SRC196576 TAY196571:TAY196576 TKU196571:TKU196576 TUQ196571:TUQ196576 UEM196571:UEM196576 UOI196571:UOI196576 UYE196571:UYE196576 VIA196571:VIA196576 VRW196571:VRW196576 WBS196571:WBS196576 WLO196571:WLO196576 WVK196571:WVK196576 C262107:C262112 IY262107:IY262112 SU262107:SU262112 ACQ262107:ACQ262112 AMM262107:AMM262112 AWI262107:AWI262112 BGE262107:BGE262112 BQA262107:BQA262112 BZW262107:BZW262112 CJS262107:CJS262112 CTO262107:CTO262112 DDK262107:DDK262112 DNG262107:DNG262112 DXC262107:DXC262112 EGY262107:EGY262112 EQU262107:EQU262112 FAQ262107:FAQ262112 FKM262107:FKM262112 FUI262107:FUI262112 GEE262107:GEE262112 GOA262107:GOA262112 GXW262107:GXW262112 HHS262107:HHS262112 HRO262107:HRO262112 IBK262107:IBK262112 ILG262107:ILG262112 IVC262107:IVC262112 JEY262107:JEY262112 JOU262107:JOU262112 JYQ262107:JYQ262112 KIM262107:KIM262112 KSI262107:KSI262112 LCE262107:LCE262112 LMA262107:LMA262112 LVW262107:LVW262112 MFS262107:MFS262112 MPO262107:MPO262112 MZK262107:MZK262112 NJG262107:NJG262112 NTC262107:NTC262112 OCY262107:OCY262112 OMU262107:OMU262112 OWQ262107:OWQ262112 PGM262107:PGM262112 PQI262107:PQI262112 QAE262107:QAE262112 QKA262107:QKA262112 QTW262107:QTW262112 RDS262107:RDS262112 RNO262107:RNO262112 RXK262107:RXK262112 SHG262107:SHG262112 SRC262107:SRC262112 TAY262107:TAY262112 TKU262107:TKU262112 TUQ262107:TUQ262112 UEM262107:UEM262112 UOI262107:UOI262112 UYE262107:UYE262112 VIA262107:VIA262112 VRW262107:VRW262112 WBS262107:WBS262112 WLO262107:WLO262112 WVK262107:WVK262112 C327643:C327648 IY327643:IY327648 SU327643:SU327648 ACQ327643:ACQ327648 AMM327643:AMM327648 AWI327643:AWI327648 BGE327643:BGE327648 BQA327643:BQA327648 BZW327643:BZW327648 CJS327643:CJS327648 CTO327643:CTO327648 DDK327643:DDK327648 DNG327643:DNG327648 DXC327643:DXC327648 EGY327643:EGY327648 EQU327643:EQU327648 FAQ327643:FAQ327648 FKM327643:FKM327648 FUI327643:FUI327648 GEE327643:GEE327648 GOA327643:GOA327648 GXW327643:GXW327648 HHS327643:HHS327648 HRO327643:HRO327648 IBK327643:IBK327648 ILG327643:ILG327648 IVC327643:IVC327648 JEY327643:JEY327648 JOU327643:JOU327648 JYQ327643:JYQ327648 KIM327643:KIM327648 KSI327643:KSI327648 LCE327643:LCE327648 LMA327643:LMA327648 LVW327643:LVW327648 MFS327643:MFS327648 MPO327643:MPO327648 MZK327643:MZK327648 NJG327643:NJG327648 NTC327643:NTC327648 OCY327643:OCY327648 OMU327643:OMU327648 OWQ327643:OWQ327648 PGM327643:PGM327648 PQI327643:PQI327648 QAE327643:QAE327648 QKA327643:QKA327648 QTW327643:QTW327648 RDS327643:RDS327648 RNO327643:RNO327648 RXK327643:RXK327648 SHG327643:SHG327648 SRC327643:SRC327648 TAY327643:TAY327648 TKU327643:TKU327648 TUQ327643:TUQ327648 UEM327643:UEM327648 UOI327643:UOI327648 UYE327643:UYE327648 VIA327643:VIA327648 VRW327643:VRW327648 WBS327643:WBS327648 WLO327643:WLO327648 WVK327643:WVK327648 C393179:C393184 IY393179:IY393184 SU393179:SU393184 ACQ393179:ACQ393184 AMM393179:AMM393184 AWI393179:AWI393184 BGE393179:BGE393184 BQA393179:BQA393184 BZW393179:BZW393184 CJS393179:CJS393184 CTO393179:CTO393184 DDK393179:DDK393184 DNG393179:DNG393184 DXC393179:DXC393184 EGY393179:EGY393184 EQU393179:EQU393184 FAQ393179:FAQ393184 FKM393179:FKM393184 FUI393179:FUI393184 GEE393179:GEE393184 GOA393179:GOA393184 GXW393179:GXW393184 HHS393179:HHS393184 HRO393179:HRO393184 IBK393179:IBK393184 ILG393179:ILG393184 IVC393179:IVC393184 JEY393179:JEY393184 JOU393179:JOU393184 JYQ393179:JYQ393184 KIM393179:KIM393184 KSI393179:KSI393184 LCE393179:LCE393184 LMA393179:LMA393184 LVW393179:LVW393184 MFS393179:MFS393184 MPO393179:MPO393184 MZK393179:MZK393184 NJG393179:NJG393184 NTC393179:NTC393184 OCY393179:OCY393184 OMU393179:OMU393184 OWQ393179:OWQ393184 PGM393179:PGM393184 PQI393179:PQI393184 QAE393179:QAE393184 QKA393179:QKA393184 QTW393179:QTW393184 RDS393179:RDS393184 RNO393179:RNO393184 RXK393179:RXK393184 SHG393179:SHG393184 SRC393179:SRC393184 TAY393179:TAY393184 TKU393179:TKU393184 TUQ393179:TUQ393184 UEM393179:UEM393184 UOI393179:UOI393184 UYE393179:UYE393184 VIA393179:VIA393184 VRW393179:VRW393184 WBS393179:WBS393184 WLO393179:WLO393184 WVK393179:WVK393184 C458715:C458720 IY458715:IY458720 SU458715:SU458720 ACQ458715:ACQ458720 AMM458715:AMM458720 AWI458715:AWI458720 BGE458715:BGE458720 BQA458715:BQA458720 BZW458715:BZW458720 CJS458715:CJS458720 CTO458715:CTO458720 DDK458715:DDK458720 DNG458715:DNG458720 DXC458715:DXC458720 EGY458715:EGY458720 EQU458715:EQU458720 FAQ458715:FAQ458720 FKM458715:FKM458720 FUI458715:FUI458720 GEE458715:GEE458720 GOA458715:GOA458720 GXW458715:GXW458720 HHS458715:HHS458720 HRO458715:HRO458720 IBK458715:IBK458720 ILG458715:ILG458720 IVC458715:IVC458720 JEY458715:JEY458720 JOU458715:JOU458720 JYQ458715:JYQ458720 KIM458715:KIM458720 KSI458715:KSI458720 LCE458715:LCE458720 LMA458715:LMA458720 LVW458715:LVW458720 MFS458715:MFS458720 MPO458715:MPO458720 MZK458715:MZK458720 NJG458715:NJG458720 NTC458715:NTC458720 OCY458715:OCY458720 OMU458715:OMU458720 OWQ458715:OWQ458720 PGM458715:PGM458720 PQI458715:PQI458720 QAE458715:QAE458720 QKA458715:QKA458720 QTW458715:QTW458720 RDS458715:RDS458720 RNO458715:RNO458720 RXK458715:RXK458720 SHG458715:SHG458720 SRC458715:SRC458720 TAY458715:TAY458720 TKU458715:TKU458720 TUQ458715:TUQ458720 UEM458715:UEM458720 UOI458715:UOI458720 UYE458715:UYE458720 VIA458715:VIA458720 VRW458715:VRW458720 WBS458715:WBS458720 WLO458715:WLO458720 WVK458715:WVK458720 C524251:C524256 IY524251:IY524256 SU524251:SU524256 ACQ524251:ACQ524256 AMM524251:AMM524256 AWI524251:AWI524256 BGE524251:BGE524256 BQA524251:BQA524256 BZW524251:BZW524256 CJS524251:CJS524256 CTO524251:CTO524256 DDK524251:DDK524256 DNG524251:DNG524256 DXC524251:DXC524256 EGY524251:EGY524256 EQU524251:EQU524256 FAQ524251:FAQ524256 FKM524251:FKM524256 FUI524251:FUI524256 GEE524251:GEE524256 GOA524251:GOA524256 GXW524251:GXW524256 HHS524251:HHS524256 HRO524251:HRO524256 IBK524251:IBK524256 ILG524251:ILG524256 IVC524251:IVC524256 JEY524251:JEY524256 JOU524251:JOU524256 JYQ524251:JYQ524256 KIM524251:KIM524256 KSI524251:KSI524256 LCE524251:LCE524256 LMA524251:LMA524256 LVW524251:LVW524256 MFS524251:MFS524256 MPO524251:MPO524256 MZK524251:MZK524256 NJG524251:NJG524256 NTC524251:NTC524256 OCY524251:OCY524256 OMU524251:OMU524256 OWQ524251:OWQ524256 PGM524251:PGM524256 PQI524251:PQI524256 QAE524251:QAE524256 QKA524251:QKA524256 QTW524251:QTW524256 RDS524251:RDS524256 RNO524251:RNO524256 RXK524251:RXK524256 SHG524251:SHG524256 SRC524251:SRC524256 TAY524251:TAY524256 TKU524251:TKU524256 TUQ524251:TUQ524256 UEM524251:UEM524256 UOI524251:UOI524256 UYE524251:UYE524256 VIA524251:VIA524256 VRW524251:VRW524256 WBS524251:WBS524256 WLO524251:WLO524256 WVK524251:WVK524256 C589787:C589792 IY589787:IY589792 SU589787:SU589792 ACQ589787:ACQ589792 AMM589787:AMM589792 AWI589787:AWI589792 BGE589787:BGE589792 BQA589787:BQA589792 BZW589787:BZW589792 CJS589787:CJS589792 CTO589787:CTO589792 DDK589787:DDK589792 DNG589787:DNG589792 DXC589787:DXC589792 EGY589787:EGY589792 EQU589787:EQU589792 FAQ589787:FAQ589792 FKM589787:FKM589792 FUI589787:FUI589792 GEE589787:GEE589792 GOA589787:GOA589792 GXW589787:GXW589792 HHS589787:HHS589792 HRO589787:HRO589792 IBK589787:IBK589792 ILG589787:ILG589792 IVC589787:IVC589792 JEY589787:JEY589792 JOU589787:JOU589792 JYQ589787:JYQ589792 KIM589787:KIM589792 KSI589787:KSI589792 LCE589787:LCE589792 LMA589787:LMA589792 LVW589787:LVW589792 MFS589787:MFS589792 MPO589787:MPO589792 MZK589787:MZK589792 NJG589787:NJG589792 NTC589787:NTC589792 OCY589787:OCY589792 OMU589787:OMU589792 OWQ589787:OWQ589792 PGM589787:PGM589792 PQI589787:PQI589792 QAE589787:QAE589792 QKA589787:QKA589792 QTW589787:QTW589792 RDS589787:RDS589792 RNO589787:RNO589792 RXK589787:RXK589792 SHG589787:SHG589792 SRC589787:SRC589792 TAY589787:TAY589792 TKU589787:TKU589792 TUQ589787:TUQ589792 UEM589787:UEM589792 UOI589787:UOI589792 UYE589787:UYE589792 VIA589787:VIA589792 VRW589787:VRW589792 WBS589787:WBS589792 WLO589787:WLO589792 WVK589787:WVK589792 C655323:C655328 IY655323:IY655328 SU655323:SU655328 ACQ655323:ACQ655328 AMM655323:AMM655328 AWI655323:AWI655328 BGE655323:BGE655328 BQA655323:BQA655328 BZW655323:BZW655328 CJS655323:CJS655328 CTO655323:CTO655328 DDK655323:DDK655328 DNG655323:DNG655328 DXC655323:DXC655328 EGY655323:EGY655328 EQU655323:EQU655328 FAQ655323:FAQ655328 FKM655323:FKM655328 FUI655323:FUI655328 GEE655323:GEE655328 GOA655323:GOA655328 GXW655323:GXW655328 HHS655323:HHS655328 HRO655323:HRO655328 IBK655323:IBK655328 ILG655323:ILG655328 IVC655323:IVC655328 JEY655323:JEY655328 JOU655323:JOU655328 JYQ655323:JYQ655328 KIM655323:KIM655328 KSI655323:KSI655328 LCE655323:LCE655328 LMA655323:LMA655328 LVW655323:LVW655328 MFS655323:MFS655328 MPO655323:MPO655328 MZK655323:MZK655328 NJG655323:NJG655328 NTC655323:NTC655328 OCY655323:OCY655328 OMU655323:OMU655328 OWQ655323:OWQ655328 PGM655323:PGM655328 PQI655323:PQI655328 QAE655323:QAE655328 QKA655323:QKA655328 QTW655323:QTW655328 RDS655323:RDS655328 RNO655323:RNO655328 RXK655323:RXK655328 SHG655323:SHG655328 SRC655323:SRC655328 TAY655323:TAY655328 TKU655323:TKU655328 TUQ655323:TUQ655328 UEM655323:UEM655328 UOI655323:UOI655328 UYE655323:UYE655328 VIA655323:VIA655328 VRW655323:VRW655328 WBS655323:WBS655328 WLO655323:WLO655328 WVK655323:WVK655328 C720859:C720864 IY720859:IY720864 SU720859:SU720864 ACQ720859:ACQ720864 AMM720859:AMM720864 AWI720859:AWI720864 BGE720859:BGE720864 BQA720859:BQA720864 BZW720859:BZW720864 CJS720859:CJS720864 CTO720859:CTO720864 DDK720859:DDK720864 DNG720859:DNG720864 DXC720859:DXC720864 EGY720859:EGY720864 EQU720859:EQU720864 FAQ720859:FAQ720864 FKM720859:FKM720864 FUI720859:FUI720864 GEE720859:GEE720864 GOA720859:GOA720864 GXW720859:GXW720864 HHS720859:HHS720864 HRO720859:HRO720864 IBK720859:IBK720864 ILG720859:ILG720864 IVC720859:IVC720864 JEY720859:JEY720864 JOU720859:JOU720864 JYQ720859:JYQ720864 KIM720859:KIM720864 KSI720859:KSI720864 LCE720859:LCE720864 LMA720859:LMA720864 LVW720859:LVW720864 MFS720859:MFS720864 MPO720859:MPO720864 MZK720859:MZK720864 NJG720859:NJG720864 NTC720859:NTC720864 OCY720859:OCY720864 OMU720859:OMU720864 OWQ720859:OWQ720864 PGM720859:PGM720864 PQI720859:PQI720864 QAE720859:QAE720864 QKA720859:QKA720864 QTW720859:QTW720864 RDS720859:RDS720864 RNO720859:RNO720864 RXK720859:RXK720864 SHG720859:SHG720864 SRC720859:SRC720864 TAY720859:TAY720864 TKU720859:TKU720864 TUQ720859:TUQ720864 UEM720859:UEM720864 UOI720859:UOI720864 UYE720859:UYE720864 VIA720859:VIA720864 VRW720859:VRW720864 WBS720859:WBS720864 WLO720859:WLO720864 WVK720859:WVK720864 C786395:C786400 IY786395:IY786400 SU786395:SU786400 ACQ786395:ACQ786400 AMM786395:AMM786400 AWI786395:AWI786400 BGE786395:BGE786400 BQA786395:BQA786400 BZW786395:BZW786400 CJS786395:CJS786400 CTO786395:CTO786400 DDK786395:DDK786400 DNG786395:DNG786400 DXC786395:DXC786400 EGY786395:EGY786400 EQU786395:EQU786400 FAQ786395:FAQ786400 FKM786395:FKM786400 FUI786395:FUI786400 GEE786395:GEE786400 GOA786395:GOA786400 GXW786395:GXW786400 HHS786395:HHS786400 HRO786395:HRO786400 IBK786395:IBK786400 ILG786395:ILG786400 IVC786395:IVC786400 JEY786395:JEY786400 JOU786395:JOU786400 JYQ786395:JYQ786400 KIM786395:KIM786400 KSI786395:KSI786400 LCE786395:LCE786400 LMA786395:LMA786400 LVW786395:LVW786400 MFS786395:MFS786400 MPO786395:MPO786400 MZK786395:MZK786400 NJG786395:NJG786400 NTC786395:NTC786400 OCY786395:OCY786400 OMU786395:OMU786400 OWQ786395:OWQ786400 PGM786395:PGM786400 PQI786395:PQI786400 QAE786395:QAE786400 QKA786395:QKA786400 QTW786395:QTW786400 RDS786395:RDS786400 RNO786395:RNO786400 RXK786395:RXK786400 SHG786395:SHG786400 SRC786395:SRC786400 TAY786395:TAY786400 TKU786395:TKU786400 TUQ786395:TUQ786400 UEM786395:UEM786400 UOI786395:UOI786400 UYE786395:UYE786400 VIA786395:VIA786400 VRW786395:VRW786400 WBS786395:WBS786400 WLO786395:WLO786400 WVK786395:WVK786400 C851931:C851936 IY851931:IY851936 SU851931:SU851936 ACQ851931:ACQ851936 AMM851931:AMM851936 AWI851931:AWI851936 BGE851931:BGE851936 BQA851931:BQA851936 BZW851931:BZW851936 CJS851931:CJS851936 CTO851931:CTO851936 DDK851931:DDK851936 DNG851931:DNG851936 DXC851931:DXC851936 EGY851931:EGY851936 EQU851931:EQU851936 FAQ851931:FAQ851936 FKM851931:FKM851936 FUI851931:FUI851936 GEE851931:GEE851936 GOA851931:GOA851936 GXW851931:GXW851936 HHS851931:HHS851936 HRO851931:HRO851936 IBK851931:IBK851936 ILG851931:ILG851936 IVC851931:IVC851936 JEY851931:JEY851936 JOU851931:JOU851936 JYQ851931:JYQ851936 KIM851931:KIM851936 KSI851931:KSI851936 LCE851931:LCE851936 LMA851931:LMA851936 LVW851931:LVW851936 MFS851931:MFS851936 MPO851931:MPO851936 MZK851931:MZK851936 NJG851931:NJG851936 NTC851931:NTC851936 OCY851931:OCY851936 OMU851931:OMU851936 OWQ851931:OWQ851936 PGM851931:PGM851936 PQI851931:PQI851936 QAE851931:QAE851936 QKA851931:QKA851936 QTW851931:QTW851936 RDS851931:RDS851936 RNO851931:RNO851936 RXK851931:RXK851936 SHG851931:SHG851936 SRC851931:SRC851936 TAY851931:TAY851936 TKU851931:TKU851936 TUQ851931:TUQ851936 UEM851931:UEM851936 UOI851931:UOI851936 UYE851931:UYE851936 VIA851931:VIA851936 VRW851931:VRW851936 WBS851931:WBS851936 WLO851931:WLO851936 WVK851931:WVK851936 C917467:C917472 IY917467:IY917472 SU917467:SU917472 ACQ917467:ACQ917472 AMM917467:AMM917472 AWI917467:AWI917472 BGE917467:BGE917472 BQA917467:BQA917472 BZW917467:BZW917472 CJS917467:CJS917472 CTO917467:CTO917472 DDK917467:DDK917472 DNG917467:DNG917472 DXC917467:DXC917472 EGY917467:EGY917472 EQU917467:EQU917472 FAQ917467:FAQ917472 FKM917467:FKM917472 FUI917467:FUI917472 GEE917467:GEE917472 GOA917467:GOA917472 GXW917467:GXW917472 HHS917467:HHS917472 HRO917467:HRO917472 IBK917467:IBK917472 ILG917467:ILG917472 IVC917467:IVC917472 JEY917467:JEY917472 JOU917467:JOU917472 JYQ917467:JYQ917472 KIM917467:KIM917472 KSI917467:KSI917472 LCE917467:LCE917472 LMA917467:LMA917472 LVW917467:LVW917472 MFS917467:MFS917472 MPO917467:MPO917472 MZK917467:MZK917472 NJG917467:NJG917472 NTC917467:NTC917472 OCY917467:OCY917472 OMU917467:OMU917472 OWQ917467:OWQ917472 PGM917467:PGM917472 PQI917467:PQI917472 QAE917467:QAE917472 QKA917467:QKA917472 QTW917467:QTW917472 RDS917467:RDS917472 RNO917467:RNO917472 RXK917467:RXK917472 SHG917467:SHG917472 SRC917467:SRC917472 TAY917467:TAY917472 TKU917467:TKU917472 TUQ917467:TUQ917472 UEM917467:UEM917472 UOI917467:UOI917472 UYE917467:UYE917472 VIA917467:VIA917472 VRW917467:VRW917472 WBS917467:WBS917472 WLO917467:WLO917472 WVK917467:WVK917472 C983003:C983008 IY983003:IY983008 SU983003:SU983008 ACQ983003:ACQ983008 AMM983003:AMM983008 AWI983003:AWI983008 BGE983003:BGE983008 BQA983003:BQA983008 BZW983003:BZW983008 CJS983003:CJS983008 CTO983003:CTO983008 DDK983003:DDK983008 DNG983003:DNG983008 DXC983003:DXC983008 EGY983003:EGY983008 EQU983003:EQU983008 FAQ983003:FAQ983008 FKM983003:FKM983008 FUI983003:FUI983008 GEE983003:GEE983008 GOA983003:GOA983008 GXW983003:GXW983008 HHS983003:HHS983008 HRO983003:HRO983008 IBK983003:IBK983008 ILG983003:ILG983008 IVC983003:IVC983008 JEY983003:JEY983008 JOU983003:JOU983008 JYQ983003:JYQ983008 KIM983003:KIM983008 KSI983003:KSI983008 LCE983003:LCE983008 LMA983003:LMA983008 LVW983003:LVW983008 MFS983003:MFS983008 MPO983003:MPO983008 MZK983003:MZK983008 NJG983003:NJG983008 NTC983003:NTC983008 OCY983003:OCY983008 OMU983003:OMU983008 OWQ983003:OWQ983008 PGM983003:PGM983008 PQI983003:PQI983008 QAE983003:QAE983008 QKA983003:QKA983008 QTW983003:QTW983008 RDS983003:RDS983008 RNO983003:RNO983008 RXK983003:RXK983008 SHG983003:SHG983008 SRC983003:SRC983008 TAY983003:TAY983008 TKU983003:TKU983008 TUQ983003:TUQ983008 UEM983003:UEM983008 UOI983003:UOI983008 UYE983003:UYE983008 VIA983003:VIA983008 VRW983003:VRW983008 WBS983003:WBS983008 WLO983003:WLO983008 WVK983003:WVK983008 C65514:C65516 IY65514:IY65516 SU65514:SU65516 ACQ65514:ACQ65516 AMM65514:AMM65516 AWI65514:AWI65516 BGE65514:BGE65516 BQA65514:BQA65516 BZW65514:BZW65516 CJS65514:CJS65516 CTO65514:CTO65516 DDK65514:DDK65516 DNG65514:DNG65516 DXC65514:DXC65516 EGY65514:EGY65516 EQU65514:EQU65516 FAQ65514:FAQ65516 FKM65514:FKM65516 FUI65514:FUI65516 GEE65514:GEE65516 GOA65514:GOA65516 GXW65514:GXW65516 HHS65514:HHS65516 HRO65514:HRO65516 IBK65514:IBK65516 ILG65514:ILG65516 IVC65514:IVC65516 JEY65514:JEY65516 JOU65514:JOU65516 JYQ65514:JYQ65516 KIM65514:KIM65516 KSI65514:KSI65516 LCE65514:LCE65516 LMA65514:LMA65516 LVW65514:LVW65516 MFS65514:MFS65516 MPO65514:MPO65516 MZK65514:MZK65516 NJG65514:NJG65516 NTC65514:NTC65516 OCY65514:OCY65516 OMU65514:OMU65516 OWQ65514:OWQ65516 PGM65514:PGM65516 PQI65514:PQI65516 QAE65514:QAE65516 QKA65514:QKA65516 QTW65514:QTW65516 RDS65514:RDS65516 RNO65514:RNO65516 RXK65514:RXK65516 SHG65514:SHG65516 SRC65514:SRC65516 TAY65514:TAY65516 TKU65514:TKU65516 TUQ65514:TUQ65516 UEM65514:UEM65516 UOI65514:UOI65516 UYE65514:UYE65516 VIA65514:VIA65516 VRW65514:VRW65516 WBS65514:WBS65516 WLO65514:WLO65516 WVK65514:WVK65516 C131050:C131052 IY131050:IY131052 SU131050:SU131052 ACQ131050:ACQ131052 AMM131050:AMM131052 AWI131050:AWI131052 BGE131050:BGE131052 BQA131050:BQA131052 BZW131050:BZW131052 CJS131050:CJS131052 CTO131050:CTO131052 DDK131050:DDK131052 DNG131050:DNG131052 DXC131050:DXC131052 EGY131050:EGY131052 EQU131050:EQU131052 FAQ131050:FAQ131052 FKM131050:FKM131052 FUI131050:FUI131052 GEE131050:GEE131052 GOA131050:GOA131052 GXW131050:GXW131052 HHS131050:HHS131052 HRO131050:HRO131052 IBK131050:IBK131052 ILG131050:ILG131052 IVC131050:IVC131052 JEY131050:JEY131052 JOU131050:JOU131052 JYQ131050:JYQ131052 KIM131050:KIM131052 KSI131050:KSI131052 LCE131050:LCE131052 LMA131050:LMA131052 LVW131050:LVW131052 MFS131050:MFS131052 MPO131050:MPO131052 MZK131050:MZK131052 NJG131050:NJG131052 NTC131050:NTC131052 OCY131050:OCY131052 OMU131050:OMU131052 OWQ131050:OWQ131052 PGM131050:PGM131052 PQI131050:PQI131052 QAE131050:QAE131052 QKA131050:QKA131052 QTW131050:QTW131052 RDS131050:RDS131052 RNO131050:RNO131052 RXK131050:RXK131052 SHG131050:SHG131052 SRC131050:SRC131052 TAY131050:TAY131052 TKU131050:TKU131052 TUQ131050:TUQ131052 UEM131050:UEM131052 UOI131050:UOI131052 UYE131050:UYE131052 VIA131050:VIA131052 VRW131050:VRW131052 WBS131050:WBS131052 WLO131050:WLO131052 WVK131050:WVK131052 C196586:C196588 IY196586:IY196588 SU196586:SU196588 ACQ196586:ACQ196588 AMM196586:AMM196588 AWI196586:AWI196588 BGE196586:BGE196588 BQA196586:BQA196588 BZW196586:BZW196588 CJS196586:CJS196588 CTO196586:CTO196588 DDK196586:DDK196588 DNG196586:DNG196588 DXC196586:DXC196588 EGY196586:EGY196588 EQU196586:EQU196588 FAQ196586:FAQ196588 FKM196586:FKM196588 FUI196586:FUI196588 GEE196586:GEE196588 GOA196586:GOA196588 GXW196586:GXW196588 HHS196586:HHS196588 HRO196586:HRO196588 IBK196586:IBK196588 ILG196586:ILG196588 IVC196586:IVC196588 JEY196586:JEY196588 JOU196586:JOU196588 JYQ196586:JYQ196588 KIM196586:KIM196588 KSI196586:KSI196588 LCE196586:LCE196588 LMA196586:LMA196588 LVW196586:LVW196588 MFS196586:MFS196588 MPO196586:MPO196588 MZK196586:MZK196588 NJG196586:NJG196588 NTC196586:NTC196588 OCY196586:OCY196588 OMU196586:OMU196588 OWQ196586:OWQ196588 PGM196586:PGM196588 PQI196586:PQI196588 QAE196586:QAE196588 QKA196586:QKA196588 QTW196586:QTW196588 RDS196586:RDS196588 RNO196586:RNO196588 RXK196586:RXK196588 SHG196586:SHG196588 SRC196586:SRC196588 TAY196586:TAY196588 TKU196586:TKU196588 TUQ196586:TUQ196588 UEM196586:UEM196588 UOI196586:UOI196588 UYE196586:UYE196588 VIA196586:VIA196588 VRW196586:VRW196588 WBS196586:WBS196588 WLO196586:WLO196588 WVK196586:WVK196588 C262122:C262124 IY262122:IY262124 SU262122:SU262124 ACQ262122:ACQ262124 AMM262122:AMM262124 AWI262122:AWI262124 BGE262122:BGE262124 BQA262122:BQA262124 BZW262122:BZW262124 CJS262122:CJS262124 CTO262122:CTO262124 DDK262122:DDK262124 DNG262122:DNG262124 DXC262122:DXC262124 EGY262122:EGY262124 EQU262122:EQU262124 FAQ262122:FAQ262124 FKM262122:FKM262124 FUI262122:FUI262124 GEE262122:GEE262124 GOA262122:GOA262124 GXW262122:GXW262124 HHS262122:HHS262124 HRO262122:HRO262124 IBK262122:IBK262124 ILG262122:ILG262124 IVC262122:IVC262124 JEY262122:JEY262124 JOU262122:JOU262124 JYQ262122:JYQ262124 KIM262122:KIM262124 KSI262122:KSI262124 LCE262122:LCE262124 LMA262122:LMA262124 LVW262122:LVW262124 MFS262122:MFS262124 MPO262122:MPO262124 MZK262122:MZK262124 NJG262122:NJG262124 NTC262122:NTC262124 OCY262122:OCY262124 OMU262122:OMU262124 OWQ262122:OWQ262124 PGM262122:PGM262124 PQI262122:PQI262124 QAE262122:QAE262124 QKA262122:QKA262124 QTW262122:QTW262124 RDS262122:RDS262124 RNO262122:RNO262124 RXK262122:RXK262124 SHG262122:SHG262124 SRC262122:SRC262124 TAY262122:TAY262124 TKU262122:TKU262124 TUQ262122:TUQ262124 UEM262122:UEM262124 UOI262122:UOI262124 UYE262122:UYE262124 VIA262122:VIA262124 VRW262122:VRW262124 WBS262122:WBS262124 WLO262122:WLO262124 WVK262122:WVK262124 C327658:C327660 IY327658:IY327660 SU327658:SU327660 ACQ327658:ACQ327660 AMM327658:AMM327660 AWI327658:AWI327660 BGE327658:BGE327660 BQA327658:BQA327660 BZW327658:BZW327660 CJS327658:CJS327660 CTO327658:CTO327660 DDK327658:DDK327660 DNG327658:DNG327660 DXC327658:DXC327660 EGY327658:EGY327660 EQU327658:EQU327660 FAQ327658:FAQ327660 FKM327658:FKM327660 FUI327658:FUI327660 GEE327658:GEE327660 GOA327658:GOA327660 GXW327658:GXW327660 HHS327658:HHS327660 HRO327658:HRO327660 IBK327658:IBK327660 ILG327658:ILG327660 IVC327658:IVC327660 JEY327658:JEY327660 JOU327658:JOU327660 JYQ327658:JYQ327660 KIM327658:KIM327660 KSI327658:KSI327660 LCE327658:LCE327660 LMA327658:LMA327660 LVW327658:LVW327660 MFS327658:MFS327660 MPO327658:MPO327660 MZK327658:MZK327660 NJG327658:NJG327660 NTC327658:NTC327660 OCY327658:OCY327660 OMU327658:OMU327660 OWQ327658:OWQ327660 PGM327658:PGM327660 PQI327658:PQI327660 QAE327658:QAE327660 QKA327658:QKA327660 QTW327658:QTW327660 RDS327658:RDS327660 RNO327658:RNO327660 RXK327658:RXK327660 SHG327658:SHG327660 SRC327658:SRC327660 TAY327658:TAY327660 TKU327658:TKU327660 TUQ327658:TUQ327660 UEM327658:UEM327660 UOI327658:UOI327660 UYE327658:UYE327660 VIA327658:VIA327660 VRW327658:VRW327660 WBS327658:WBS327660 WLO327658:WLO327660 WVK327658:WVK327660 C393194:C393196 IY393194:IY393196 SU393194:SU393196 ACQ393194:ACQ393196 AMM393194:AMM393196 AWI393194:AWI393196 BGE393194:BGE393196 BQA393194:BQA393196 BZW393194:BZW393196 CJS393194:CJS393196 CTO393194:CTO393196 DDK393194:DDK393196 DNG393194:DNG393196 DXC393194:DXC393196 EGY393194:EGY393196 EQU393194:EQU393196 FAQ393194:FAQ393196 FKM393194:FKM393196 FUI393194:FUI393196 GEE393194:GEE393196 GOA393194:GOA393196 GXW393194:GXW393196 HHS393194:HHS393196 HRO393194:HRO393196 IBK393194:IBK393196 ILG393194:ILG393196 IVC393194:IVC393196 JEY393194:JEY393196 JOU393194:JOU393196 JYQ393194:JYQ393196 KIM393194:KIM393196 KSI393194:KSI393196 LCE393194:LCE393196 LMA393194:LMA393196 LVW393194:LVW393196 MFS393194:MFS393196 MPO393194:MPO393196 MZK393194:MZK393196 NJG393194:NJG393196 NTC393194:NTC393196 OCY393194:OCY393196 OMU393194:OMU393196 OWQ393194:OWQ393196 PGM393194:PGM393196 PQI393194:PQI393196 QAE393194:QAE393196 QKA393194:QKA393196 QTW393194:QTW393196 RDS393194:RDS393196 RNO393194:RNO393196 RXK393194:RXK393196 SHG393194:SHG393196 SRC393194:SRC393196 TAY393194:TAY393196 TKU393194:TKU393196 TUQ393194:TUQ393196 UEM393194:UEM393196 UOI393194:UOI393196 UYE393194:UYE393196 VIA393194:VIA393196 VRW393194:VRW393196 WBS393194:WBS393196 WLO393194:WLO393196 WVK393194:WVK393196 C458730:C458732 IY458730:IY458732 SU458730:SU458732 ACQ458730:ACQ458732 AMM458730:AMM458732 AWI458730:AWI458732 BGE458730:BGE458732 BQA458730:BQA458732 BZW458730:BZW458732 CJS458730:CJS458732 CTO458730:CTO458732 DDK458730:DDK458732 DNG458730:DNG458732 DXC458730:DXC458732 EGY458730:EGY458732 EQU458730:EQU458732 FAQ458730:FAQ458732 FKM458730:FKM458732 FUI458730:FUI458732 GEE458730:GEE458732 GOA458730:GOA458732 GXW458730:GXW458732 HHS458730:HHS458732 HRO458730:HRO458732 IBK458730:IBK458732 ILG458730:ILG458732 IVC458730:IVC458732 JEY458730:JEY458732 JOU458730:JOU458732 JYQ458730:JYQ458732 KIM458730:KIM458732 KSI458730:KSI458732 LCE458730:LCE458732 LMA458730:LMA458732 LVW458730:LVW458732 MFS458730:MFS458732 MPO458730:MPO458732 MZK458730:MZK458732 NJG458730:NJG458732 NTC458730:NTC458732 OCY458730:OCY458732 OMU458730:OMU458732 OWQ458730:OWQ458732 PGM458730:PGM458732 PQI458730:PQI458732 QAE458730:QAE458732 QKA458730:QKA458732 QTW458730:QTW458732 RDS458730:RDS458732 RNO458730:RNO458732 RXK458730:RXK458732 SHG458730:SHG458732 SRC458730:SRC458732 TAY458730:TAY458732 TKU458730:TKU458732 TUQ458730:TUQ458732 UEM458730:UEM458732 UOI458730:UOI458732 UYE458730:UYE458732 VIA458730:VIA458732 VRW458730:VRW458732 WBS458730:WBS458732 WLO458730:WLO458732 WVK458730:WVK458732 C524266:C524268 IY524266:IY524268 SU524266:SU524268 ACQ524266:ACQ524268 AMM524266:AMM524268 AWI524266:AWI524268 BGE524266:BGE524268 BQA524266:BQA524268 BZW524266:BZW524268 CJS524266:CJS524268 CTO524266:CTO524268 DDK524266:DDK524268 DNG524266:DNG524268 DXC524266:DXC524268 EGY524266:EGY524268 EQU524266:EQU524268 FAQ524266:FAQ524268 FKM524266:FKM524268 FUI524266:FUI524268 GEE524266:GEE524268 GOA524266:GOA524268 GXW524266:GXW524268 HHS524266:HHS524268 HRO524266:HRO524268 IBK524266:IBK524268 ILG524266:ILG524268 IVC524266:IVC524268 JEY524266:JEY524268 JOU524266:JOU524268 JYQ524266:JYQ524268 KIM524266:KIM524268 KSI524266:KSI524268 LCE524266:LCE524268 LMA524266:LMA524268 LVW524266:LVW524268 MFS524266:MFS524268 MPO524266:MPO524268 MZK524266:MZK524268 NJG524266:NJG524268 NTC524266:NTC524268 OCY524266:OCY524268 OMU524266:OMU524268 OWQ524266:OWQ524268 PGM524266:PGM524268 PQI524266:PQI524268 QAE524266:QAE524268 QKA524266:QKA524268 QTW524266:QTW524268 RDS524266:RDS524268 RNO524266:RNO524268 RXK524266:RXK524268 SHG524266:SHG524268 SRC524266:SRC524268 TAY524266:TAY524268 TKU524266:TKU524268 TUQ524266:TUQ524268 UEM524266:UEM524268 UOI524266:UOI524268 UYE524266:UYE524268 VIA524266:VIA524268 VRW524266:VRW524268 WBS524266:WBS524268 WLO524266:WLO524268 WVK524266:WVK524268 C589802:C589804 IY589802:IY589804 SU589802:SU589804 ACQ589802:ACQ589804 AMM589802:AMM589804 AWI589802:AWI589804 BGE589802:BGE589804 BQA589802:BQA589804 BZW589802:BZW589804 CJS589802:CJS589804 CTO589802:CTO589804 DDK589802:DDK589804 DNG589802:DNG589804 DXC589802:DXC589804 EGY589802:EGY589804 EQU589802:EQU589804 FAQ589802:FAQ589804 FKM589802:FKM589804 FUI589802:FUI589804 GEE589802:GEE589804 GOA589802:GOA589804 GXW589802:GXW589804 HHS589802:HHS589804 HRO589802:HRO589804 IBK589802:IBK589804 ILG589802:ILG589804 IVC589802:IVC589804 JEY589802:JEY589804 JOU589802:JOU589804 JYQ589802:JYQ589804 KIM589802:KIM589804 KSI589802:KSI589804 LCE589802:LCE589804 LMA589802:LMA589804 LVW589802:LVW589804 MFS589802:MFS589804 MPO589802:MPO589804 MZK589802:MZK589804 NJG589802:NJG589804 NTC589802:NTC589804 OCY589802:OCY589804 OMU589802:OMU589804 OWQ589802:OWQ589804 PGM589802:PGM589804 PQI589802:PQI589804 QAE589802:QAE589804 QKA589802:QKA589804 QTW589802:QTW589804 RDS589802:RDS589804 RNO589802:RNO589804 RXK589802:RXK589804 SHG589802:SHG589804 SRC589802:SRC589804 TAY589802:TAY589804 TKU589802:TKU589804 TUQ589802:TUQ589804 UEM589802:UEM589804 UOI589802:UOI589804 UYE589802:UYE589804 VIA589802:VIA589804 VRW589802:VRW589804 WBS589802:WBS589804 WLO589802:WLO589804 WVK589802:WVK589804 C655338:C655340 IY655338:IY655340 SU655338:SU655340 ACQ655338:ACQ655340 AMM655338:AMM655340 AWI655338:AWI655340 BGE655338:BGE655340 BQA655338:BQA655340 BZW655338:BZW655340 CJS655338:CJS655340 CTO655338:CTO655340 DDK655338:DDK655340 DNG655338:DNG655340 DXC655338:DXC655340 EGY655338:EGY655340 EQU655338:EQU655340 FAQ655338:FAQ655340 FKM655338:FKM655340 FUI655338:FUI655340 GEE655338:GEE655340 GOA655338:GOA655340 GXW655338:GXW655340 HHS655338:HHS655340 HRO655338:HRO655340 IBK655338:IBK655340 ILG655338:ILG655340 IVC655338:IVC655340 JEY655338:JEY655340 JOU655338:JOU655340 JYQ655338:JYQ655340 KIM655338:KIM655340 KSI655338:KSI655340 LCE655338:LCE655340 LMA655338:LMA655340 LVW655338:LVW655340 MFS655338:MFS655340 MPO655338:MPO655340 MZK655338:MZK655340 NJG655338:NJG655340 NTC655338:NTC655340 OCY655338:OCY655340 OMU655338:OMU655340 OWQ655338:OWQ655340 PGM655338:PGM655340 PQI655338:PQI655340 QAE655338:QAE655340 QKA655338:QKA655340 QTW655338:QTW655340 RDS655338:RDS655340 RNO655338:RNO655340 RXK655338:RXK655340 SHG655338:SHG655340 SRC655338:SRC655340 TAY655338:TAY655340 TKU655338:TKU655340 TUQ655338:TUQ655340 UEM655338:UEM655340 UOI655338:UOI655340 UYE655338:UYE655340 VIA655338:VIA655340 VRW655338:VRW655340 WBS655338:WBS655340 WLO655338:WLO655340 WVK655338:WVK655340 C720874:C720876 IY720874:IY720876 SU720874:SU720876 ACQ720874:ACQ720876 AMM720874:AMM720876 AWI720874:AWI720876 BGE720874:BGE720876 BQA720874:BQA720876 BZW720874:BZW720876 CJS720874:CJS720876 CTO720874:CTO720876 DDK720874:DDK720876 DNG720874:DNG720876 DXC720874:DXC720876 EGY720874:EGY720876 EQU720874:EQU720876 FAQ720874:FAQ720876 FKM720874:FKM720876 FUI720874:FUI720876 GEE720874:GEE720876 GOA720874:GOA720876 GXW720874:GXW720876 HHS720874:HHS720876 HRO720874:HRO720876 IBK720874:IBK720876 ILG720874:ILG720876 IVC720874:IVC720876 JEY720874:JEY720876 JOU720874:JOU720876 JYQ720874:JYQ720876 KIM720874:KIM720876 KSI720874:KSI720876 LCE720874:LCE720876 LMA720874:LMA720876 LVW720874:LVW720876 MFS720874:MFS720876 MPO720874:MPO720876 MZK720874:MZK720876 NJG720874:NJG720876 NTC720874:NTC720876 OCY720874:OCY720876 OMU720874:OMU720876 OWQ720874:OWQ720876 PGM720874:PGM720876 PQI720874:PQI720876 QAE720874:QAE720876 QKA720874:QKA720876 QTW720874:QTW720876 RDS720874:RDS720876 RNO720874:RNO720876 RXK720874:RXK720876 SHG720874:SHG720876 SRC720874:SRC720876 TAY720874:TAY720876 TKU720874:TKU720876 TUQ720874:TUQ720876 UEM720874:UEM720876 UOI720874:UOI720876 UYE720874:UYE720876 VIA720874:VIA720876 VRW720874:VRW720876 WBS720874:WBS720876 WLO720874:WLO720876 WVK720874:WVK720876 C786410:C786412 IY786410:IY786412 SU786410:SU786412 ACQ786410:ACQ786412 AMM786410:AMM786412 AWI786410:AWI786412 BGE786410:BGE786412 BQA786410:BQA786412 BZW786410:BZW786412 CJS786410:CJS786412 CTO786410:CTO786412 DDK786410:DDK786412 DNG786410:DNG786412 DXC786410:DXC786412 EGY786410:EGY786412 EQU786410:EQU786412 FAQ786410:FAQ786412 FKM786410:FKM786412 FUI786410:FUI786412 GEE786410:GEE786412 GOA786410:GOA786412 GXW786410:GXW786412 HHS786410:HHS786412 HRO786410:HRO786412 IBK786410:IBK786412 ILG786410:ILG786412 IVC786410:IVC786412 JEY786410:JEY786412 JOU786410:JOU786412 JYQ786410:JYQ786412 KIM786410:KIM786412 KSI786410:KSI786412 LCE786410:LCE786412 LMA786410:LMA786412 LVW786410:LVW786412 MFS786410:MFS786412 MPO786410:MPO786412 MZK786410:MZK786412 NJG786410:NJG786412 NTC786410:NTC786412 OCY786410:OCY786412 OMU786410:OMU786412 OWQ786410:OWQ786412 PGM786410:PGM786412 PQI786410:PQI786412 QAE786410:QAE786412 QKA786410:QKA786412 QTW786410:QTW786412 RDS786410:RDS786412 RNO786410:RNO786412 RXK786410:RXK786412 SHG786410:SHG786412 SRC786410:SRC786412 TAY786410:TAY786412 TKU786410:TKU786412 TUQ786410:TUQ786412 UEM786410:UEM786412 UOI786410:UOI786412 UYE786410:UYE786412 VIA786410:VIA786412 VRW786410:VRW786412 WBS786410:WBS786412 WLO786410:WLO786412 WVK786410:WVK786412 C851946:C851948 IY851946:IY851948 SU851946:SU851948 ACQ851946:ACQ851948 AMM851946:AMM851948 AWI851946:AWI851948 BGE851946:BGE851948 BQA851946:BQA851948 BZW851946:BZW851948 CJS851946:CJS851948 CTO851946:CTO851948 DDK851946:DDK851948 DNG851946:DNG851948 DXC851946:DXC851948 EGY851946:EGY851948 EQU851946:EQU851948 FAQ851946:FAQ851948 FKM851946:FKM851948 FUI851946:FUI851948 GEE851946:GEE851948 GOA851946:GOA851948 GXW851946:GXW851948 HHS851946:HHS851948 HRO851946:HRO851948 IBK851946:IBK851948 ILG851946:ILG851948 IVC851946:IVC851948 JEY851946:JEY851948 JOU851946:JOU851948 JYQ851946:JYQ851948 KIM851946:KIM851948 KSI851946:KSI851948 LCE851946:LCE851948 LMA851946:LMA851948 LVW851946:LVW851948 MFS851946:MFS851948 MPO851946:MPO851948 MZK851946:MZK851948 NJG851946:NJG851948 NTC851946:NTC851948 OCY851946:OCY851948 OMU851946:OMU851948 OWQ851946:OWQ851948 PGM851946:PGM851948 PQI851946:PQI851948 QAE851946:QAE851948 QKA851946:QKA851948 QTW851946:QTW851948 RDS851946:RDS851948 RNO851946:RNO851948 RXK851946:RXK851948 SHG851946:SHG851948 SRC851946:SRC851948 TAY851946:TAY851948 TKU851946:TKU851948 TUQ851946:TUQ851948 UEM851946:UEM851948 UOI851946:UOI851948 UYE851946:UYE851948 VIA851946:VIA851948 VRW851946:VRW851948 WBS851946:WBS851948 WLO851946:WLO851948 WVK851946:WVK851948 C917482:C917484 IY917482:IY917484 SU917482:SU917484 ACQ917482:ACQ917484 AMM917482:AMM917484 AWI917482:AWI917484 BGE917482:BGE917484 BQA917482:BQA917484 BZW917482:BZW917484 CJS917482:CJS917484 CTO917482:CTO917484 DDK917482:DDK917484 DNG917482:DNG917484 DXC917482:DXC917484 EGY917482:EGY917484 EQU917482:EQU917484 FAQ917482:FAQ917484 FKM917482:FKM917484 FUI917482:FUI917484 GEE917482:GEE917484 GOA917482:GOA917484 GXW917482:GXW917484 HHS917482:HHS917484 HRO917482:HRO917484 IBK917482:IBK917484 ILG917482:ILG917484 IVC917482:IVC917484 JEY917482:JEY917484 JOU917482:JOU917484 JYQ917482:JYQ917484 KIM917482:KIM917484 KSI917482:KSI917484 LCE917482:LCE917484 LMA917482:LMA917484 LVW917482:LVW917484 MFS917482:MFS917484 MPO917482:MPO917484 MZK917482:MZK917484 NJG917482:NJG917484 NTC917482:NTC917484 OCY917482:OCY917484 OMU917482:OMU917484 OWQ917482:OWQ917484 PGM917482:PGM917484 PQI917482:PQI917484 QAE917482:QAE917484 QKA917482:QKA917484 QTW917482:QTW917484 RDS917482:RDS917484 RNO917482:RNO917484 RXK917482:RXK917484 SHG917482:SHG917484 SRC917482:SRC917484 TAY917482:TAY917484 TKU917482:TKU917484 TUQ917482:TUQ917484 UEM917482:UEM917484 UOI917482:UOI917484 UYE917482:UYE917484 VIA917482:VIA917484 VRW917482:VRW917484 WBS917482:WBS917484 WLO917482:WLO917484 WVK917482:WVK917484 C983018:C983020 IY983018:IY983020 SU983018:SU983020 ACQ983018:ACQ983020 AMM983018:AMM983020 AWI983018:AWI983020 BGE983018:BGE983020 BQA983018:BQA983020 BZW983018:BZW983020 CJS983018:CJS983020 CTO983018:CTO983020 DDK983018:DDK983020 DNG983018:DNG983020 DXC983018:DXC983020 EGY983018:EGY983020 EQU983018:EQU983020 FAQ983018:FAQ983020 FKM983018:FKM983020 FUI983018:FUI983020 GEE983018:GEE983020 GOA983018:GOA983020 GXW983018:GXW983020 HHS983018:HHS983020 HRO983018:HRO983020 IBK983018:IBK983020 ILG983018:ILG983020 IVC983018:IVC983020 JEY983018:JEY983020 JOU983018:JOU983020 JYQ983018:JYQ983020 KIM983018:KIM983020 KSI983018:KSI983020 LCE983018:LCE983020 LMA983018:LMA983020 LVW983018:LVW983020 MFS983018:MFS983020 MPO983018:MPO983020 MZK983018:MZK983020 NJG983018:NJG983020 NTC983018:NTC983020 OCY983018:OCY983020 OMU983018:OMU983020 OWQ983018:OWQ983020 PGM983018:PGM983020 PQI983018:PQI983020 QAE983018:QAE983020 QKA983018:QKA983020 QTW983018:QTW983020 RDS983018:RDS983020 RNO983018:RNO983020 RXK983018:RXK983020 SHG983018:SHG983020 SRC983018:SRC983020 TAY983018:TAY983020 TKU983018:TKU983020 TUQ983018:TUQ983020 UEM983018:UEM983020 UOI983018:UOI983020 UYE983018:UYE983020 VIA983018:VIA983020 VRW983018:VRW983020 WBS983018:WBS983020 WLO983018:WLO983020 WVK983018:WVK983020 C65510:C65511 IY65510:IY65511 SU65510:SU65511 ACQ65510:ACQ65511 AMM65510:AMM65511 AWI65510:AWI65511 BGE65510:BGE65511 BQA65510:BQA65511 BZW65510:BZW65511 CJS65510:CJS65511 CTO65510:CTO65511 DDK65510:DDK65511 DNG65510:DNG65511 DXC65510:DXC65511 EGY65510:EGY65511 EQU65510:EQU65511 FAQ65510:FAQ65511 FKM65510:FKM65511 FUI65510:FUI65511 GEE65510:GEE65511 GOA65510:GOA65511 GXW65510:GXW65511 HHS65510:HHS65511 HRO65510:HRO65511 IBK65510:IBK65511 ILG65510:ILG65511 IVC65510:IVC65511 JEY65510:JEY65511 JOU65510:JOU65511 JYQ65510:JYQ65511 KIM65510:KIM65511 KSI65510:KSI65511 LCE65510:LCE65511 LMA65510:LMA65511 LVW65510:LVW65511 MFS65510:MFS65511 MPO65510:MPO65511 MZK65510:MZK65511 NJG65510:NJG65511 NTC65510:NTC65511 OCY65510:OCY65511 OMU65510:OMU65511 OWQ65510:OWQ65511 PGM65510:PGM65511 PQI65510:PQI65511 QAE65510:QAE65511 QKA65510:QKA65511 QTW65510:QTW65511 RDS65510:RDS65511 RNO65510:RNO65511 RXK65510:RXK65511 SHG65510:SHG65511 SRC65510:SRC65511 TAY65510:TAY65511 TKU65510:TKU65511 TUQ65510:TUQ65511 UEM65510:UEM65511 UOI65510:UOI65511 UYE65510:UYE65511 VIA65510:VIA65511 VRW65510:VRW65511 WBS65510:WBS65511 WLO65510:WLO65511 WVK65510:WVK65511 C131046:C131047 IY131046:IY131047 SU131046:SU131047 ACQ131046:ACQ131047 AMM131046:AMM131047 AWI131046:AWI131047 BGE131046:BGE131047 BQA131046:BQA131047 BZW131046:BZW131047 CJS131046:CJS131047 CTO131046:CTO131047 DDK131046:DDK131047 DNG131046:DNG131047 DXC131046:DXC131047 EGY131046:EGY131047 EQU131046:EQU131047 FAQ131046:FAQ131047 FKM131046:FKM131047 FUI131046:FUI131047 GEE131046:GEE131047 GOA131046:GOA131047 GXW131046:GXW131047 HHS131046:HHS131047 HRO131046:HRO131047 IBK131046:IBK131047 ILG131046:ILG131047 IVC131046:IVC131047 JEY131046:JEY131047 JOU131046:JOU131047 JYQ131046:JYQ131047 KIM131046:KIM131047 KSI131046:KSI131047 LCE131046:LCE131047 LMA131046:LMA131047 LVW131046:LVW131047 MFS131046:MFS131047 MPO131046:MPO131047 MZK131046:MZK131047 NJG131046:NJG131047 NTC131046:NTC131047 OCY131046:OCY131047 OMU131046:OMU131047 OWQ131046:OWQ131047 PGM131046:PGM131047 PQI131046:PQI131047 QAE131046:QAE131047 QKA131046:QKA131047 QTW131046:QTW131047 RDS131046:RDS131047 RNO131046:RNO131047 RXK131046:RXK131047 SHG131046:SHG131047 SRC131046:SRC131047 TAY131046:TAY131047 TKU131046:TKU131047 TUQ131046:TUQ131047 UEM131046:UEM131047 UOI131046:UOI131047 UYE131046:UYE131047 VIA131046:VIA131047 VRW131046:VRW131047 WBS131046:WBS131047 WLO131046:WLO131047 WVK131046:WVK131047 C196582:C196583 IY196582:IY196583 SU196582:SU196583 ACQ196582:ACQ196583 AMM196582:AMM196583 AWI196582:AWI196583 BGE196582:BGE196583 BQA196582:BQA196583 BZW196582:BZW196583 CJS196582:CJS196583 CTO196582:CTO196583 DDK196582:DDK196583 DNG196582:DNG196583 DXC196582:DXC196583 EGY196582:EGY196583 EQU196582:EQU196583 FAQ196582:FAQ196583 FKM196582:FKM196583 FUI196582:FUI196583 GEE196582:GEE196583 GOA196582:GOA196583 GXW196582:GXW196583 HHS196582:HHS196583 HRO196582:HRO196583 IBK196582:IBK196583 ILG196582:ILG196583 IVC196582:IVC196583 JEY196582:JEY196583 JOU196582:JOU196583 JYQ196582:JYQ196583 KIM196582:KIM196583 KSI196582:KSI196583 LCE196582:LCE196583 LMA196582:LMA196583 LVW196582:LVW196583 MFS196582:MFS196583 MPO196582:MPO196583 MZK196582:MZK196583 NJG196582:NJG196583 NTC196582:NTC196583 OCY196582:OCY196583 OMU196582:OMU196583 OWQ196582:OWQ196583 PGM196582:PGM196583 PQI196582:PQI196583 QAE196582:QAE196583 QKA196582:QKA196583 QTW196582:QTW196583 RDS196582:RDS196583 RNO196582:RNO196583 RXK196582:RXK196583 SHG196582:SHG196583 SRC196582:SRC196583 TAY196582:TAY196583 TKU196582:TKU196583 TUQ196582:TUQ196583 UEM196582:UEM196583 UOI196582:UOI196583 UYE196582:UYE196583 VIA196582:VIA196583 VRW196582:VRW196583 WBS196582:WBS196583 WLO196582:WLO196583 WVK196582:WVK196583 C262118:C262119 IY262118:IY262119 SU262118:SU262119 ACQ262118:ACQ262119 AMM262118:AMM262119 AWI262118:AWI262119 BGE262118:BGE262119 BQA262118:BQA262119 BZW262118:BZW262119 CJS262118:CJS262119 CTO262118:CTO262119 DDK262118:DDK262119 DNG262118:DNG262119 DXC262118:DXC262119 EGY262118:EGY262119 EQU262118:EQU262119 FAQ262118:FAQ262119 FKM262118:FKM262119 FUI262118:FUI262119 GEE262118:GEE262119 GOA262118:GOA262119 GXW262118:GXW262119 HHS262118:HHS262119 HRO262118:HRO262119 IBK262118:IBK262119 ILG262118:ILG262119 IVC262118:IVC262119 JEY262118:JEY262119 JOU262118:JOU262119 JYQ262118:JYQ262119 KIM262118:KIM262119 KSI262118:KSI262119 LCE262118:LCE262119 LMA262118:LMA262119 LVW262118:LVW262119 MFS262118:MFS262119 MPO262118:MPO262119 MZK262118:MZK262119 NJG262118:NJG262119 NTC262118:NTC262119 OCY262118:OCY262119 OMU262118:OMU262119 OWQ262118:OWQ262119 PGM262118:PGM262119 PQI262118:PQI262119 QAE262118:QAE262119 QKA262118:QKA262119 QTW262118:QTW262119 RDS262118:RDS262119 RNO262118:RNO262119 RXK262118:RXK262119 SHG262118:SHG262119 SRC262118:SRC262119 TAY262118:TAY262119 TKU262118:TKU262119 TUQ262118:TUQ262119 UEM262118:UEM262119 UOI262118:UOI262119 UYE262118:UYE262119 VIA262118:VIA262119 VRW262118:VRW262119 WBS262118:WBS262119 WLO262118:WLO262119 WVK262118:WVK262119 C327654:C327655 IY327654:IY327655 SU327654:SU327655 ACQ327654:ACQ327655 AMM327654:AMM327655 AWI327654:AWI327655 BGE327654:BGE327655 BQA327654:BQA327655 BZW327654:BZW327655 CJS327654:CJS327655 CTO327654:CTO327655 DDK327654:DDK327655 DNG327654:DNG327655 DXC327654:DXC327655 EGY327654:EGY327655 EQU327654:EQU327655 FAQ327654:FAQ327655 FKM327654:FKM327655 FUI327654:FUI327655 GEE327654:GEE327655 GOA327654:GOA327655 GXW327654:GXW327655 HHS327654:HHS327655 HRO327654:HRO327655 IBK327654:IBK327655 ILG327654:ILG327655 IVC327654:IVC327655 JEY327654:JEY327655 JOU327654:JOU327655 JYQ327654:JYQ327655 KIM327654:KIM327655 KSI327654:KSI327655 LCE327654:LCE327655 LMA327654:LMA327655 LVW327654:LVW327655 MFS327654:MFS327655 MPO327654:MPO327655 MZK327654:MZK327655 NJG327654:NJG327655 NTC327654:NTC327655 OCY327654:OCY327655 OMU327654:OMU327655 OWQ327654:OWQ327655 PGM327654:PGM327655 PQI327654:PQI327655 QAE327654:QAE327655 QKA327654:QKA327655 QTW327654:QTW327655 RDS327654:RDS327655 RNO327654:RNO327655 RXK327654:RXK327655 SHG327654:SHG327655 SRC327654:SRC327655 TAY327654:TAY327655 TKU327654:TKU327655 TUQ327654:TUQ327655 UEM327654:UEM327655 UOI327654:UOI327655 UYE327654:UYE327655 VIA327654:VIA327655 VRW327654:VRW327655 WBS327654:WBS327655 WLO327654:WLO327655 WVK327654:WVK327655 C393190:C393191 IY393190:IY393191 SU393190:SU393191 ACQ393190:ACQ393191 AMM393190:AMM393191 AWI393190:AWI393191 BGE393190:BGE393191 BQA393190:BQA393191 BZW393190:BZW393191 CJS393190:CJS393191 CTO393190:CTO393191 DDK393190:DDK393191 DNG393190:DNG393191 DXC393190:DXC393191 EGY393190:EGY393191 EQU393190:EQU393191 FAQ393190:FAQ393191 FKM393190:FKM393191 FUI393190:FUI393191 GEE393190:GEE393191 GOA393190:GOA393191 GXW393190:GXW393191 HHS393190:HHS393191 HRO393190:HRO393191 IBK393190:IBK393191 ILG393190:ILG393191 IVC393190:IVC393191 JEY393190:JEY393191 JOU393190:JOU393191 JYQ393190:JYQ393191 KIM393190:KIM393191 KSI393190:KSI393191 LCE393190:LCE393191 LMA393190:LMA393191 LVW393190:LVW393191 MFS393190:MFS393191 MPO393190:MPO393191 MZK393190:MZK393191 NJG393190:NJG393191 NTC393190:NTC393191 OCY393190:OCY393191 OMU393190:OMU393191 OWQ393190:OWQ393191 PGM393190:PGM393191 PQI393190:PQI393191 QAE393190:QAE393191 QKA393190:QKA393191 QTW393190:QTW393191 RDS393190:RDS393191 RNO393190:RNO393191 RXK393190:RXK393191 SHG393190:SHG393191 SRC393190:SRC393191 TAY393190:TAY393191 TKU393190:TKU393191 TUQ393190:TUQ393191 UEM393190:UEM393191 UOI393190:UOI393191 UYE393190:UYE393191 VIA393190:VIA393191 VRW393190:VRW393191 WBS393190:WBS393191 WLO393190:WLO393191 WVK393190:WVK393191 C458726:C458727 IY458726:IY458727 SU458726:SU458727 ACQ458726:ACQ458727 AMM458726:AMM458727 AWI458726:AWI458727 BGE458726:BGE458727 BQA458726:BQA458727 BZW458726:BZW458727 CJS458726:CJS458727 CTO458726:CTO458727 DDK458726:DDK458727 DNG458726:DNG458727 DXC458726:DXC458727 EGY458726:EGY458727 EQU458726:EQU458727 FAQ458726:FAQ458727 FKM458726:FKM458727 FUI458726:FUI458727 GEE458726:GEE458727 GOA458726:GOA458727 GXW458726:GXW458727 HHS458726:HHS458727 HRO458726:HRO458727 IBK458726:IBK458727 ILG458726:ILG458727 IVC458726:IVC458727 JEY458726:JEY458727 JOU458726:JOU458727 JYQ458726:JYQ458727 KIM458726:KIM458727 KSI458726:KSI458727 LCE458726:LCE458727 LMA458726:LMA458727 LVW458726:LVW458727 MFS458726:MFS458727 MPO458726:MPO458727 MZK458726:MZK458727 NJG458726:NJG458727 NTC458726:NTC458727 OCY458726:OCY458727 OMU458726:OMU458727 OWQ458726:OWQ458727 PGM458726:PGM458727 PQI458726:PQI458727 QAE458726:QAE458727 QKA458726:QKA458727 QTW458726:QTW458727 RDS458726:RDS458727 RNO458726:RNO458727 RXK458726:RXK458727 SHG458726:SHG458727 SRC458726:SRC458727 TAY458726:TAY458727 TKU458726:TKU458727 TUQ458726:TUQ458727 UEM458726:UEM458727 UOI458726:UOI458727 UYE458726:UYE458727 VIA458726:VIA458727 VRW458726:VRW458727 WBS458726:WBS458727 WLO458726:WLO458727 WVK458726:WVK458727 C524262:C524263 IY524262:IY524263 SU524262:SU524263 ACQ524262:ACQ524263 AMM524262:AMM524263 AWI524262:AWI524263 BGE524262:BGE524263 BQA524262:BQA524263 BZW524262:BZW524263 CJS524262:CJS524263 CTO524262:CTO524263 DDK524262:DDK524263 DNG524262:DNG524263 DXC524262:DXC524263 EGY524262:EGY524263 EQU524262:EQU524263 FAQ524262:FAQ524263 FKM524262:FKM524263 FUI524262:FUI524263 GEE524262:GEE524263 GOA524262:GOA524263 GXW524262:GXW524263 HHS524262:HHS524263 HRO524262:HRO524263 IBK524262:IBK524263 ILG524262:ILG524263 IVC524262:IVC524263 JEY524262:JEY524263 JOU524262:JOU524263 JYQ524262:JYQ524263 KIM524262:KIM524263 KSI524262:KSI524263 LCE524262:LCE524263 LMA524262:LMA524263 LVW524262:LVW524263 MFS524262:MFS524263 MPO524262:MPO524263 MZK524262:MZK524263 NJG524262:NJG524263 NTC524262:NTC524263 OCY524262:OCY524263 OMU524262:OMU524263 OWQ524262:OWQ524263 PGM524262:PGM524263 PQI524262:PQI524263 QAE524262:QAE524263 QKA524262:QKA524263 QTW524262:QTW524263 RDS524262:RDS524263 RNO524262:RNO524263 RXK524262:RXK524263 SHG524262:SHG524263 SRC524262:SRC524263 TAY524262:TAY524263 TKU524262:TKU524263 TUQ524262:TUQ524263 UEM524262:UEM524263 UOI524262:UOI524263 UYE524262:UYE524263 VIA524262:VIA524263 VRW524262:VRW524263 WBS524262:WBS524263 WLO524262:WLO524263 WVK524262:WVK524263 C589798:C589799 IY589798:IY589799 SU589798:SU589799 ACQ589798:ACQ589799 AMM589798:AMM589799 AWI589798:AWI589799 BGE589798:BGE589799 BQA589798:BQA589799 BZW589798:BZW589799 CJS589798:CJS589799 CTO589798:CTO589799 DDK589798:DDK589799 DNG589798:DNG589799 DXC589798:DXC589799 EGY589798:EGY589799 EQU589798:EQU589799 FAQ589798:FAQ589799 FKM589798:FKM589799 FUI589798:FUI589799 GEE589798:GEE589799 GOA589798:GOA589799 GXW589798:GXW589799 HHS589798:HHS589799 HRO589798:HRO589799 IBK589798:IBK589799 ILG589798:ILG589799 IVC589798:IVC589799 JEY589798:JEY589799 JOU589798:JOU589799 JYQ589798:JYQ589799 KIM589798:KIM589799 KSI589798:KSI589799 LCE589798:LCE589799 LMA589798:LMA589799 LVW589798:LVW589799 MFS589798:MFS589799 MPO589798:MPO589799 MZK589798:MZK589799 NJG589798:NJG589799 NTC589798:NTC589799 OCY589798:OCY589799 OMU589798:OMU589799 OWQ589798:OWQ589799 PGM589798:PGM589799 PQI589798:PQI589799 QAE589798:QAE589799 QKA589798:QKA589799 QTW589798:QTW589799 RDS589798:RDS589799 RNO589798:RNO589799 RXK589798:RXK589799 SHG589798:SHG589799 SRC589798:SRC589799 TAY589798:TAY589799 TKU589798:TKU589799 TUQ589798:TUQ589799 UEM589798:UEM589799 UOI589798:UOI589799 UYE589798:UYE589799 VIA589798:VIA589799 VRW589798:VRW589799 WBS589798:WBS589799 WLO589798:WLO589799 WVK589798:WVK589799 C655334:C655335 IY655334:IY655335 SU655334:SU655335 ACQ655334:ACQ655335 AMM655334:AMM655335 AWI655334:AWI655335 BGE655334:BGE655335 BQA655334:BQA655335 BZW655334:BZW655335 CJS655334:CJS655335 CTO655334:CTO655335 DDK655334:DDK655335 DNG655334:DNG655335 DXC655334:DXC655335 EGY655334:EGY655335 EQU655334:EQU655335 FAQ655334:FAQ655335 FKM655334:FKM655335 FUI655334:FUI655335 GEE655334:GEE655335 GOA655334:GOA655335 GXW655334:GXW655335 HHS655334:HHS655335 HRO655334:HRO655335 IBK655334:IBK655335 ILG655334:ILG655335 IVC655334:IVC655335 JEY655334:JEY655335 JOU655334:JOU655335 JYQ655334:JYQ655335 KIM655334:KIM655335 KSI655334:KSI655335 LCE655334:LCE655335 LMA655334:LMA655335 LVW655334:LVW655335 MFS655334:MFS655335 MPO655334:MPO655335 MZK655334:MZK655335 NJG655334:NJG655335 NTC655334:NTC655335 OCY655334:OCY655335 OMU655334:OMU655335 OWQ655334:OWQ655335 PGM655334:PGM655335 PQI655334:PQI655335 QAE655334:QAE655335 QKA655334:QKA655335 QTW655334:QTW655335 RDS655334:RDS655335 RNO655334:RNO655335 RXK655334:RXK655335 SHG655334:SHG655335 SRC655334:SRC655335 TAY655334:TAY655335 TKU655334:TKU655335 TUQ655334:TUQ655335 UEM655334:UEM655335 UOI655334:UOI655335 UYE655334:UYE655335 VIA655334:VIA655335 VRW655334:VRW655335 WBS655334:WBS655335 WLO655334:WLO655335 WVK655334:WVK655335 C720870:C720871 IY720870:IY720871 SU720870:SU720871 ACQ720870:ACQ720871 AMM720870:AMM720871 AWI720870:AWI720871 BGE720870:BGE720871 BQA720870:BQA720871 BZW720870:BZW720871 CJS720870:CJS720871 CTO720870:CTO720871 DDK720870:DDK720871 DNG720870:DNG720871 DXC720870:DXC720871 EGY720870:EGY720871 EQU720870:EQU720871 FAQ720870:FAQ720871 FKM720870:FKM720871 FUI720870:FUI720871 GEE720870:GEE720871 GOA720870:GOA720871 GXW720870:GXW720871 HHS720870:HHS720871 HRO720870:HRO720871 IBK720870:IBK720871 ILG720870:ILG720871 IVC720870:IVC720871 JEY720870:JEY720871 JOU720870:JOU720871 JYQ720870:JYQ720871 KIM720870:KIM720871 KSI720870:KSI720871 LCE720870:LCE720871 LMA720870:LMA720871 LVW720870:LVW720871 MFS720870:MFS720871 MPO720870:MPO720871 MZK720870:MZK720871 NJG720870:NJG720871 NTC720870:NTC720871 OCY720870:OCY720871 OMU720870:OMU720871 OWQ720870:OWQ720871 PGM720870:PGM720871 PQI720870:PQI720871 QAE720870:QAE720871 QKA720870:QKA720871 QTW720870:QTW720871 RDS720870:RDS720871 RNO720870:RNO720871 RXK720870:RXK720871 SHG720870:SHG720871 SRC720870:SRC720871 TAY720870:TAY720871 TKU720870:TKU720871 TUQ720870:TUQ720871 UEM720870:UEM720871 UOI720870:UOI720871 UYE720870:UYE720871 VIA720870:VIA720871 VRW720870:VRW720871 WBS720870:WBS720871 WLO720870:WLO720871 WVK720870:WVK720871 C786406:C786407 IY786406:IY786407 SU786406:SU786407 ACQ786406:ACQ786407 AMM786406:AMM786407 AWI786406:AWI786407 BGE786406:BGE786407 BQA786406:BQA786407 BZW786406:BZW786407 CJS786406:CJS786407 CTO786406:CTO786407 DDK786406:DDK786407 DNG786406:DNG786407 DXC786406:DXC786407 EGY786406:EGY786407 EQU786406:EQU786407 FAQ786406:FAQ786407 FKM786406:FKM786407 FUI786406:FUI786407 GEE786406:GEE786407 GOA786406:GOA786407 GXW786406:GXW786407 HHS786406:HHS786407 HRO786406:HRO786407 IBK786406:IBK786407 ILG786406:ILG786407 IVC786406:IVC786407 JEY786406:JEY786407 JOU786406:JOU786407 JYQ786406:JYQ786407 KIM786406:KIM786407 KSI786406:KSI786407 LCE786406:LCE786407 LMA786406:LMA786407 LVW786406:LVW786407 MFS786406:MFS786407 MPO786406:MPO786407 MZK786406:MZK786407 NJG786406:NJG786407 NTC786406:NTC786407 OCY786406:OCY786407 OMU786406:OMU786407 OWQ786406:OWQ786407 PGM786406:PGM786407 PQI786406:PQI786407 QAE786406:QAE786407 QKA786406:QKA786407 QTW786406:QTW786407 RDS786406:RDS786407 RNO786406:RNO786407 RXK786406:RXK786407 SHG786406:SHG786407 SRC786406:SRC786407 TAY786406:TAY786407 TKU786406:TKU786407 TUQ786406:TUQ786407 UEM786406:UEM786407 UOI786406:UOI786407 UYE786406:UYE786407 VIA786406:VIA786407 VRW786406:VRW786407 WBS786406:WBS786407 WLO786406:WLO786407 WVK786406:WVK786407 C851942:C851943 IY851942:IY851943 SU851942:SU851943 ACQ851942:ACQ851943 AMM851942:AMM851943 AWI851942:AWI851943 BGE851942:BGE851943 BQA851942:BQA851943 BZW851942:BZW851943 CJS851942:CJS851943 CTO851942:CTO851943 DDK851942:DDK851943 DNG851942:DNG851943 DXC851942:DXC851943 EGY851942:EGY851943 EQU851942:EQU851943 FAQ851942:FAQ851943 FKM851942:FKM851943 FUI851942:FUI851943 GEE851942:GEE851943 GOA851942:GOA851943 GXW851942:GXW851943 HHS851942:HHS851943 HRO851942:HRO851943 IBK851942:IBK851943 ILG851942:ILG851943 IVC851942:IVC851943 JEY851942:JEY851943 JOU851942:JOU851943 JYQ851942:JYQ851943 KIM851942:KIM851943 KSI851942:KSI851943 LCE851942:LCE851943 LMA851942:LMA851943 LVW851942:LVW851943 MFS851942:MFS851943 MPO851942:MPO851943 MZK851942:MZK851943 NJG851942:NJG851943 NTC851942:NTC851943 OCY851942:OCY851943 OMU851942:OMU851943 OWQ851942:OWQ851943 PGM851942:PGM851943 PQI851942:PQI851943 QAE851942:QAE851943 QKA851942:QKA851943 QTW851942:QTW851943 RDS851942:RDS851943 RNO851942:RNO851943 RXK851942:RXK851943 SHG851942:SHG851943 SRC851942:SRC851943 TAY851942:TAY851943 TKU851942:TKU851943 TUQ851942:TUQ851943 UEM851942:UEM851943 UOI851942:UOI851943 UYE851942:UYE851943 VIA851942:VIA851943 VRW851942:VRW851943 WBS851942:WBS851943 WLO851942:WLO851943 WVK851942:WVK851943 C917478:C917479 IY917478:IY917479 SU917478:SU917479 ACQ917478:ACQ917479 AMM917478:AMM917479 AWI917478:AWI917479 BGE917478:BGE917479 BQA917478:BQA917479 BZW917478:BZW917479 CJS917478:CJS917479 CTO917478:CTO917479 DDK917478:DDK917479 DNG917478:DNG917479 DXC917478:DXC917479 EGY917478:EGY917479 EQU917478:EQU917479 FAQ917478:FAQ917479 FKM917478:FKM917479 FUI917478:FUI917479 GEE917478:GEE917479 GOA917478:GOA917479 GXW917478:GXW917479 HHS917478:HHS917479 HRO917478:HRO917479 IBK917478:IBK917479 ILG917478:ILG917479 IVC917478:IVC917479 JEY917478:JEY917479 JOU917478:JOU917479 JYQ917478:JYQ917479 KIM917478:KIM917479 KSI917478:KSI917479 LCE917478:LCE917479 LMA917478:LMA917479 LVW917478:LVW917479 MFS917478:MFS917479 MPO917478:MPO917479 MZK917478:MZK917479 NJG917478:NJG917479 NTC917478:NTC917479 OCY917478:OCY917479 OMU917478:OMU917479 OWQ917478:OWQ917479 PGM917478:PGM917479 PQI917478:PQI917479 QAE917478:QAE917479 QKA917478:QKA917479 QTW917478:QTW917479 RDS917478:RDS917479 RNO917478:RNO917479 RXK917478:RXK917479 SHG917478:SHG917479 SRC917478:SRC917479 TAY917478:TAY917479 TKU917478:TKU917479 TUQ917478:TUQ917479 UEM917478:UEM917479 UOI917478:UOI917479 UYE917478:UYE917479 VIA917478:VIA917479 VRW917478:VRW917479 WBS917478:WBS917479 WLO917478:WLO917479 WVK917478:WVK917479 C983014:C983015 IY983014:IY983015 SU983014:SU983015 ACQ983014:ACQ983015 AMM983014:AMM983015 AWI983014:AWI983015 BGE983014:BGE983015 BQA983014:BQA983015 BZW983014:BZW983015 CJS983014:CJS983015 CTO983014:CTO983015 DDK983014:DDK983015 DNG983014:DNG983015 DXC983014:DXC983015 EGY983014:EGY983015 EQU983014:EQU983015 FAQ983014:FAQ983015 FKM983014:FKM983015 FUI983014:FUI983015 GEE983014:GEE983015 GOA983014:GOA983015 GXW983014:GXW983015 HHS983014:HHS983015 HRO983014:HRO983015 IBK983014:IBK983015 ILG983014:ILG983015 IVC983014:IVC983015 JEY983014:JEY983015 JOU983014:JOU983015 JYQ983014:JYQ983015 KIM983014:KIM983015 KSI983014:KSI983015 LCE983014:LCE983015 LMA983014:LMA983015 LVW983014:LVW983015 MFS983014:MFS983015 MPO983014:MPO983015 MZK983014:MZK983015 NJG983014:NJG983015 NTC983014:NTC983015 OCY983014:OCY983015 OMU983014:OMU983015 OWQ983014:OWQ983015 PGM983014:PGM983015 PQI983014:PQI983015 QAE983014:QAE983015 QKA983014:QKA983015 QTW983014:QTW983015 RDS983014:RDS983015 RNO983014:RNO983015 RXK983014:RXK983015 SHG983014:SHG983015 SRC983014:SRC983015 TAY983014:TAY983015 TKU983014:TKU983015 TUQ983014:TUQ983015 UEM983014:UEM983015 UOI983014:UOI983015 UYE983014:UYE983015 VIA983014:VIA983015 VRW983014:VRW983015 WBS983014:WBS983015 WLO983014:WLO983015 WVK983014:WVK983015 C29" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65518:C65520 IY65518:IY65520 SU65518:SU65520 ACQ65518:ACQ65520 AMM65518:AMM65520 AWI65518:AWI65520 BGE65518:BGE65520 BQA65518:BQA65520 BZW65518:BZW65520 CJS65518:CJS65520 CTO65518:CTO65520 DDK65518:DDK65520 DNG65518:DNG65520 DXC65518:DXC65520 EGY65518:EGY65520 EQU65518:EQU65520 FAQ65518:FAQ65520 FKM65518:FKM65520 FUI65518:FUI65520 GEE65518:GEE65520 GOA65518:GOA65520 GXW65518:GXW65520 HHS65518:HHS65520 HRO65518:HRO65520 IBK65518:IBK65520 ILG65518:ILG65520 IVC65518:IVC65520 JEY65518:JEY65520 JOU65518:JOU65520 JYQ65518:JYQ65520 KIM65518:KIM65520 KSI65518:KSI65520 LCE65518:LCE65520 LMA65518:LMA65520 LVW65518:LVW65520 MFS65518:MFS65520 MPO65518:MPO65520 MZK65518:MZK65520 NJG65518:NJG65520 NTC65518:NTC65520 OCY65518:OCY65520 OMU65518:OMU65520 OWQ65518:OWQ65520 PGM65518:PGM65520 PQI65518:PQI65520 QAE65518:QAE65520 QKA65518:QKA65520 QTW65518:QTW65520 RDS65518:RDS65520 RNO65518:RNO65520 RXK65518:RXK65520 SHG65518:SHG65520 SRC65518:SRC65520 TAY65518:TAY65520 TKU65518:TKU65520 TUQ65518:TUQ65520 UEM65518:UEM65520 UOI65518:UOI65520 UYE65518:UYE65520 VIA65518:VIA65520 VRW65518:VRW65520 WBS65518:WBS65520 WLO65518:WLO65520 WVK65518:WVK65520 C131054:C131056 IY131054:IY131056 SU131054:SU131056 ACQ131054:ACQ131056 AMM131054:AMM131056 AWI131054:AWI131056 BGE131054:BGE131056 BQA131054:BQA131056 BZW131054:BZW131056 CJS131054:CJS131056 CTO131054:CTO131056 DDK131054:DDK131056 DNG131054:DNG131056 DXC131054:DXC131056 EGY131054:EGY131056 EQU131054:EQU131056 FAQ131054:FAQ131056 FKM131054:FKM131056 FUI131054:FUI131056 GEE131054:GEE131056 GOA131054:GOA131056 GXW131054:GXW131056 HHS131054:HHS131056 HRO131054:HRO131056 IBK131054:IBK131056 ILG131054:ILG131056 IVC131054:IVC131056 JEY131054:JEY131056 JOU131054:JOU131056 JYQ131054:JYQ131056 KIM131054:KIM131056 KSI131054:KSI131056 LCE131054:LCE131056 LMA131054:LMA131056 LVW131054:LVW131056 MFS131054:MFS131056 MPO131054:MPO131056 MZK131054:MZK131056 NJG131054:NJG131056 NTC131054:NTC131056 OCY131054:OCY131056 OMU131054:OMU131056 OWQ131054:OWQ131056 PGM131054:PGM131056 PQI131054:PQI131056 QAE131054:QAE131056 QKA131054:QKA131056 QTW131054:QTW131056 RDS131054:RDS131056 RNO131054:RNO131056 RXK131054:RXK131056 SHG131054:SHG131056 SRC131054:SRC131056 TAY131054:TAY131056 TKU131054:TKU131056 TUQ131054:TUQ131056 UEM131054:UEM131056 UOI131054:UOI131056 UYE131054:UYE131056 VIA131054:VIA131056 VRW131054:VRW131056 WBS131054:WBS131056 WLO131054:WLO131056 WVK131054:WVK131056 C196590:C196592 IY196590:IY196592 SU196590:SU196592 ACQ196590:ACQ196592 AMM196590:AMM196592 AWI196590:AWI196592 BGE196590:BGE196592 BQA196590:BQA196592 BZW196590:BZW196592 CJS196590:CJS196592 CTO196590:CTO196592 DDK196590:DDK196592 DNG196590:DNG196592 DXC196590:DXC196592 EGY196590:EGY196592 EQU196590:EQU196592 FAQ196590:FAQ196592 FKM196590:FKM196592 FUI196590:FUI196592 GEE196590:GEE196592 GOA196590:GOA196592 GXW196590:GXW196592 HHS196590:HHS196592 HRO196590:HRO196592 IBK196590:IBK196592 ILG196590:ILG196592 IVC196590:IVC196592 JEY196590:JEY196592 JOU196590:JOU196592 JYQ196590:JYQ196592 KIM196590:KIM196592 KSI196590:KSI196592 LCE196590:LCE196592 LMA196590:LMA196592 LVW196590:LVW196592 MFS196590:MFS196592 MPO196590:MPO196592 MZK196590:MZK196592 NJG196590:NJG196592 NTC196590:NTC196592 OCY196590:OCY196592 OMU196590:OMU196592 OWQ196590:OWQ196592 PGM196590:PGM196592 PQI196590:PQI196592 QAE196590:QAE196592 QKA196590:QKA196592 QTW196590:QTW196592 RDS196590:RDS196592 RNO196590:RNO196592 RXK196590:RXK196592 SHG196590:SHG196592 SRC196590:SRC196592 TAY196590:TAY196592 TKU196590:TKU196592 TUQ196590:TUQ196592 UEM196590:UEM196592 UOI196590:UOI196592 UYE196590:UYE196592 VIA196590:VIA196592 VRW196590:VRW196592 WBS196590:WBS196592 WLO196590:WLO196592 WVK196590:WVK196592 C262126:C262128 IY262126:IY262128 SU262126:SU262128 ACQ262126:ACQ262128 AMM262126:AMM262128 AWI262126:AWI262128 BGE262126:BGE262128 BQA262126:BQA262128 BZW262126:BZW262128 CJS262126:CJS262128 CTO262126:CTO262128 DDK262126:DDK262128 DNG262126:DNG262128 DXC262126:DXC262128 EGY262126:EGY262128 EQU262126:EQU262128 FAQ262126:FAQ262128 FKM262126:FKM262128 FUI262126:FUI262128 GEE262126:GEE262128 GOA262126:GOA262128 GXW262126:GXW262128 HHS262126:HHS262128 HRO262126:HRO262128 IBK262126:IBK262128 ILG262126:ILG262128 IVC262126:IVC262128 JEY262126:JEY262128 JOU262126:JOU262128 JYQ262126:JYQ262128 KIM262126:KIM262128 KSI262126:KSI262128 LCE262126:LCE262128 LMA262126:LMA262128 LVW262126:LVW262128 MFS262126:MFS262128 MPO262126:MPO262128 MZK262126:MZK262128 NJG262126:NJG262128 NTC262126:NTC262128 OCY262126:OCY262128 OMU262126:OMU262128 OWQ262126:OWQ262128 PGM262126:PGM262128 PQI262126:PQI262128 QAE262126:QAE262128 QKA262126:QKA262128 QTW262126:QTW262128 RDS262126:RDS262128 RNO262126:RNO262128 RXK262126:RXK262128 SHG262126:SHG262128 SRC262126:SRC262128 TAY262126:TAY262128 TKU262126:TKU262128 TUQ262126:TUQ262128 UEM262126:UEM262128 UOI262126:UOI262128 UYE262126:UYE262128 VIA262126:VIA262128 VRW262126:VRW262128 WBS262126:WBS262128 WLO262126:WLO262128 WVK262126:WVK262128 C327662:C327664 IY327662:IY327664 SU327662:SU327664 ACQ327662:ACQ327664 AMM327662:AMM327664 AWI327662:AWI327664 BGE327662:BGE327664 BQA327662:BQA327664 BZW327662:BZW327664 CJS327662:CJS327664 CTO327662:CTO327664 DDK327662:DDK327664 DNG327662:DNG327664 DXC327662:DXC327664 EGY327662:EGY327664 EQU327662:EQU327664 FAQ327662:FAQ327664 FKM327662:FKM327664 FUI327662:FUI327664 GEE327662:GEE327664 GOA327662:GOA327664 GXW327662:GXW327664 HHS327662:HHS327664 HRO327662:HRO327664 IBK327662:IBK327664 ILG327662:ILG327664 IVC327662:IVC327664 JEY327662:JEY327664 JOU327662:JOU327664 JYQ327662:JYQ327664 KIM327662:KIM327664 KSI327662:KSI327664 LCE327662:LCE327664 LMA327662:LMA327664 LVW327662:LVW327664 MFS327662:MFS327664 MPO327662:MPO327664 MZK327662:MZK327664 NJG327662:NJG327664 NTC327662:NTC327664 OCY327662:OCY327664 OMU327662:OMU327664 OWQ327662:OWQ327664 PGM327662:PGM327664 PQI327662:PQI327664 QAE327662:QAE327664 QKA327662:QKA327664 QTW327662:QTW327664 RDS327662:RDS327664 RNO327662:RNO327664 RXK327662:RXK327664 SHG327662:SHG327664 SRC327662:SRC327664 TAY327662:TAY327664 TKU327662:TKU327664 TUQ327662:TUQ327664 UEM327662:UEM327664 UOI327662:UOI327664 UYE327662:UYE327664 VIA327662:VIA327664 VRW327662:VRW327664 WBS327662:WBS327664 WLO327662:WLO327664 WVK327662:WVK327664 C393198:C393200 IY393198:IY393200 SU393198:SU393200 ACQ393198:ACQ393200 AMM393198:AMM393200 AWI393198:AWI393200 BGE393198:BGE393200 BQA393198:BQA393200 BZW393198:BZW393200 CJS393198:CJS393200 CTO393198:CTO393200 DDK393198:DDK393200 DNG393198:DNG393200 DXC393198:DXC393200 EGY393198:EGY393200 EQU393198:EQU393200 FAQ393198:FAQ393200 FKM393198:FKM393200 FUI393198:FUI393200 GEE393198:GEE393200 GOA393198:GOA393200 GXW393198:GXW393200 HHS393198:HHS393200 HRO393198:HRO393200 IBK393198:IBK393200 ILG393198:ILG393200 IVC393198:IVC393200 JEY393198:JEY393200 JOU393198:JOU393200 JYQ393198:JYQ393200 KIM393198:KIM393200 KSI393198:KSI393200 LCE393198:LCE393200 LMA393198:LMA393200 LVW393198:LVW393200 MFS393198:MFS393200 MPO393198:MPO393200 MZK393198:MZK393200 NJG393198:NJG393200 NTC393198:NTC393200 OCY393198:OCY393200 OMU393198:OMU393200 OWQ393198:OWQ393200 PGM393198:PGM393200 PQI393198:PQI393200 QAE393198:QAE393200 QKA393198:QKA393200 QTW393198:QTW393200 RDS393198:RDS393200 RNO393198:RNO393200 RXK393198:RXK393200 SHG393198:SHG393200 SRC393198:SRC393200 TAY393198:TAY393200 TKU393198:TKU393200 TUQ393198:TUQ393200 UEM393198:UEM393200 UOI393198:UOI393200 UYE393198:UYE393200 VIA393198:VIA393200 VRW393198:VRW393200 WBS393198:WBS393200 WLO393198:WLO393200 WVK393198:WVK393200 C458734:C458736 IY458734:IY458736 SU458734:SU458736 ACQ458734:ACQ458736 AMM458734:AMM458736 AWI458734:AWI458736 BGE458734:BGE458736 BQA458734:BQA458736 BZW458734:BZW458736 CJS458734:CJS458736 CTO458734:CTO458736 DDK458734:DDK458736 DNG458734:DNG458736 DXC458734:DXC458736 EGY458734:EGY458736 EQU458734:EQU458736 FAQ458734:FAQ458736 FKM458734:FKM458736 FUI458734:FUI458736 GEE458734:GEE458736 GOA458734:GOA458736 GXW458734:GXW458736 HHS458734:HHS458736 HRO458734:HRO458736 IBK458734:IBK458736 ILG458734:ILG458736 IVC458734:IVC458736 JEY458734:JEY458736 JOU458734:JOU458736 JYQ458734:JYQ458736 KIM458734:KIM458736 KSI458734:KSI458736 LCE458734:LCE458736 LMA458734:LMA458736 LVW458734:LVW458736 MFS458734:MFS458736 MPO458734:MPO458736 MZK458734:MZK458736 NJG458734:NJG458736 NTC458734:NTC458736 OCY458734:OCY458736 OMU458734:OMU458736 OWQ458734:OWQ458736 PGM458734:PGM458736 PQI458734:PQI458736 QAE458734:QAE458736 QKA458734:QKA458736 QTW458734:QTW458736 RDS458734:RDS458736 RNO458734:RNO458736 RXK458734:RXK458736 SHG458734:SHG458736 SRC458734:SRC458736 TAY458734:TAY458736 TKU458734:TKU458736 TUQ458734:TUQ458736 UEM458734:UEM458736 UOI458734:UOI458736 UYE458734:UYE458736 VIA458734:VIA458736 VRW458734:VRW458736 WBS458734:WBS458736 WLO458734:WLO458736 WVK458734:WVK458736 C524270:C524272 IY524270:IY524272 SU524270:SU524272 ACQ524270:ACQ524272 AMM524270:AMM524272 AWI524270:AWI524272 BGE524270:BGE524272 BQA524270:BQA524272 BZW524270:BZW524272 CJS524270:CJS524272 CTO524270:CTO524272 DDK524270:DDK524272 DNG524270:DNG524272 DXC524270:DXC524272 EGY524270:EGY524272 EQU524270:EQU524272 FAQ524270:FAQ524272 FKM524270:FKM524272 FUI524270:FUI524272 GEE524270:GEE524272 GOA524270:GOA524272 GXW524270:GXW524272 HHS524270:HHS524272 HRO524270:HRO524272 IBK524270:IBK524272 ILG524270:ILG524272 IVC524270:IVC524272 JEY524270:JEY524272 JOU524270:JOU524272 JYQ524270:JYQ524272 KIM524270:KIM524272 KSI524270:KSI524272 LCE524270:LCE524272 LMA524270:LMA524272 LVW524270:LVW524272 MFS524270:MFS524272 MPO524270:MPO524272 MZK524270:MZK524272 NJG524270:NJG524272 NTC524270:NTC524272 OCY524270:OCY524272 OMU524270:OMU524272 OWQ524270:OWQ524272 PGM524270:PGM524272 PQI524270:PQI524272 QAE524270:QAE524272 QKA524270:QKA524272 QTW524270:QTW524272 RDS524270:RDS524272 RNO524270:RNO524272 RXK524270:RXK524272 SHG524270:SHG524272 SRC524270:SRC524272 TAY524270:TAY524272 TKU524270:TKU524272 TUQ524270:TUQ524272 UEM524270:UEM524272 UOI524270:UOI524272 UYE524270:UYE524272 VIA524270:VIA524272 VRW524270:VRW524272 WBS524270:WBS524272 WLO524270:WLO524272 WVK524270:WVK524272 C589806:C589808 IY589806:IY589808 SU589806:SU589808 ACQ589806:ACQ589808 AMM589806:AMM589808 AWI589806:AWI589808 BGE589806:BGE589808 BQA589806:BQA589808 BZW589806:BZW589808 CJS589806:CJS589808 CTO589806:CTO589808 DDK589806:DDK589808 DNG589806:DNG589808 DXC589806:DXC589808 EGY589806:EGY589808 EQU589806:EQU589808 FAQ589806:FAQ589808 FKM589806:FKM589808 FUI589806:FUI589808 GEE589806:GEE589808 GOA589806:GOA589808 GXW589806:GXW589808 HHS589806:HHS589808 HRO589806:HRO589808 IBK589806:IBK589808 ILG589806:ILG589808 IVC589806:IVC589808 JEY589806:JEY589808 JOU589806:JOU589808 JYQ589806:JYQ589808 KIM589806:KIM589808 KSI589806:KSI589808 LCE589806:LCE589808 LMA589806:LMA589808 LVW589806:LVW589808 MFS589806:MFS589808 MPO589806:MPO589808 MZK589806:MZK589808 NJG589806:NJG589808 NTC589806:NTC589808 OCY589806:OCY589808 OMU589806:OMU589808 OWQ589806:OWQ589808 PGM589806:PGM589808 PQI589806:PQI589808 QAE589806:QAE589808 QKA589806:QKA589808 QTW589806:QTW589808 RDS589806:RDS589808 RNO589806:RNO589808 RXK589806:RXK589808 SHG589806:SHG589808 SRC589806:SRC589808 TAY589806:TAY589808 TKU589806:TKU589808 TUQ589806:TUQ589808 UEM589806:UEM589808 UOI589806:UOI589808 UYE589806:UYE589808 VIA589806:VIA589808 VRW589806:VRW589808 WBS589806:WBS589808 WLO589806:WLO589808 WVK589806:WVK589808 C655342:C655344 IY655342:IY655344 SU655342:SU655344 ACQ655342:ACQ655344 AMM655342:AMM655344 AWI655342:AWI655344 BGE655342:BGE655344 BQA655342:BQA655344 BZW655342:BZW655344 CJS655342:CJS655344 CTO655342:CTO655344 DDK655342:DDK655344 DNG655342:DNG655344 DXC655342:DXC655344 EGY655342:EGY655344 EQU655342:EQU655344 FAQ655342:FAQ655344 FKM655342:FKM655344 FUI655342:FUI655344 GEE655342:GEE655344 GOA655342:GOA655344 GXW655342:GXW655344 HHS655342:HHS655344 HRO655342:HRO655344 IBK655342:IBK655344 ILG655342:ILG655344 IVC655342:IVC655344 JEY655342:JEY655344 JOU655342:JOU655344 JYQ655342:JYQ655344 KIM655342:KIM655344 KSI655342:KSI655344 LCE655342:LCE655344 LMA655342:LMA655344 LVW655342:LVW655344 MFS655342:MFS655344 MPO655342:MPO655344 MZK655342:MZK655344 NJG655342:NJG655344 NTC655342:NTC655344 OCY655342:OCY655344 OMU655342:OMU655344 OWQ655342:OWQ655344 PGM655342:PGM655344 PQI655342:PQI655344 QAE655342:QAE655344 QKA655342:QKA655344 QTW655342:QTW655344 RDS655342:RDS655344 RNO655342:RNO655344 RXK655342:RXK655344 SHG655342:SHG655344 SRC655342:SRC655344 TAY655342:TAY655344 TKU655342:TKU655344 TUQ655342:TUQ655344 UEM655342:UEM655344 UOI655342:UOI655344 UYE655342:UYE655344 VIA655342:VIA655344 VRW655342:VRW655344 WBS655342:WBS655344 WLO655342:WLO655344 WVK655342:WVK655344 C720878:C720880 IY720878:IY720880 SU720878:SU720880 ACQ720878:ACQ720880 AMM720878:AMM720880 AWI720878:AWI720880 BGE720878:BGE720880 BQA720878:BQA720880 BZW720878:BZW720880 CJS720878:CJS720880 CTO720878:CTO720880 DDK720878:DDK720880 DNG720878:DNG720880 DXC720878:DXC720880 EGY720878:EGY720880 EQU720878:EQU720880 FAQ720878:FAQ720880 FKM720878:FKM720880 FUI720878:FUI720880 GEE720878:GEE720880 GOA720878:GOA720880 GXW720878:GXW720880 HHS720878:HHS720880 HRO720878:HRO720880 IBK720878:IBK720880 ILG720878:ILG720880 IVC720878:IVC720880 JEY720878:JEY720880 JOU720878:JOU720880 JYQ720878:JYQ720880 KIM720878:KIM720880 KSI720878:KSI720880 LCE720878:LCE720880 LMA720878:LMA720880 LVW720878:LVW720880 MFS720878:MFS720880 MPO720878:MPO720880 MZK720878:MZK720880 NJG720878:NJG720880 NTC720878:NTC720880 OCY720878:OCY720880 OMU720878:OMU720880 OWQ720878:OWQ720880 PGM720878:PGM720880 PQI720878:PQI720880 QAE720878:QAE720880 QKA720878:QKA720880 QTW720878:QTW720880 RDS720878:RDS720880 RNO720878:RNO720880 RXK720878:RXK720880 SHG720878:SHG720880 SRC720878:SRC720880 TAY720878:TAY720880 TKU720878:TKU720880 TUQ720878:TUQ720880 UEM720878:UEM720880 UOI720878:UOI720880 UYE720878:UYE720880 VIA720878:VIA720880 VRW720878:VRW720880 WBS720878:WBS720880 WLO720878:WLO720880 WVK720878:WVK720880 C786414:C786416 IY786414:IY786416 SU786414:SU786416 ACQ786414:ACQ786416 AMM786414:AMM786416 AWI786414:AWI786416 BGE786414:BGE786416 BQA786414:BQA786416 BZW786414:BZW786416 CJS786414:CJS786416 CTO786414:CTO786416 DDK786414:DDK786416 DNG786414:DNG786416 DXC786414:DXC786416 EGY786414:EGY786416 EQU786414:EQU786416 FAQ786414:FAQ786416 FKM786414:FKM786416 FUI786414:FUI786416 GEE786414:GEE786416 GOA786414:GOA786416 GXW786414:GXW786416 HHS786414:HHS786416 HRO786414:HRO786416 IBK786414:IBK786416 ILG786414:ILG786416 IVC786414:IVC786416 JEY786414:JEY786416 JOU786414:JOU786416 JYQ786414:JYQ786416 KIM786414:KIM786416 KSI786414:KSI786416 LCE786414:LCE786416 LMA786414:LMA786416 LVW786414:LVW786416 MFS786414:MFS786416 MPO786414:MPO786416 MZK786414:MZK786416 NJG786414:NJG786416 NTC786414:NTC786416 OCY786414:OCY786416 OMU786414:OMU786416 OWQ786414:OWQ786416 PGM786414:PGM786416 PQI786414:PQI786416 QAE786414:QAE786416 QKA786414:QKA786416 QTW786414:QTW786416 RDS786414:RDS786416 RNO786414:RNO786416 RXK786414:RXK786416 SHG786414:SHG786416 SRC786414:SRC786416 TAY786414:TAY786416 TKU786414:TKU786416 TUQ786414:TUQ786416 UEM786414:UEM786416 UOI786414:UOI786416 UYE786414:UYE786416 VIA786414:VIA786416 VRW786414:VRW786416 WBS786414:WBS786416 WLO786414:WLO786416 WVK786414:WVK786416 C851950:C851952 IY851950:IY851952 SU851950:SU851952 ACQ851950:ACQ851952 AMM851950:AMM851952 AWI851950:AWI851952 BGE851950:BGE851952 BQA851950:BQA851952 BZW851950:BZW851952 CJS851950:CJS851952 CTO851950:CTO851952 DDK851950:DDK851952 DNG851950:DNG851952 DXC851950:DXC851952 EGY851950:EGY851952 EQU851950:EQU851952 FAQ851950:FAQ851952 FKM851950:FKM851952 FUI851950:FUI851952 GEE851950:GEE851952 GOA851950:GOA851952 GXW851950:GXW851952 HHS851950:HHS851952 HRO851950:HRO851952 IBK851950:IBK851952 ILG851950:ILG851952 IVC851950:IVC851952 JEY851950:JEY851952 JOU851950:JOU851952 JYQ851950:JYQ851952 KIM851950:KIM851952 KSI851950:KSI851952 LCE851950:LCE851952 LMA851950:LMA851952 LVW851950:LVW851952 MFS851950:MFS851952 MPO851950:MPO851952 MZK851950:MZK851952 NJG851950:NJG851952 NTC851950:NTC851952 OCY851950:OCY851952 OMU851950:OMU851952 OWQ851950:OWQ851952 PGM851950:PGM851952 PQI851950:PQI851952 QAE851950:QAE851952 QKA851950:QKA851952 QTW851950:QTW851952 RDS851950:RDS851952 RNO851950:RNO851952 RXK851950:RXK851952 SHG851950:SHG851952 SRC851950:SRC851952 TAY851950:TAY851952 TKU851950:TKU851952 TUQ851950:TUQ851952 UEM851950:UEM851952 UOI851950:UOI851952 UYE851950:UYE851952 VIA851950:VIA851952 VRW851950:VRW851952 WBS851950:WBS851952 WLO851950:WLO851952 WVK851950:WVK851952 C917486:C917488 IY917486:IY917488 SU917486:SU917488 ACQ917486:ACQ917488 AMM917486:AMM917488 AWI917486:AWI917488 BGE917486:BGE917488 BQA917486:BQA917488 BZW917486:BZW917488 CJS917486:CJS917488 CTO917486:CTO917488 DDK917486:DDK917488 DNG917486:DNG917488 DXC917486:DXC917488 EGY917486:EGY917488 EQU917486:EQU917488 FAQ917486:FAQ917488 FKM917486:FKM917488 FUI917486:FUI917488 GEE917486:GEE917488 GOA917486:GOA917488 GXW917486:GXW917488 HHS917486:HHS917488 HRO917486:HRO917488 IBK917486:IBK917488 ILG917486:ILG917488 IVC917486:IVC917488 JEY917486:JEY917488 JOU917486:JOU917488 JYQ917486:JYQ917488 KIM917486:KIM917488 KSI917486:KSI917488 LCE917486:LCE917488 LMA917486:LMA917488 LVW917486:LVW917488 MFS917486:MFS917488 MPO917486:MPO917488 MZK917486:MZK917488 NJG917486:NJG917488 NTC917486:NTC917488 OCY917486:OCY917488 OMU917486:OMU917488 OWQ917486:OWQ917488 PGM917486:PGM917488 PQI917486:PQI917488 QAE917486:QAE917488 QKA917486:QKA917488 QTW917486:QTW917488 RDS917486:RDS917488 RNO917486:RNO917488 RXK917486:RXK917488 SHG917486:SHG917488 SRC917486:SRC917488 TAY917486:TAY917488 TKU917486:TKU917488 TUQ917486:TUQ917488 UEM917486:UEM917488 UOI917486:UOI917488 UYE917486:UYE917488 VIA917486:VIA917488 VRW917486:VRW917488 WBS917486:WBS917488 WLO917486:WLO917488 WVK917486:WVK917488 C983022:C983024 IY983022:IY983024 SU983022:SU983024 ACQ983022:ACQ983024 AMM983022:AMM983024 AWI983022:AWI983024 BGE983022:BGE983024 BQA983022:BQA983024 BZW983022:BZW983024 CJS983022:CJS983024 CTO983022:CTO983024 DDK983022:DDK983024 DNG983022:DNG983024 DXC983022:DXC983024 EGY983022:EGY983024 EQU983022:EQU983024 FAQ983022:FAQ983024 FKM983022:FKM983024 FUI983022:FUI983024 GEE983022:GEE983024 GOA983022:GOA983024 GXW983022:GXW983024 HHS983022:HHS983024 HRO983022:HRO983024 IBK983022:IBK983024 ILG983022:ILG983024 IVC983022:IVC983024 JEY983022:JEY983024 JOU983022:JOU983024 JYQ983022:JYQ983024 KIM983022:KIM983024 KSI983022:KSI983024 LCE983022:LCE983024 LMA983022:LMA983024 LVW983022:LVW983024 MFS983022:MFS983024 MPO983022:MPO983024 MZK983022:MZK983024 NJG983022:NJG983024 NTC983022:NTC983024 OCY983022:OCY983024 OMU983022:OMU983024 OWQ983022:OWQ983024 PGM983022:PGM983024 PQI983022:PQI983024 QAE983022:QAE983024 QKA983022:QKA983024 QTW983022:QTW983024 RDS983022:RDS983024 RNO983022:RNO983024 RXK983022:RXK983024 SHG983022:SHG983024 SRC983022:SRC983024 TAY983022:TAY983024 TKU983022:TKU983024 TUQ983022:TUQ983024 UEM983022:UEM983024 UOI983022:UOI983024 UYE983022:UYE983024 VIA983022:VIA983024 VRW983022:VRW983024 WBS983022:WBS983024 WLO983022:WLO983024 WVK983022:WVK983024 C65506:C65508 IY65506:IY65508 SU65506:SU65508 ACQ65506:ACQ65508 AMM65506:AMM65508 AWI65506:AWI65508 BGE65506:BGE65508 BQA65506:BQA65508 BZW65506:BZW65508 CJS65506:CJS65508 CTO65506:CTO65508 DDK65506:DDK65508 DNG65506:DNG65508 DXC65506:DXC65508 EGY65506:EGY65508 EQU65506:EQU65508 FAQ65506:FAQ65508 FKM65506:FKM65508 FUI65506:FUI65508 GEE65506:GEE65508 GOA65506:GOA65508 GXW65506:GXW65508 HHS65506:HHS65508 HRO65506:HRO65508 IBK65506:IBK65508 ILG65506:ILG65508 IVC65506:IVC65508 JEY65506:JEY65508 JOU65506:JOU65508 JYQ65506:JYQ65508 KIM65506:KIM65508 KSI65506:KSI65508 LCE65506:LCE65508 LMA65506:LMA65508 LVW65506:LVW65508 MFS65506:MFS65508 MPO65506:MPO65508 MZK65506:MZK65508 NJG65506:NJG65508 NTC65506:NTC65508 OCY65506:OCY65508 OMU65506:OMU65508 OWQ65506:OWQ65508 PGM65506:PGM65508 PQI65506:PQI65508 QAE65506:QAE65508 QKA65506:QKA65508 QTW65506:QTW65508 RDS65506:RDS65508 RNO65506:RNO65508 RXK65506:RXK65508 SHG65506:SHG65508 SRC65506:SRC65508 TAY65506:TAY65508 TKU65506:TKU65508 TUQ65506:TUQ65508 UEM65506:UEM65508 UOI65506:UOI65508 UYE65506:UYE65508 VIA65506:VIA65508 VRW65506:VRW65508 WBS65506:WBS65508 WLO65506:WLO65508 WVK65506:WVK65508 C131042:C131044 IY131042:IY131044 SU131042:SU131044 ACQ131042:ACQ131044 AMM131042:AMM131044 AWI131042:AWI131044 BGE131042:BGE131044 BQA131042:BQA131044 BZW131042:BZW131044 CJS131042:CJS131044 CTO131042:CTO131044 DDK131042:DDK131044 DNG131042:DNG131044 DXC131042:DXC131044 EGY131042:EGY131044 EQU131042:EQU131044 FAQ131042:FAQ131044 FKM131042:FKM131044 FUI131042:FUI131044 GEE131042:GEE131044 GOA131042:GOA131044 GXW131042:GXW131044 HHS131042:HHS131044 HRO131042:HRO131044 IBK131042:IBK131044 ILG131042:ILG131044 IVC131042:IVC131044 JEY131042:JEY131044 JOU131042:JOU131044 JYQ131042:JYQ131044 KIM131042:KIM131044 KSI131042:KSI131044 LCE131042:LCE131044 LMA131042:LMA131044 LVW131042:LVW131044 MFS131042:MFS131044 MPO131042:MPO131044 MZK131042:MZK131044 NJG131042:NJG131044 NTC131042:NTC131044 OCY131042:OCY131044 OMU131042:OMU131044 OWQ131042:OWQ131044 PGM131042:PGM131044 PQI131042:PQI131044 QAE131042:QAE131044 QKA131042:QKA131044 QTW131042:QTW131044 RDS131042:RDS131044 RNO131042:RNO131044 RXK131042:RXK131044 SHG131042:SHG131044 SRC131042:SRC131044 TAY131042:TAY131044 TKU131042:TKU131044 TUQ131042:TUQ131044 UEM131042:UEM131044 UOI131042:UOI131044 UYE131042:UYE131044 VIA131042:VIA131044 VRW131042:VRW131044 WBS131042:WBS131044 WLO131042:WLO131044 WVK131042:WVK131044 C196578:C196580 IY196578:IY196580 SU196578:SU196580 ACQ196578:ACQ196580 AMM196578:AMM196580 AWI196578:AWI196580 BGE196578:BGE196580 BQA196578:BQA196580 BZW196578:BZW196580 CJS196578:CJS196580 CTO196578:CTO196580 DDK196578:DDK196580 DNG196578:DNG196580 DXC196578:DXC196580 EGY196578:EGY196580 EQU196578:EQU196580 FAQ196578:FAQ196580 FKM196578:FKM196580 FUI196578:FUI196580 GEE196578:GEE196580 GOA196578:GOA196580 GXW196578:GXW196580 HHS196578:HHS196580 HRO196578:HRO196580 IBK196578:IBK196580 ILG196578:ILG196580 IVC196578:IVC196580 JEY196578:JEY196580 JOU196578:JOU196580 JYQ196578:JYQ196580 KIM196578:KIM196580 KSI196578:KSI196580 LCE196578:LCE196580 LMA196578:LMA196580 LVW196578:LVW196580 MFS196578:MFS196580 MPO196578:MPO196580 MZK196578:MZK196580 NJG196578:NJG196580 NTC196578:NTC196580 OCY196578:OCY196580 OMU196578:OMU196580 OWQ196578:OWQ196580 PGM196578:PGM196580 PQI196578:PQI196580 QAE196578:QAE196580 QKA196578:QKA196580 QTW196578:QTW196580 RDS196578:RDS196580 RNO196578:RNO196580 RXK196578:RXK196580 SHG196578:SHG196580 SRC196578:SRC196580 TAY196578:TAY196580 TKU196578:TKU196580 TUQ196578:TUQ196580 UEM196578:UEM196580 UOI196578:UOI196580 UYE196578:UYE196580 VIA196578:VIA196580 VRW196578:VRW196580 WBS196578:WBS196580 WLO196578:WLO196580 WVK196578:WVK196580 C262114:C262116 IY262114:IY262116 SU262114:SU262116 ACQ262114:ACQ262116 AMM262114:AMM262116 AWI262114:AWI262116 BGE262114:BGE262116 BQA262114:BQA262116 BZW262114:BZW262116 CJS262114:CJS262116 CTO262114:CTO262116 DDK262114:DDK262116 DNG262114:DNG262116 DXC262114:DXC262116 EGY262114:EGY262116 EQU262114:EQU262116 FAQ262114:FAQ262116 FKM262114:FKM262116 FUI262114:FUI262116 GEE262114:GEE262116 GOA262114:GOA262116 GXW262114:GXW262116 HHS262114:HHS262116 HRO262114:HRO262116 IBK262114:IBK262116 ILG262114:ILG262116 IVC262114:IVC262116 JEY262114:JEY262116 JOU262114:JOU262116 JYQ262114:JYQ262116 KIM262114:KIM262116 KSI262114:KSI262116 LCE262114:LCE262116 LMA262114:LMA262116 LVW262114:LVW262116 MFS262114:MFS262116 MPO262114:MPO262116 MZK262114:MZK262116 NJG262114:NJG262116 NTC262114:NTC262116 OCY262114:OCY262116 OMU262114:OMU262116 OWQ262114:OWQ262116 PGM262114:PGM262116 PQI262114:PQI262116 QAE262114:QAE262116 QKA262114:QKA262116 QTW262114:QTW262116 RDS262114:RDS262116 RNO262114:RNO262116 RXK262114:RXK262116 SHG262114:SHG262116 SRC262114:SRC262116 TAY262114:TAY262116 TKU262114:TKU262116 TUQ262114:TUQ262116 UEM262114:UEM262116 UOI262114:UOI262116 UYE262114:UYE262116 VIA262114:VIA262116 VRW262114:VRW262116 WBS262114:WBS262116 WLO262114:WLO262116 WVK262114:WVK262116 C327650:C327652 IY327650:IY327652 SU327650:SU327652 ACQ327650:ACQ327652 AMM327650:AMM327652 AWI327650:AWI327652 BGE327650:BGE327652 BQA327650:BQA327652 BZW327650:BZW327652 CJS327650:CJS327652 CTO327650:CTO327652 DDK327650:DDK327652 DNG327650:DNG327652 DXC327650:DXC327652 EGY327650:EGY327652 EQU327650:EQU327652 FAQ327650:FAQ327652 FKM327650:FKM327652 FUI327650:FUI327652 GEE327650:GEE327652 GOA327650:GOA327652 GXW327650:GXW327652 HHS327650:HHS327652 HRO327650:HRO327652 IBK327650:IBK327652 ILG327650:ILG327652 IVC327650:IVC327652 JEY327650:JEY327652 JOU327650:JOU327652 JYQ327650:JYQ327652 KIM327650:KIM327652 KSI327650:KSI327652 LCE327650:LCE327652 LMA327650:LMA327652 LVW327650:LVW327652 MFS327650:MFS327652 MPO327650:MPO327652 MZK327650:MZK327652 NJG327650:NJG327652 NTC327650:NTC327652 OCY327650:OCY327652 OMU327650:OMU327652 OWQ327650:OWQ327652 PGM327650:PGM327652 PQI327650:PQI327652 QAE327650:QAE327652 QKA327650:QKA327652 QTW327650:QTW327652 RDS327650:RDS327652 RNO327650:RNO327652 RXK327650:RXK327652 SHG327650:SHG327652 SRC327650:SRC327652 TAY327650:TAY327652 TKU327650:TKU327652 TUQ327650:TUQ327652 UEM327650:UEM327652 UOI327650:UOI327652 UYE327650:UYE327652 VIA327650:VIA327652 VRW327650:VRW327652 WBS327650:WBS327652 WLO327650:WLO327652 WVK327650:WVK327652 C393186:C393188 IY393186:IY393188 SU393186:SU393188 ACQ393186:ACQ393188 AMM393186:AMM393188 AWI393186:AWI393188 BGE393186:BGE393188 BQA393186:BQA393188 BZW393186:BZW393188 CJS393186:CJS393188 CTO393186:CTO393188 DDK393186:DDK393188 DNG393186:DNG393188 DXC393186:DXC393188 EGY393186:EGY393188 EQU393186:EQU393188 FAQ393186:FAQ393188 FKM393186:FKM393188 FUI393186:FUI393188 GEE393186:GEE393188 GOA393186:GOA393188 GXW393186:GXW393188 HHS393186:HHS393188 HRO393186:HRO393188 IBK393186:IBK393188 ILG393186:ILG393188 IVC393186:IVC393188 JEY393186:JEY393188 JOU393186:JOU393188 JYQ393186:JYQ393188 KIM393186:KIM393188 KSI393186:KSI393188 LCE393186:LCE393188 LMA393186:LMA393188 LVW393186:LVW393188 MFS393186:MFS393188 MPO393186:MPO393188 MZK393186:MZK393188 NJG393186:NJG393188 NTC393186:NTC393188 OCY393186:OCY393188 OMU393186:OMU393188 OWQ393186:OWQ393188 PGM393186:PGM393188 PQI393186:PQI393188 QAE393186:QAE393188 QKA393186:QKA393188 QTW393186:QTW393188 RDS393186:RDS393188 RNO393186:RNO393188 RXK393186:RXK393188 SHG393186:SHG393188 SRC393186:SRC393188 TAY393186:TAY393188 TKU393186:TKU393188 TUQ393186:TUQ393188 UEM393186:UEM393188 UOI393186:UOI393188 UYE393186:UYE393188 VIA393186:VIA393188 VRW393186:VRW393188 WBS393186:WBS393188 WLO393186:WLO393188 WVK393186:WVK393188 C458722:C458724 IY458722:IY458724 SU458722:SU458724 ACQ458722:ACQ458724 AMM458722:AMM458724 AWI458722:AWI458724 BGE458722:BGE458724 BQA458722:BQA458724 BZW458722:BZW458724 CJS458722:CJS458724 CTO458722:CTO458724 DDK458722:DDK458724 DNG458722:DNG458724 DXC458722:DXC458724 EGY458722:EGY458724 EQU458722:EQU458724 FAQ458722:FAQ458724 FKM458722:FKM458724 FUI458722:FUI458724 GEE458722:GEE458724 GOA458722:GOA458724 GXW458722:GXW458724 HHS458722:HHS458724 HRO458722:HRO458724 IBK458722:IBK458724 ILG458722:ILG458724 IVC458722:IVC458724 JEY458722:JEY458724 JOU458722:JOU458724 JYQ458722:JYQ458724 KIM458722:KIM458724 KSI458722:KSI458724 LCE458722:LCE458724 LMA458722:LMA458724 LVW458722:LVW458724 MFS458722:MFS458724 MPO458722:MPO458724 MZK458722:MZK458724 NJG458722:NJG458724 NTC458722:NTC458724 OCY458722:OCY458724 OMU458722:OMU458724 OWQ458722:OWQ458724 PGM458722:PGM458724 PQI458722:PQI458724 QAE458722:QAE458724 QKA458722:QKA458724 QTW458722:QTW458724 RDS458722:RDS458724 RNO458722:RNO458724 RXK458722:RXK458724 SHG458722:SHG458724 SRC458722:SRC458724 TAY458722:TAY458724 TKU458722:TKU458724 TUQ458722:TUQ458724 UEM458722:UEM458724 UOI458722:UOI458724 UYE458722:UYE458724 VIA458722:VIA458724 VRW458722:VRW458724 WBS458722:WBS458724 WLO458722:WLO458724 WVK458722:WVK458724 C524258:C524260 IY524258:IY524260 SU524258:SU524260 ACQ524258:ACQ524260 AMM524258:AMM524260 AWI524258:AWI524260 BGE524258:BGE524260 BQA524258:BQA524260 BZW524258:BZW524260 CJS524258:CJS524260 CTO524258:CTO524260 DDK524258:DDK524260 DNG524258:DNG524260 DXC524258:DXC524260 EGY524258:EGY524260 EQU524258:EQU524260 FAQ524258:FAQ524260 FKM524258:FKM524260 FUI524258:FUI524260 GEE524258:GEE524260 GOA524258:GOA524260 GXW524258:GXW524260 HHS524258:HHS524260 HRO524258:HRO524260 IBK524258:IBK524260 ILG524258:ILG524260 IVC524258:IVC524260 JEY524258:JEY524260 JOU524258:JOU524260 JYQ524258:JYQ524260 KIM524258:KIM524260 KSI524258:KSI524260 LCE524258:LCE524260 LMA524258:LMA524260 LVW524258:LVW524260 MFS524258:MFS524260 MPO524258:MPO524260 MZK524258:MZK524260 NJG524258:NJG524260 NTC524258:NTC524260 OCY524258:OCY524260 OMU524258:OMU524260 OWQ524258:OWQ524260 PGM524258:PGM524260 PQI524258:PQI524260 QAE524258:QAE524260 QKA524258:QKA524260 QTW524258:QTW524260 RDS524258:RDS524260 RNO524258:RNO524260 RXK524258:RXK524260 SHG524258:SHG524260 SRC524258:SRC524260 TAY524258:TAY524260 TKU524258:TKU524260 TUQ524258:TUQ524260 UEM524258:UEM524260 UOI524258:UOI524260 UYE524258:UYE524260 VIA524258:VIA524260 VRW524258:VRW524260 WBS524258:WBS524260 WLO524258:WLO524260 WVK524258:WVK524260 C589794:C589796 IY589794:IY589796 SU589794:SU589796 ACQ589794:ACQ589796 AMM589794:AMM589796 AWI589794:AWI589796 BGE589794:BGE589796 BQA589794:BQA589796 BZW589794:BZW589796 CJS589794:CJS589796 CTO589794:CTO589796 DDK589794:DDK589796 DNG589794:DNG589796 DXC589794:DXC589796 EGY589794:EGY589796 EQU589794:EQU589796 FAQ589794:FAQ589796 FKM589794:FKM589796 FUI589794:FUI589796 GEE589794:GEE589796 GOA589794:GOA589796 GXW589794:GXW589796 HHS589794:HHS589796 HRO589794:HRO589796 IBK589794:IBK589796 ILG589794:ILG589796 IVC589794:IVC589796 JEY589794:JEY589796 JOU589794:JOU589796 JYQ589794:JYQ589796 KIM589794:KIM589796 KSI589794:KSI589796 LCE589794:LCE589796 LMA589794:LMA589796 LVW589794:LVW589796 MFS589794:MFS589796 MPO589794:MPO589796 MZK589794:MZK589796 NJG589794:NJG589796 NTC589794:NTC589796 OCY589794:OCY589796 OMU589794:OMU589796 OWQ589794:OWQ589796 PGM589794:PGM589796 PQI589794:PQI589796 QAE589794:QAE589796 QKA589794:QKA589796 QTW589794:QTW589796 RDS589794:RDS589796 RNO589794:RNO589796 RXK589794:RXK589796 SHG589794:SHG589796 SRC589794:SRC589796 TAY589794:TAY589796 TKU589794:TKU589796 TUQ589794:TUQ589796 UEM589794:UEM589796 UOI589794:UOI589796 UYE589794:UYE589796 VIA589794:VIA589796 VRW589794:VRW589796 WBS589794:WBS589796 WLO589794:WLO589796 WVK589794:WVK589796 C655330:C655332 IY655330:IY655332 SU655330:SU655332 ACQ655330:ACQ655332 AMM655330:AMM655332 AWI655330:AWI655332 BGE655330:BGE655332 BQA655330:BQA655332 BZW655330:BZW655332 CJS655330:CJS655332 CTO655330:CTO655332 DDK655330:DDK655332 DNG655330:DNG655332 DXC655330:DXC655332 EGY655330:EGY655332 EQU655330:EQU655332 FAQ655330:FAQ655332 FKM655330:FKM655332 FUI655330:FUI655332 GEE655330:GEE655332 GOA655330:GOA655332 GXW655330:GXW655332 HHS655330:HHS655332 HRO655330:HRO655332 IBK655330:IBK655332 ILG655330:ILG655332 IVC655330:IVC655332 JEY655330:JEY655332 JOU655330:JOU655332 JYQ655330:JYQ655332 KIM655330:KIM655332 KSI655330:KSI655332 LCE655330:LCE655332 LMA655330:LMA655332 LVW655330:LVW655332 MFS655330:MFS655332 MPO655330:MPO655332 MZK655330:MZK655332 NJG655330:NJG655332 NTC655330:NTC655332 OCY655330:OCY655332 OMU655330:OMU655332 OWQ655330:OWQ655332 PGM655330:PGM655332 PQI655330:PQI655332 QAE655330:QAE655332 QKA655330:QKA655332 QTW655330:QTW655332 RDS655330:RDS655332 RNO655330:RNO655332 RXK655330:RXK655332 SHG655330:SHG655332 SRC655330:SRC655332 TAY655330:TAY655332 TKU655330:TKU655332 TUQ655330:TUQ655332 UEM655330:UEM655332 UOI655330:UOI655332 UYE655330:UYE655332 VIA655330:VIA655332 VRW655330:VRW655332 WBS655330:WBS655332 WLO655330:WLO655332 WVK655330:WVK655332 C720866:C720868 IY720866:IY720868 SU720866:SU720868 ACQ720866:ACQ720868 AMM720866:AMM720868 AWI720866:AWI720868 BGE720866:BGE720868 BQA720866:BQA720868 BZW720866:BZW720868 CJS720866:CJS720868 CTO720866:CTO720868 DDK720866:DDK720868 DNG720866:DNG720868 DXC720866:DXC720868 EGY720866:EGY720868 EQU720866:EQU720868 FAQ720866:FAQ720868 FKM720866:FKM720868 FUI720866:FUI720868 GEE720866:GEE720868 GOA720866:GOA720868 GXW720866:GXW720868 HHS720866:HHS720868 HRO720866:HRO720868 IBK720866:IBK720868 ILG720866:ILG720868 IVC720866:IVC720868 JEY720866:JEY720868 JOU720866:JOU720868 JYQ720866:JYQ720868 KIM720866:KIM720868 KSI720866:KSI720868 LCE720866:LCE720868 LMA720866:LMA720868 LVW720866:LVW720868 MFS720866:MFS720868 MPO720866:MPO720868 MZK720866:MZK720868 NJG720866:NJG720868 NTC720866:NTC720868 OCY720866:OCY720868 OMU720866:OMU720868 OWQ720866:OWQ720868 PGM720866:PGM720868 PQI720866:PQI720868 QAE720866:QAE720868 QKA720866:QKA720868 QTW720866:QTW720868 RDS720866:RDS720868 RNO720866:RNO720868 RXK720866:RXK720868 SHG720866:SHG720868 SRC720866:SRC720868 TAY720866:TAY720868 TKU720866:TKU720868 TUQ720866:TUQ720868 UEM720866:UEM720868 UOI720866:UOI720868 UYE720866:UYE720868 VIA720866:VIA720868 VRW720866:VRW720868 WBS720866:WBS720868 WLO720866:WLO720868 WVK720866:WVK720868 C786402:C786404 IY786402:IY786404 SU786402:SU786404 ACQ786402:ACQ786404 AMM786402:AMM786404 AWI786402:AWI786404 BGE786402:BGE786404 BQA786402:BQA786404 BZW786402:BZW786404 CJS786402:CJS786404 CTO786402:CTO786404 DDK786402:DDK786404 DNG786402:DNG786404 DXC786402:DXC786404 EGY786402:EGY786404 EQU786402:EQU786404 FAQ786402:FAQ786404 FKM786402:FKM786404 FUI786402:FUI786404 GEE786402:GEE786404 GOA786402:GOA786404 GXW786402:GXW786404 HHS786402:HHS786404 HRO786402:HRO786404 IBK786402:IBK786404 ILG786402:ILG786404 IVC786402:IVC786404 JEY786402:JEY786404 JOU786402:JOU786404 JYQ786402:JYQ786404 KIM786402:KIM786404 KSI786402:KSI786404 LCE786402:LCE786404 LMA786402:LMA786404 LVW786402:LVW786404 MFS786402:MFS786404 MPO786402:MPO786404 MZK786402:MZK786404 NJG786402:NJG786404 NTC786402:NTC786404 OCY786402:OCY786404 OMU786402:OMU786404 OWQ786402:OWQ786404 PGM786402:PGM786404 PQI786402:PQI786404 QAE786402:QAE786404 QKA786402:QKA786404 QTW786402:QTW786404 RDS786402:RDS786404 RNO786402:RNO786404 RXK786402:RXK786404 SHG786402:SHG786404 SRC786402:SRC786404 TAY786402:TAY786404 TKU786402:TKU786404 TUQ786402:TUQ786404 UEM786402:UEM786404 UOI786402:UOI786404 UYE786402:UYE786404 VIA786402:VIA786404 VRW786402:VRW786404 WBS786402:WBS786404 WLO786402:WLO786404 WVK786402:WVK786404 C851938:C851940 IY851938:IY851940 SU851938:SU851940 ACQ851938:ACQ851940 AMM851938:AMM851940 AWI851938:AWI851940 BGE851938:BGE851940 BQA851938:BQA851940 BZW851938:BZW851940 CJS851938:CJS851940 CTO851938:CTO851940 DDK851938:DDK851940 DNG851938:DNG851940 DXC851938:DXC851940 EGY851938:EGY851940 EQU851938:EQU851940 FAQ851938:FAQ851940 FKM851938:FKM851940 FUI851938:FUI851940 GEE851938:GEE851940 GOA851938:GOA851940 GXW851938:GXW851940 HHS851938:HHS851940 HRO851938:HRO851940 IBK851938:IBK851940 ILG851938:ILG851940 IVC851938:IVC851940 JEY851938:JEY851940 JOU851938:JOU851940 JYQ851938:JYQ851940 KIM851938:KIM851940 KSI851938:KSI851940 LCE851938:LCE851940 LMA851938:LMA851940 LVW851938:LVW851940 MFS851938:MFS851940 MPO851938:MPO851940 MZK851938:MZK851940 NJG851938:NJG851940 NTC851938:NTC851940 OCY851938:OCY851940 OMU851938:OMU851940 OWQ851938:OWQ851940 PGM851938:PGM851940 PQI851938:PQI851940 QAE851938:QAE851940 QKA851938:QKA851940 QTW851938:QTW851940 RDS851938:RDS851940 RNO851938:RNO851940 RXK851938:RXK851940 SHG851938:SHG851940 SRC851938:SRC851940 TAY851938:TAY851940 TKU851938:TKU851940 TUQ851938:TUQ851940 UEM851938:UEM851940 UOI851938:UOI851940 UYE851938:UYE851940 VIA851938:VIA851940 VRW851938:VRW851940 WBS851938:WBS851940 WLO851938:WLO851940 WVK851938:WVK851940 C917474:C917476 IY917474:IY917476 SU917474:SU917476 ACQ917474:ACQ917476 AMM917474:AMM917476 AWI917474:AWI917476 BGE917474:BGE917476 BQA917474:BQA917476 BZW917474:BZW917476 CJS917474:CJS917476 CTO917474:CTO917476 DDK917474:DDK917476 DNG917474:DNG917476 DXC917474:DXC917476 EGY917474:EGY917476 EQU917474:EQU917476 FAQ917474:FAQ917476 FKM917474:FKM917476 FUI917474:FUI917476 GEE917474:GEE917476 GOA917474:GOA917476 GXW917474:GXW917476 HHS917474:HHS917476 HRO917474:HRO917476 IBK917474:IBK917476 ILG917474:ILG917476 IVC917474:IVC917476 JEY917474:JEY917476 JOU917474:JOU917476 JYQ917474:JYQ917476 KIM917474:KIM917476 KSI917474:KSI917476 LCE917474:LCE917476 LMA917474:LMA917476 LVW917474:LVW917476 MFS917474:MFS917476 MPO917474:MPO917476 MZK917474:MZK917476 NJG917474:NJG917476 NTC917474:NTC917476 OCY917474:OCY917476 OMU917474:OMU917476 OWQ917474:OWQ917476 PGM917474:PGM917476 PQI917474:PQI917476 QAE917474:QAE917476 QKA917474:QKA917476 QTW917474:QTW917476 RDS917474:RDS917476 RNO917474:RNO917476 RXK917474:RXK917476 SHG917474:SHG917476 SRC917474:SRC917476 TAY917474:TAY917476 TKU917474:TKU917476 TUQ917474:TUQ917476 UEM917474:UEM917476 UOI917474:UOI917476 UYE917474:UYE917476 VIA917474:VIA917476 VRW917474:VRW917476 WBS917474:WBS917476 WLO917474:WLO917476 WVK917474:WVK917476 C983010:C983012 IY983010:IY983012 SU983010:SU983012 ACQ983010:ACQ983012 AMM983010:AMM983012 AWI983010:AWI983012 BGE983010:BGE983012 BQA983010:BQA983012 BZW983010:BZW983012 CJS983010:CJS983012 CTO983010:CTO983012 DDK983010:DDK983012 DNG983010:DNG983012 DXC983010:DXC983012 EGY983010:EGY983012 EQU983010:EQU983012 FAQ983010:FAQ983012 FKM983010:FKM983012 FUI983010:FUI983012 GEE983010:GEE983012 GOA983010:GOA983012 GXW983010:GXW983012 HHS983010:HHS983012 HRO983010:HRO983012 IBK983010:IBK983012 ILG983010:ILG983012 IVC983010:IVC983012 JEY983010:JEY983012 JOU983010:JOU983012 JYQ983010:JYQ983012 KIM983010:KIM983012 KSI983010:KSI983012 LCE983010:LCE983012 LMA983010:LMA983012 LVW983010:LVW983012 MFS983010:MFS983012 MPO983010:MPO983012 MZK983010:MZK983012 NJG983010:NJG983012 NTC983010:NTC983012 OCY983010:OCY983012 OMU983010:OMU983012 OWQ983010:OWQ983012 PGM983010:PGM983012 PQI983010:PQI983012 QAE983010:QAE983012 QKA983010:QKA983012 QTW983010:QTW983012 RDS983010:RDS983012 RNO983010:RNO983012 RXK983010:RXK983012 SHG983010:SHG983012 SRC983010:SRC983012 TAY983010:TAY983012 TKU983010:TKU983012 TUQ983010:TUQ983012 UEM983010:UEM983012 UOI983010:UOI983012 UYE983010:UYE983012 VIA983010:VIA983012 VRW983010:VRW983012 WBS983010:WBS983012 WLO983010:WLO983012 WVK983010:WVK983012 C5:C7 IY5:IY7 SU5:SU7 ACQ5:ACQ7 AMM5:AMM7 AWI5:AWI7 BGE5:BGE7 BQA5:BQA7 BZW5:BZW7 CJS5:CJS7 CTO5:CTO7 DDK5:DDK7 DNG5:DNG7 DXC5:DXC7 EGY5:EGY7 EQU5:EQU7 FAQ5:FAQ7 FKM5:FKM7 FUI5:FUI7 GEE5:GEE7 GOA5:GOA7 GXW5:GXW7 HHS5:HHS7 HRO5:HRO7 IBK5:IBK7 ILG5:ILG7 IVC5:IVC7 JEY5:JEY7 JOU5:JOU7 JYQ5:JYQ7 KIM5:KIM7 KSI5:KSI7 LCE5:LCE7 LMA5:LMA7 LVW5:LVW7 MFS5:MFS7 MPO5:MPO7 MZK5:MZK7 NJG5:NJG7 NTC5:NTC7 OCY5:OCY7 OMU5:OMU7 OWQ5:OWQ7 PGM5:PGM7 PQI5:PQI7 QAE5:QAE7 QKA5:QKA7 QTW5:QTW7 RDS5:RDS7 RNO5:RNO7 RXK5:RXK7 SHG5:SHG7 SRC5:SRC7 TAY5:TAY7 TKU5:TKU7 TUQ5:TUQ7 UEM5:UEM7 UOI5:UOI7 UYE5:UYE7 VIA5:VIA7 VRW5:VRW7 WBS5:WBS7 WLO5:WLO7 WVK5:WVK7 C65499:C65504 IY65499:IY65504 SU65499:SU65504 ACQ65499:ACQ65504 AMM65499:AMM65504 AWI65499:AWI65504 BGE65499:BGE65504 BQA65499:BQA65504 BZW65499:BZW65504 CJS65499:CJS65504 CTO65499:CTO65504 DDK65499:DDK65504 DNG65499:DNG65504 DXC65499:DXC65504 EGY65499:EGY65504 EQU65499:EQU65504 FAQ65499:FAQ65504 FKM65499:FKM65504 FUI65499:FUI65504 GEE65499:GEE65504 GOA65499:GOA65504 GXW65499:GXW65504 HHS65499:HHS65504 HRO65499:HRO65504 IBK65499:IBK65504 ILG65499:ILG65504 IVC65499:IVC65504 JEY65499:JEY65504 JOU65499:JOU65504 JYQ65499:JYQ65504 KIM65499:KIM65504 KSI65499:KSI65504 LCE65499:LCE65504 LMA65499:LMA65504 LVW65499:LVW65504 MFS65499:MFS65504 MPO65499:MPO65504 MZK65499:MZK65504 NJG65499:NJG65504 NTC65499:NTC65504 OCY65499:OCY65504 OMU65499:OMU65504 OWQ65499:OWQ65504 PGM65499:PGM65504 PQI65499:PQI65504 QAE65499:QAE65504 QKA65499:QKA65504 QTW65499:QTW65504 RDS65499:RDS65504 RNO65499:RNO65504 RXK65499:RXK65504 SHG65499:SHG65504 SRC65499:SRC65504 TAY65499:TAY65504 TKU65499:TKU65504 TUQ65499:TUQ65504 UEM65499:UEM65504 UOI65499:UOI65504 UYE65499:UYE65504 VIA65499:VIA65504 VRW65499:VRW65504 WBS65499:WBS65504 WLO65499:WLO65504 WVK65499:WVK65504 C131035:C131040 IY131035:IY131040 SU131035:SU131040 ACQ131035:ACQ131040 AMM131035:AMM131040 AWI131035:AWI131040 BGE131035:BGE131040 BQA131035:BQA131040 BZW131035:BZW131040 CJS131035:CJS131040 CTO131035:CTO131040 DDK131035:DDK131040 DNG131035:DNG131040 DXC131035:DXC131040 EGY131035:EGY131040 EQU131035:EQU131040 FAQ131035:FAQ131040 FKM131035:FKM131040 FUI131035:FUI131040 GEE131035:GEE131040 GOA131035:GOA131040 GXW131035:GXW131040 HHS131035:HHS131040 HRO131035:HRO131040 IBK131035:IBK131040 ILG131035:ILG131040 IVC131035:IVC131040 JEY131035:JEY131040 JOU131035:JOU131040 JYQ131035:JYQ131040 KIM131035:KIM131040 KSI131035:KSI131040 LCE131035:LCE131040 LMA131035:LMA131040 LVW131035:LVW131040 MFS131035:MFS131040 MPO131035:MPO131040 MZK131035:MZK131040 NJG131035:NJG131040 NTC131035:NTC131040 OCY131035:OCY131040 OMU131035:OMU131040 OWQ131035:OWQ131040 PGM131035:PGM131040 PQI131035:PQI131040 QAE131035:QAE131040 QKA131035:QKA131040 QTW131035:QTW131040 RDS131035:RDS131040 RNO131035:RNO131040 RXK131035:RXK131040 SHG131035:SHG131040 SRC131035:SRC131040 TAY131035:TAY131040 TKU131035:TKU131040 TUQ131035:TUQ131040 UEM131035:UEM131040 UOI131035:UOI131040 UYE131035:UYE131040 VIA131035:VIA131040 VRW131035:VRW131040 WBS131035:WBS131040 WLO131035:WLO131040 WVK131035:WVK131040 C196571:C196576 IY196571:IY196576 SU196571:SU196576 ACQ196571:ACQ196576 AMM196571:AMM196576 AWI196571:AWI196576 BGE196571:BGE196576 BQA196571:BQA196576 BZW196571:BZW196576 CJS196571:CJS196576 CTO196571:CTO196576 DDK196571:DDK196576 DNG196571:DNG196576 DXC196571:DXC196576 EGY196571:EGY196576 EQU196571:EQU196576 FAQ196571:FAQ196576 FKM196571:FKM196576 FUI196571:FUI196576 GEE196571:GEE196576 GOA196571:GOA196576 GXW196571:GXW196576 HHS196571:HHS196576 HRO196571:HRO196576 IBK196571:IBK196576 ILG196571:ILG196576 IVC196571:IVC196576 JEY196571:JEY196576 JOU196571:JOU196576 JYQ196571:JYQ196576 KIM196571:KIM196576 KSI196571:KSI196576 LCE196571:LCE196576 LMA196571:LMA196576 LVW196571:LVW196576 MFS196571:MFS196576 MPO196571:MPO196576 MZK196571:MZK196576 NJG196571:NJG196576 NTC196571:NTC196576 OCY196571:OCY196576 OMU196571:OMU196576 OWQ196571:OWQ196576 PGM196571:PGM196576 PQI196571:PQI196576 QAE196571:QAE196576 QKA196571:QKA196576 QTW196571:QTW196576 RDS196571:RDS196576 RNO196571:RNO196576 RXK196571:RXK196576 SHG196571:SHG196576 SRC196571:SRC196576 TAY196571:TAY196576 TKU196571:TKU196576 TUQ196571:TUQ196576 UEM196571:UEM196576 UOI196571:UOI196576 UYE196571:UYE196576 VIA196571:VIA196576 VRW196571:VRW196576 WBS196571:WBS196576 WLO196571:WLO196576 WVK196571:WVK196576 C262107:C262112 IY262107:IY262112 SU262107:SU262112 ACQ262107:ACQ262112 AMM262107:AMM262112 AWI262107:AWI262112 BGE262107:BGE262112 BQA262107:BQA262112 BZW262107:BZW262112 CJS262107:CJS262112 CTO262107:CTO262112 DDK262107:DDK262112 DNG262107:DNG262112 DXC262107:DXC262112 EGY262107:EGY262112 EQU262107:EQU262112 FAQ262107:FAQ262112 FKM262107:FKM262112 FUI262107:FUI262112 GEE262107:GEE262112 GOA262107:GOA262112 GXW262107:GXW262112 HHS262107:HHS262112 HRO262107:HRO262112 IBK262107:IBK262112 ILG262107:ILG262112 IVC262107:IVC262112 JEY262107:JEY262112 JOU262107:JOU262112 JYQ262107:JYQ262112 KIM262107:KIM262112 KSI262107:KSI262112 LCE262107:LCE262112 LMA262107:LMA262112 LVW262107:LVW262112 MFS262107:MFS262112 MPO262107:MPO262112 MZK262107:MZK262112 NJG262107:NJG262112 NTC262107:NTC262112 OCY262107:OCY262112 OMU262107:OMU262112 OWQ262107:OWQ262112 PGM262107:PGM262112 PQI262107:PQI262112 QAE262107:QAE262112 QKA262107:QKA262112 QTW262107:QTW262112 RDS262107:RDS262112 RNO262107:RNO262112 RXK262107:RXK262112 SHG262107:SHG262112 SRC262107:SRC262112 TAY262107:TAY262112 TKU262107:TKU262112 TUQ262107:TUQ262112 UEM262107:UEM262112 UOI262107:UOI262112 UYE262107:UYE262112 VIA262107:VIA262112 VRW262107:VRW262112 WBS262107:WBS262112 WLO262107:WLO262112 WVK262107:WVK262112 C327643:C327648 IY327643:IY327648 SU327643:SU327648 ACQ327643:ACQ327648 AMM327643:AMM327648 AWI327643:AWI327648 BGE327643:BGE327648 BQA327643:BQA327648 BZW327643:BZW327648 CJS327643:CJS327648 CTO327643:CTO327648 DDK327643:DDK327648 DNG327643:DNG327648 DXC327643:DXC327648 EGY327643:EGY327648 EQU327643:EQU327648 FAQ327643:FAQ327648 FKM327643:FKM327648 FUI327643:FUI327648 GEE327643:GEE327648 GOA327643:GOA327648 GXW327643:GXW327648 HHS327643:HHS327648 HRO327643:HRO327648 IBK327643:IBK327648 ILG327643:ILG327648 IVC327643:IVC327648 JEY327643:JEY327648 JOU327643:JOU327648 JYQ327643:JYQ327648 KIM327643:KIM327648 KSI327643:KSI327648 LCE327643:LCE327648 LMA327643:LMA327648 LVW327643:LVW327648 MFS327643:MFS327648 MPO327643:MPO327648 MZK327643:MZK327648 NJG327643:NJG327648 NTC327643:NTC327648 OCY327643:OCY327648 OMU327643:OMU327648 OWQ327643:OWQ327648 PGM327643:PGM327648 PQI327643:PQI327648 QAE327643:QAE327648 QKA327643:QKA327648 QTW327643:QTW327648 RDS327643:RDS327648 RNO327643:RNO327648 RXK327643:RXK327648 SHG327643:SHG327648 SRC327643:SRC327648 TAY327643:TAY327648 TKU327643:TKU327648 TUQ327643:TUQ327648 UEM327643:UEM327648 UOI327643:UOI327648 UYE327643:UYE327648 VIA327643:VIA327648 VRW327643:VRW327648 WBS327643:WBS327648 WLO327643:WLO327648 WVK327643:WVK327648 C393179:C393184 IY393179:IY393184 SU393179:SU393184 ACQ393179:ACQ393184 AMM393179:AMM393184 AWI393179:AWI393184 BGE393179:BGE393184 BQA393179:BQA393184 BZW393179:BZW393184 CJS393179:CJS393184 CTO393179:CTO393184 DDK393179:DDK393184 DNG393179:DNG393184 DXC393179:DXC393184 EGY393179:EGY393184 EQU393179:EQU393184 FAQ393179:FAQ393184 FKM393179:FKM393184 FUI393179:FUI393184 GEE393179:GEE393184 GOA393179:GOA393184 GXW393179:GXW393184 HHS393179:HHS393184 HRO393179:HRO393184 IBK393179:IBK393184 ILG393179:ILG393184 IVC393179:IVC393184 JEY393179:JEY393184 JOU393179:JOU393184 JYQ393179:JYQ393184 KIM393179:KIM393184 KSI393179:KSI393184 LCE393179:LCE393184 LMA393179:LMA393184 LVW393179:LVW393184 MFS393179:MFS393184 MPO393179:MPO393184 MZK393179:MZK393184 NJG393179:NJG393184 NTC393179:NTC393184 OCY393179:OCY393184 OMU393179:OMU393184 OWQ393179:OWQ393184 PGM393179:PGM393184 PQI393179:PQI393184 QAE393179:QAE393184 QKA393179:QKA393184 QTW393179:QTW393184 RDS393179:RDS393184 RNO393179:RNO393184 RXK393179:RXK393184 SHG393179:SHG393184 SRC393179:SRC393184 TAY393179:TAY393184 TKU393179:TKU393184 TUQ393179:TUQ393184 UEM393179:UEM393184 UOI393179:UOI393184 UYE393179:UYE393184 VIA393179:VIA393184 VRW393179:VRW393184 WBS393179:WBS393184 WLO393179:WLO393184 WVK393179:WVK393184 C458715:C458720 IY458715:IY458720 SU458715:SU458720 ACQ458715:ACQ458720 AMM458715:AMM458720 AWI458715:AWI458720 BGE458715:BGE458720 BQA458715:BQA458720 BZW458715:BZW458720 CJS458715:CJS458720 CTO458715:CTO458720 DDK458715:DDK458720 DNG458715:DNG458720 DXC458715:DXC458720 EGY458715:EGY458720 EQU458715:EQU458720 FAQ458715:FAQ458720 FKM458715:FKM458720 FUI458715:FUI458720 GEE458715:GEE458720 GOA458715:GOA458720 GXW458715:GXW458720 HHS458715:HHS458720 HRO458715:HRO458720 IBK458715:IBK458720 ILG458715:ILG458720 IVC458715:IVC458720 JEY458715:JEY458720 JOU458715:JOU458720 JYQ458715:JYQ458720 KIM458715:KIM458720 KSI458715:KSI458720 LCE458715:LCE458720 LMA458715:LMA458720 LVW458715:LVW458720 MFS458715:MFS458720 MPO458715:MPO458720 MZK458715:MZK458720 NJG458715:NJG458720 NTC458715:NTC458720 OCY458715:OCY458720 OMU458715:OMU458720 OWQ458715:OWQ458720 PGM458715:PGM458720 PQI458715:PQI458720 QAE458715:QAE458720 QKA458715:QKA458720 QTW458715:QTW458720 RDS458715:RDS458720 RNO458715:RNO458720 RXK458715:RXK458720 SHG458715:SHG458720 SRC458715:SRC458720 TAY458715:TAY458720 TKU458715:TKU458720 TUQ458715:TUQ458720 UEM458715:UEM458720 UOI458715:UOI458720 UYE458715:UYE458720 VIA458715:VIA458720 VRW458715:VRW458720 WBS458715:WBS458720 WLO458715:WLO458720 WVK458715:WVK458720 C524251:C524256 IY524251:IY524256 SU524251:SU524256 ACQ524251:ACQ524256 AMM524251:AMM524256 AWI524251:AWI524256 BGE524251:BGE524256 BQA524251:BQA524256 BZW524251:BZW524256 CJS524251:CJS524256 CTO524251:CTO524256 DDK524251:DDK524256 DNG524251:DNG524256 DXC524251:DXC524256 EGY524251:EGY524256 EQU524251:EQU524256 FAQ524251:FAQ524256 FKM524251:FKM524256 FUI524251:FUI524256 GEE524251:GEE524256 GOA524251:GOA524256 GXW524251:GXW524256 HHS524251:HHS524256 HRO524251:HRO524256 IBK524251:IBK524256 ILG524251:ILG524256 IVC524251:IVC524256 JEY524251:JEY524256 JOU524251:JOU524256 JYQ524251:JYQ524256 KIM524251:KIM524256 KSI524251:KSI524256 LCE524251:LCE524256 LMA524251:LMA524256 LVW524251:LVW524256 MFS524251:MFS524256 MPO524251:MPO524256 MZK524251:MZK524256 NJG524251:NJG524256 NTC524251:NTC524256 OCY524251:OCY524256 OMU524251:OMU524256 OWQ524251:OWQ524256 PGM524251:PGM524256 PQI524251:PQI524256 QAE524251:QAE524256 QKA524251:QKA524256 QTW524251:QTW524256 RDS524251:RDS524256 RNO524251:RNO524256 RXK524251:RXK524256 SHG524251:SHG524256 SRC524251:SRC524256 TAY524251:TAY524256 TKU524251:TKU524256 TUQ524251:TUQ524256 UEM524251:UEM524256 UOI524251:UOI524256 UYE524251:UYE524256 VIA524251:VIA524256 VRW524251:VRW524256 WBS524251:WBS524256 WLO524251:WLO524256 WVK524251:WVK524256 C589787:C589792 IY589787:IY589792 SU589787:SU589792 ACQ589787:ACQ589792 AMM589787:AMM589792 AWI589787:AWI589792 BGE589787:BGE589792 BQA589787:BQA589792 BZW589787:BZW589792 CJS589787:CJS589792 CTO589787:CTO589792 DDK589787:DDK589792 DNG589787:DNG589792 DXC589787:DXC589792 EGY589787:EGY589792 EQU589787:EQU589792 FAQ589787:FAQ589792 FKM589787:FKM589792 FUI589787:FUI589792 GEE589787:GEE589792 GOA589787:GOA589792 GXW589787:GXW589792 HHS589787:HHS589792 HRO589787:HRO589792 IBK589787:IBK589792 ILG589787:ILG589792 IVC589787:IVC589792 JEY589787:JEY589792 JOU589787:JOU589792 JYQ589787:JYQ589792 KIM589787:KIM589792 KSI589787:KSI589792 LCE589787:LCE589792 LMA589787:LMA589792 LVW589787:LVW589792 MFS589787:MFS589792 MPO589787:MPO589792 MZK589787:MZK589792 NJG589787:NJG589792 NTC589787:NTC589792 OCY589787:OCY589792 OMU589787:OMU589792 OWQ589787:OWQ589792 PGM589787:PGM589792 PQI589787:PQI589792 QAE589787:QAE589792 QKA589787:QKA589792 QTW589787:QTW589792 RDS589787:RDS589792 RNO589787:RNO589792 RXK589787:RXK589792 SHG589787:SHG589792 SRC589787:SRC589792 TAY589787:TAY589792 TKU589787:TKU589792 TUQ589787:TUQ589792 UEM589787:UEM589792 UOI589787:UOI589792 UYE589787:UYE589792 VIA589787:VIA589792 VRW589787:VRW589792 WBS589787:WBS589792 WLO589787:WLO589792 WVK589787:WVK589792 C655323:C655328 IY655323:IY655328 SU655323:SU655328 ACQ655323:ACQ655328 AMM655323:AMM655328 AWI655323:AWI655328 BGE655323:BGE655328 BQA655323:BQA655328 BZW655323:BZW655328 CJS655323:CJS655328 CTO655323:CTO655328 DDK655323:DDK655328 DNG655323:DNG655328 DXC655323:DXC655328 EGY655323:EGY655328 EQU655323:EQU655328 FAQ655323:FAQ655328 FKM655323:FKM655328 FUI655323:FUI655328 GEE655323:GEE655328 GOA655323:GOA655328 GXW655323:GXW655328 HHS655323:HHS655328 HRO655323:HRO655328 IBK655323:IBK655328 ILG655323:ILG655328 IVC655323:IVC655328 JEY655323:JEY655328 JOU655323:JOU655328 JYQ655323:JYQ655328 KIM655323:KIM655328 KSI655323:KSI655328 LCE655323:LCE655328 LMA655323:LMA655328 LVW655323:LVW655328 MFS655323:MFS655328 MPO655323:MPO655328 MZK655323:MZK655328 NJG655323:NJG655328 NTC655323:NTC655328 OCY655323:OCY655328 OMU655323:OMU655328 OWQ655323:OWQ655328 PGM655323:PGM655328 PQI655323:PQI655328 QAE655323:QAE655328 QKA655323:QKA655328 QTW655323:QTW655328 RDS655323:RDS655328 RNO655323:RNO655328 RXK655323:RXK655328 SHG655323:SHG655328 SRC655323:SRC655328 TAY655323:TAY655328 TKU655323:TKU655328 TUQ655323:TUQ655328 UEM655323:UEM655328 UOI655323:UOI655328 UYE655323:UYE655328 VIA655323:VIA655328 VRW655323:VRW655328 WBS655323:WBS655328 WLO655323:WLO655328 WVK655323:WVK655328 C720859:C720864 IY720859:IY720864 SU720859:SU720864 ACQ720859:ACQ720864 AMM720859:AMM720864 AWI720859:AWI720864 BGE720859:BGE720864 BQA720859:BQA720864 BZW720859:BZW720864 CJS720859:CJS720864 CTO720859:CTO720864 DDK720859:DDK720864 DNG720859:DNG720864 DXC720859:DXC720864 EGY720859:EGY720864 EQU720859:EQU720864 FAQ720859:FAQ720864 FKM720859:FKM720864 FUI720859:FUI720864 GEE720859:GEE720864 GOA720859:GOA720864 GXW720859:GXW720864 HHS720859:HHS720864 HRO720859:HRO720864 IBK720859:IBK720864 ILG720859:ILG720864 IVC720859:IVC720864 JEY720859:JEY720864 JOU720859:JOU720864 JYQ720859:JYQ720864 KIM720859:KIM720864 KSI720859:KSI720864 LCE720859:LCE720864 LMA720859:LMA720864 LVW720859:LVW720864 MFS720859:MFS720864 MPO720859:MPO720864 MZK720859:MZK720864 NJG720859:NJG720864 NTC720859:NTC720864 OCY720859:OCY720864 OMU720859:OMU720864 OWQ720859:OWQ720864 PGM720859:PGM720864 PQI720859:PQI720864 QAE720859:QAE720864 QKA720859:QKA720864 QTW720859:QTW720864 RDS720859:RDS720864 RNO720859:RNO720864 RXK720859:RXK720864 SHG720859:SHG720864 SRC720859:SRC720864 TAY720859:TAY720864 TKU720859:TKU720864 TUQ720859:TUQ720864 UEM720859:UEM720864 UOI720859:UOI720864 UYE720859:UYE720864 VIA720859:VIA720864 VRW720859:VRW720864 WBS720859:WBS720864 WLO720859:WLO720864 WVK720859:WVK720864 C786395:C786400 IY786395:IY786400 SU786395:SU786400 ACQ786395:ACQ786400 AMM786395:AMM786400 AWI786395:AWI786400 BGE786395:BGE786400 BQA786395:BQA786400 BZW786395:BZW786400 CJS786395:CJS786400 CTO786395:CTO786400 DDK786395:DDK786400 DNG786395:DNG786400 DXC786395:DXC786400 EGY786395:EGY786400 EQU786395:EQU786400 FAQ786395:FAQ786400 FKM786395:FKM786400 FUI786395:FUI786400 GEE786395:GEE786400 GOA786395:GOA786400 GXW786395:GXW786400 HHS786395:HHS786400 HRO786395:HRO786400 IBK786395:IBK786400 ILG786395:ILG786400 IVC786395:IVC786400 JEY786395:JEY786400 JOU786395:JOU786400 JYQ786395:JYQ786400 KIM786395:KIM786400 KSI786395:KSI786400 LCE786395:LCE786400 LMA786395:LMA786400 LVW786395:LVW786400 MFS786395:MFS786400 MPO786395:MPO786400 MZK786395:MZK786400 NJG786395:NJG786400 NTC786395:NTC786400 OCY786395:OCY786400 OMU786395:OMU786400 OWQ786395:OWQ786400 PGM786395:PGM786400 PQI786395:PQI786400 QAE786395:QAE786400 QKA786395:QKA786400 QTW786395:QTW786400 RDS786395:RDS786400 RNO786395:RNO786400 RXK786395:RXK786400 SHG786395:SHG786400 SRC786395:SRC786400 TAY786395:TAY786400 TKU786395:TKU786400 TUQ786395:TUQ786400 UEM786395:UEM786400 UOI786395:UOI786400 UYE786395:UYE786400 VIA786395:VIA786400 VRW786395:VRW786400 WBS786395:WBS786400 WLO786395:WLO786400 WVK786395:WVK786400 C851931:C851936 IY851931:IY851936 SU851931:SU851936 ACQ851931:ACQ851936 AMM851931:AMM851936 AWI851931:AWI851936 BGE851931:BGE851936 BQA851931:BQA851936 BZW851931:BZW851936 CJS851931:CJS851936 CTO851931:CTO851936 DDK851931:DDK851936 DNG851931:DNG851936 DXC851931:DXC851936 EGY851931:EGY851936 EQU851931:EQU851936 FAQ851931:FAQ851936 FKM851931:FKM851936 FUI851931:FUI851936 GEE851931:GEE851936 GOA851931:GOA851936 GXW851931:GXW851936 HHS851931:HHS851936 HRO851931:HRO851936 IBK851931:IBK851936 ILG851931:ILG851936 IVC851931:IVC851936 JEY851931:JEY851936 JOU851931:JOU851936 JYQ851931:JYQ851936 KIM851931:KIM851936 KSI851931:KSI851936 LCE851931:LCE851936 LMA851931:LMA851936 LVW851931:LVW851936 MFS851931:MFS851936 MPO851931:MPO851936 MZK851931:MZK851936 NJG851931:NJG851936 NTC851931:NTC851936 OCY851931:OCY851936 OMU851931:OMU851936 OWQ851931:OWQ851936 PGM851931:PGM851936 PQI851931:PQI851936 QAE851931:QAE851936 QKA851931:QKA851936 QTW851931:QTW851936 RDS851931:RDS851936 RNO851931:RNO851936 RXK851931:RXK851936 SHG851931:SHG851936 SRC851931:SRC851936 TAY851931:TAY851936 TKU851931:TKU851936 TUQ851931:TUQ851936 UEM851931:UEM851936 UOI851931:UOI851936 UYE851931:UYE851936 VIA851931:VIA851936 VRW851931:VRW851936 WBS851931:WBS851936 WLO851931:WLO851936 WVK851931:WVK851936 C917467:C917472 IY917467:IY917472 SU917467:SU917472 ACQ917467:ACQ917472 AMM917467:AMM917472 AWI917467:AWI917472 BGE917467:BGE917472 BQA917467:BQA917472 BZW917467:BZW917472 CJS917467:CJS917472 CTO917467:CTO917472 DDK917467:DDK917472 DNG917467:DNG917472 DXC917467:DXC917472 EGY917467:EGY917472 EQU917467:EQU917472 FAQ917467:FAQ917472 FKM917467:FKM917472 FUI917467:FUI917472 GEE917467:GEE917472 GOA917467:GOA917472 GXW917467:GXW917472 HHS917467:HHS917472 HRO917467:HRO917472 IBK917467:IBK917472 ILG917467:ILG917472 IVC917467:IVC917472 JEY917467:JEY917472 JOU917467:JOU917472 JYQ917467:JYQ917472 KIM917467:KIM917472 KSI917467:KSI917472 LCE917467:LCE917472 LMA917467:LMA917472 LVW917467:LVW917472 MFS917467:MFS917472 MPO917467:MPO917472 MZK917467:MZK917472 NJG917467:NJG917472 NTC917467:NTC917472 OCY917467:OCY917472 OMU917467:OMU917472 OWQ917467:OWQ917472 PGM917467:PGM917472 PQI917467:PQI917472 QAE917467:QAE917472 QKA917467:QKA917472 QTW917467:QTW917472 RDS917467:RDS917472 RNO917467:RNO917472 RXK917467:RXK917472 SHG917467:SHG917472 SRC917467:SRC917472 TAY917467:TAY917472 TKU917467:TKU917472 TUQ917467:TUQ917472 UEM917467:UEM917472 UOI917467:UOI917472 UYE917467:UYE917472 VIA917467:VIA917472 VRW917467:VRW917472 WBS917467:WBS917472 WLO917467:WLO917472 WVK917467:WVK917472 C983003:C983008 IY983003:IY983008 SU983003:SU983008 ACQ983003:ACQ983008 AMM983003:AMM983008 AWI983003:AWI983008 BGE983003:BGE983008 BQA983003:BQA983008 BZW983003:BZW983008 CJS983003:CJS983008 CTO983003:CTO983008 DDK983003:DDK983008 DNG983003:DNG983008 DXC983003:DXC983008 EGY983003:EGY983008 EQU983003:EQU983008 FAQ983003:FAQ983008 FKM983003:FKM983008 FUI983003:FUI983008 GEE983003:GEE983008 GOA983003:GOA983008 GXW983003:GXW983008 HHS983003:HHS983008 HRO983003:HRO983008 IBK983003:IBK983008 ILG983003:ILG983008 IVC983003:IVC983008 JEY983003:JEY983008 JOU983003:JOU983008 JYQ983003:JYQ983008 KIM983003:KIM983008 KSI983003:KSI983008 LCE983003:LCE983008 LMA983003:LMA983008 LVW983003:LVW983008 MFS983003:MFS983008 MPO983003:MPO983008 MZK983003:MZK983008 NJG983003:NJG983008 NTC983003:NTC983008 OCY983003:OCY983008 OMU983003:OMU983008 OWQ983003:OWQ983008 PGM983003:PGM983008 PQI983003:PQI983008 QAE983003:QAE983008 QKA983003:QKA983008 QTW983003:QTW983008 RDS983003:RDS983008 RNO983003:RNO983008 RXK983003:RXK983008 SHG983003:SHG983008 SRC983003:SRC983008 TAY983003:TAY983008 TKU983003:TKU983008 TUQ983003:TUQ983008 UEM983003:UEM983008 UOI983003:UOI983008 UYE983003:UYE983008 VIA983003:VIA983008 VRW983003:VRW983008 WBS983003:WBS983008 WLO983003:WLO983008 WVK983003:WVK983008 C65514:C65516 IY65514:IY65516 SU65514:SU65516 ACQ65514:ACQ65516 AMM65514:AMM65516 AWI65514:AWI65516 BGE65514:BGE65516 BQA65514:BQA65516 BZW65514:BZW65516 CJS65514:CJS65516 CTO65514:CTO65516 DDK65514:DDK65516 DNG65514:DNG65516 DXC65514:DXC65516 EGY65514:EGY65516 EQU65514:EQU65516 FAQ65514:FAQ65516 FKM65514:FKM65516 FUI65514:FUI65516 GEE65514:GEE65516 GOA65514:GOA65516 GXW65514:GXW65516 HHS65514:HHS65516 HRO65514:HRO65516 IBK65514:IBK65516 ILG65514:ILG65516 IVC65514:IVC65516 JEY65514:JEY65516 JOU65514:JOU65516 JYQ65514:JYQ65516 KIM65514:KIM65516 KSI65514:KSI65516 LCE65514:LCE65516 LMA65514:LMA65516 LVW65514:LVW65516 MFS65514:MFS65516 MPO65514:MPO65516 MZK65514:MZK65516 NJG65514:NJG65516 NTC65514:NTC65516 OCY65514:OCY65516 OMU65514:OMU65516 OWQ65514:OWQ65516 PGM65514:PGM65516 PQI65514:PQI65516 QAE65514:QAE65516 QKA65514:QKA65516 QTW65514:QTW65516 RDS65514:RDS65516 RNO65514:RNO65516 RXK65514:RXK65516 SHG65514:SHG65516 SRC65514:SRC65516 TAY65514:TAY65516 TKU65514:TKU65516 TUQ65514:TUQ65516 UEM65514:UEM65516 UOI65514:UOI65516 UYE65514:UYE65516 VIA65514:VIA65516 VRW65514:VRW65516 WBS65514:WBS65516 WLO65514:WLO65516 WVK65514:WVK65516 C131050:C131052 IY131050:IY131052 SU131050:SU131052 ACQ131050:ACQ131052 AMM131050:AMM131052 AWI131050:AWI131052 BGE131050:BGE131052 BQA131050:BQA131052 BZW131050:BZW131052 CJS131050:CJS131052 CTO131050:CTO131052 DDK131050:DDK131052 DNG131050:DNG131052 DXC131050:DXC131052 EGY131050:EGY131052 EQU131050:EQU131052 FAQ131050:FAQ131052 FKM131050:FKM131052 FUI131050:FUI131052 GEE131050:GEE131052 GOA131050:GOA131052 GXW131050:GXW131052 HHS131050:HHS131052 HRO131050:HRO131052 IBK131050:IBK131052 ILG131050:ILG131052 IVC131050:IVC131052 JEY131050:JEY131052 JOU131050:JOU131052 JYQ131050:JYQ131052 KIM131050:KIM131052 KSI131050:KSI131052 LCE131050:LCE131052 LMA131050:LMA131052 LVW131050:LVW131052 MFS131050:MFS131052 MPO131050:MPO131052 MZK131050:MZK131052 NJG131050:NJG131052 NTC131050:NTC131052 OCY131050:OCY131052 OMU131050:OMU131052 OWQ131050:OWQ131052 PGM131050:PGM131052 PQI131050:PQI131052 QAE131050:QAE131052 QKA131050:QKA131052 QTW131050:QTW131052 RDS131050:RDS131052 RNO131050:RNO131052 RXK131050:RXK131052 SHG131050:SHG131052 SRC131050:SRC131052 TAY131050:TAY131052 TKU131050:TKU131052 TUQ131050:TUQ131052 UEM131050:UEM131052 UOI131050:UOI131052 UYE131050:UYE131052 VIA131050:VIA131052 VRW131050:VRW131052 WBS131050:WBS131052 WLO131050:WLO131052 WVK131050:WVK131052 C196586:C196588 IY196586:IY196588 SU196586:SU196588 ACQ196586:ACQ196588 AMM196586:AMM196588 AWI196586:AWI196588 BGE196586:BGE196588 BQA196586:BQA196588 BZW196586:BZW196588 CJS196586:CJS196588 CTO196586:CTO196588 DDK196586:DDK196588 DNG196586:DNG196588 DXC196586:DXC196588 EGY196586:EGY196588 EQU196586:EQU196588 FAQ196586:FAQ196588 FKM196586:FKM196588 FUI196586:FUI196588 GEE196586:GEE196588 GOA196586:GOA196588 GXW196586:GXW196588 HHS196586:HHS196588 HRO196586:HRO196588 IBK196586:IBK196588 ILG196586:ILG196588 IVC196586:IVC196588 JEY196586:JEY196588 JOU196586:JOU196588 JYQ196586:JYQ196588 KIM196586:KIM196588 KSI196586:KSI196588 LCE196586:LCE196588 LMA196586:LMA196588 LVW196586:LVW196588 MFS196586:MFS196588 MPO196586:MPO196588 MZK196586:MZK196588 NJG196586:NJG196588 NTC196586:NTC196588 OCY196586:OCY196588 OMU196586:OMU196588 OWQ196586:OWQ196588 PGM196586:PGM196588 PQI196586:PQI196588 QAE196586:QAE196588 QKA196586:QKA196588 QTW196586:QTW196588 RDS196586:RDS196588 RNO196586:RNO196588 RXK196586:RXK196588 SHG196586:SHG196588 SRC196586:SRC196588 TAY196586:TAY196588 TKU196586:TKU196588 TUQ196586:TUQ196588 UEM196586:UEM196588 UOI196586:UOI196588 UYE196586:UYE196588 VIA196586:VIA196588 VRW196586:VRW196588 WBS196586:WBS196588 WLO196586:WLO196588 WVK196586:WVK196588 C262122:C262124 IY262122:IY262124 SU262122:SU262124 ACQ262122:ACQ262124 AMM262122:AMM262124 AWI262122:AWI262124 BGE262122:BGE262124 BQA262122:BQA262124 BZW262122:BZW262124 CJS262122:CJS262124 CTO262122:CTO262124 DDK262122:DDK262124 DNG262122:DNG262124 DXC262122:DXC262124 EGY262122:EGY262124 EQU262122:EQU262124 FAQ262122:FAQ262124 FKM262122:FKM262124 FUI262122:FUI262124 GEE262122:GEE262124 GOA262122:GOA262124 GXW262122:GXW262124 HHS262122:HHS262124 HRO262122:HRO262124 IBK262122:IBK262124 ILG262122:ILG262124 IVC262122:IVC262124 JEY262122:JEY262124 JOU262122:JOU262124 JYQ262122:JYQ262124 KIM262122:KIM262124 KSI262122:KSI262124 LCE262122:LCE262124 LMA262122:LMA262124 LVW262122:LVW262124 MFS262122:MFS262124 MPO262122:MPO262124 MZK262122:MZK262124 NJG262122:NJG262124 NTC262122:NTC262124 OCY262122:OCY262124 OMU262122:OMU262124 OWQ262122:OWQ262124 PGM262122:PGM262124 PQI262122:PQI262124 QAE262122:QAE262124 QKA262122:QKA262124 QTW262122:QTW262124 RDS262122:RDS262124 RNO262122:RNO262124 RXK262122:RXK262124 SHG262122:SHG262124 SRC262122:SRC262124 TAY262122:TAY262124 TKU262122:TKU262124 TUQ262122:TUQ262124 UEM262122:UEM262124 UOI262122:UOI262124 UYE262122:UYE262124 VIA262122:VIA262124 VRW262122:VRW262124 WBS262122:WBS262124 WLO262122:WLO262124 WVK262122:WVK262124 C327658:C327660 IY327658:IY327660 SU327658:SU327660 ACQ327658:ACQ327660 AMM327658:AMM327660 AWI327658:AWI327660 BGE327658:BGE327660 BQA327658:BQA327660 BZW327658:BZW327660 CJS327658:CJS327660 CTO327658:CTO327660 DDK327658:DDK327660 DNG327658:DNG327660 DXC327658:DXC327660 EGY327658:EGY327660 EQU327658:EQU327660 FAQ327658:FAQ327660 FKM327658:FKM327660 FUI327658:FUI327660 GEE327658:GEE327660 GOA327658:GOA327660 GXW327658:GXW327660 HHS327658:HHS327660 HRO327658:HRO327660 IBK327658:IBK327660 ILG327658:ILG327660 IVC327658:IVC327660 JEY327658:JEY327660 JOU327658:JOU327660 JYQ327658:JYQ327660 KIM327658:KIM327660 KSI327658:KSI327660 LCE327658:LCE327660 LMA327658:LMA327660 LVW327658:LVW327660 MFS327658:MFS327660 MPO327658:MPO327660 MZK327658:MZK327660 NJG327658:NJG327660 NTC327658:NTC327660 OCY327658:OCY327660 OMU327658:OMU327660 OWQ327658:OWQ327660 PGM327658:PGM327660 PQI327658:PQI327660 QAE327658:QAE327660 QKA327658:QKA327660 QTW327658:QTW327660 RDS327658:RDS327660 RNO327658:RNO327660 RXK327658:RXK327660 SHG327658:SHG327660 SRC327658:SRC327660 TAY327658:TAY327660 TKU327658:TKU327660 TUQ327658:TUQ327660 UEM327658:UEM327660 UOI327658:UOI327660 UYE327658:UYE327660 VIA327658:VIA327660 VRW327658:VRW327660 WBS327658:WBS327660 WLO327658:WLO327660 WVK327658:WVK327660 C393194:C393196 IY393194:IY393196 SU393194:SU393196 ACQ393194:ACQ393196 AMM393194:AMM393196 AWI393194:AWI393196 BGE393194:BGE393196 BQA393194:BQA393196 BZW393194:BZW393196 CJS393194:CJS393196 CTO393194:CTO393196 DDK393194:DDK393196 DNG393194:DNG393196 DXC393194:DXC393196 EGY393194:EGY393196 EQU393194:EQU393196 FAQ393194:FAQ393196 FKM393194:FKM393196 FUI393194:FUI393196 GEE393194:GEE393196 GOA393194:GOA393196 GXW393194:GXW393196 HHS393194:HHS393196 HRO393194:HRO393196 IBK393194:IBK393196 ILG393194:ILG393196 IVC393194:IVC393196 JEY393194:JEY393196 JOU393194:JOU393196 JYQ393194:JYQ393196 KIM393194:KIM393196 KSI393194:KSI393196 LCE393194:LCE393196 LMA393194:LMA393196 LVW393194:LVW393196 MFS393194:MFS393196 MPO393194:MPO393196 MZK393194:MZK393196 NJG393194:NJG393196 NTC393194:NTC393196 OCY393194:OCY393196 OMU393194:OMU393196 OWQ393194:OWQ393196 PGM393194:PGM393196 PQI393194:PQI393196 QAE393194:QAE393196 QKA393194:QKA393196 QTW393194:QTW393196 RDS393194:RDS393196 RNO393194:RNO393196 RXK393194:RXK393196 SHG393194:SHG393196 SRC393194:SRC393196 TAY393194:TAY393196 TKU393194:TKU393196 TUQ393194:TUQ393196 UEM393194:UEM393196 UOI393194:UOI393196 UYE393194:UYE393196 VIA393194:VIA393196 VRW393194:VRW393196 WBS393194:WBS393196 WLO393194:WLO393196 WVK393194:WVK393196 C458730:C458732 IY458730:IY458732 SU458730:SU458732 ACQ458730:ACQ458732 AMM458730:AMM458732 AWI458730:AWI458732 BGE458730:BGE458732 BQA458730:BQA458732 BZW458730:BZW458732 CJS458730:CJS458732 CTO458730:CTO458732 DDK458730:DDK458732 DNG458730:DNG458732 DXC458730:DXC458732 EGY458730:EGY458732 EQU458730:EQU458732 FAQ458730:FAQ458732 FKM458730:FKM458732 FUI458730:FUI458732 GEE458730:GEE458732 GOA458730:GOA458732 GXW458730:GXW458732 HHS458730:HHS458732 HRO458730:HRO458732 IBK458730:IBK458732 ILG458730:ILG458732 IVC458730:IVC458732 JEY458730:JEY458732 JOU458730:JOU458732 JYQ458730:JYQ458732 KIM458730:KIM458732 KSI458730:KSI458732 LCE458730:LCE458732 LMA458730:LMA458732 LVW458730:LVW458732 MFS458730:MFS458732 MPO458730:MPO458732 MZK458730:MZK458732 NJG458730:NJG458732 NTC458730:NTC458732 OCY458730:OCY458732 OMU458730:OMU458732 OWQ458730:OWQ458732 PGM458730:PGM458732 PQI458730:PQI458732 QAE458730:QAE458732 QKA458730:QKA458732 QTW458730:QTW458732 RDS458730:RDS458732 RNO458730:RNO458732 RXK458730:RXK458732 SHG458730:SHG458732 SRC458730:SRC458732 TAY458730:TAY458732 TKU458730:TKU458732 TUQ458730:TUQ458732 UEM458730:UEM458732 UOI458730:UOI458732 UYE458730:UYE458732 VIA458730:VIA458732 VRW458730:VRW458732 WBS458730:WBS458732 WLO458730:WLO458732 WVK458730:WVK458732 C524266:C524268 IY524266:IY524268 SU524266:SU524268 ACQ524266:ACQ524268 AMM524266:AMM524268 AWI524266:AWI524268 BGE524266:BGE524268 BQA524266:BQA524268 BZW524266:BZW524268 CJS524266:CJS524268 CTO524266:CTO524268 DDK524266:DDK524268 DNG524266:DNG524268 DXC524266:DXC524268 EGY524266:EGY524268 EQU524266:EQU524268 FAQ524266:FAQ524268 FKM524266:FKM524268 FUI524266:FUI524268 GEE524266:GEE524268 GOA524266:GOA524268 GXW524266:GXW524268 HHS524266:HHS524268 HRO524266:HRO524268 IBK524266:IBK524268 ILG524266:ILG524268 IVC524266:IVC524268 JEY524266:JEY524268 JOU524266:JOU524268 JYQ524266:JYQ524268 KIM524266:KIM524268 KSI524266:KSI524268 LCE524266:LCE524268 LMA524266:LMA524268 LVW524266:LVW524268 MFS524266:MFS524268 MPO524266:MPO524268 MZK524266:MZK524268 NJG524266:NJG524268 NTC524266:NTC524268 OCY524266:OCY524268 OMU524266:OMU524268 OWQ524266:OWQ524268 PGM524266:PGM524268 PQI524266:PQI524268 QAE524266:QAE524268 QKA524266:QKA524268 QTW524266:QTW524268 RDS524266:RDS524268 RNO524266:RNO524268 RXK524266:RXK524268 SHG524266:SHG524268 SRC524266:SRC524268 TAY524266:TAY524268 TKU524266:TKU524268 TUQ524266:TUQ524268 UEM524266:UEM524268 UOI524266:UOI524268 UYE524266:UYE524268 VIA524266:VIA524268 VRW524266:VRW524268 WBS524266:WBS524268 WLO524266:WLO524268 WVK524266:WVK524268 C589802:C589804 IY589802:IY589804 SU589802:SU589804 ACQ589802:ACQ589804 AMM589802:AMM589804 AWI589802:AWI589804 BGE589802:BGE589804 BQA589802:BQA589804 BZW589802:BZW589804 CJS589802:CJS589804 CTO589802:CTO589804 DDK589802:DDK589804 DNG589802:DNG589804 DXC589802:DXC589804 EGY589802:EGY589804 EQU589802:EQU589804 FAQ589802:FAQ589804 FKM589802:FKM589804 FUI589802:FUI589804 GEE589802:GEE589804 GOA589802:GOA589804 GXW589802:GXW589804 HHS589802:HHS589804 HRO589802:HRO589804 IBK589802:IBK589804 ILG589802:ILG589804 IVC589802:IVC589804 JEY589802:JEY589804 JOU589802:JOU589804 JYQ589802:JYQ589804 KIM589802:KIM589804 KSI589802:KSI589804 LCE589802:LCE589804 LMA589802:LMA589804 LVW589802:LVW589804 MFS589802:MFS589804 MPO589802:MPO589804 MZK589802:MZK589804 NJG589802:NJG589804 NTC589802:NTC589804 OCY589802:OCY589804 OMU589802:OMU589804 OWQ589802:OWQ589804 PGM589802:PGM589804 PQI589802:PQI589804 QAE589802:QAE589804 QKA589802:QKA589804 QTW589802:QTW589804 RDS589802:RDS589804 RNO589802:RNO589804 RXK589802:RXK589804 SHG589802:SHG589804 SRC589802:SRC589804 TAY589802:TAY589804 TKU589802:TKU589804 TUQ589802:TUQ589804 UEM589802:UEM589804 UOI589802:UOI589804 UYE589802:UYE589804 VIA589802:VIA589804 VRW589802:VRW589804 WBS589802:WBS589804 WLO589802:WLO589804 WVK589802:WVK589804 C655338:C655340 IY655338:IY655340 SU655338:SU655340 ACQ655338:ACQ655340 AMM655338:AMM655340 AWI655338:AWI655340 BGE655338:BGE655340 BQA655338:BQA655340 BZW655338:BZW655340 CJS655338:CJS655340 CTO655338:CTO655340 DDK655338:DDK655340 DNG655338:DNG655340 DXC655338:DXC655340 EGY655338:EGY655340 EQU655338:EQU655340 FAQ655338:FAQ655340 FKM655338:FKM655340 FUI655338:FUI655340 GEE655338:GEE655340 GOA655338:GOA655340 GXW655338:GXW655340 HHS655338:HHS655340 HRO655338:HRO655340 IBK655338:IBK655340 ILG655338:ILG655340 IVC655338:IVC655340 JEY655338:JEY655340 JOU655338:JOU655340 JYQ655338:JYQ655340 KIM655338:KIM655340 KSI655338:KSI655340 LCE655338:LCE655340 LMA655338:LMA655340 LVW655338:LVW655340 MFS655338:MFS655340 MPO655338:MPO655340 MZK655338:MZK655340 NJG655338:NJG655340 NTC655338:NTC655340 OCY655338:OCY655340 OMU655338:OMU655340 OWQ655338:OWQ655340 PGM655338:PGM655340 PQI655338:PQI655340 QAE655338:QAE655340 QKA655338:QKA655340 QTW655338:QTW655340 RDS655338:RDS655340 RNO655338:RNO655340 RXK655338:RXK655340 SHG655338:SHG655340 SRC655338:SRC655340 TAY655338:TAY655340 TKU655338:TKU655340 TUQ655338:TUQ655340 UEM655338:UEM655340 UOI655338:UOI655340 UYE655338:UYE655340 VIA655338:VIA655340 VRW655338:VRW655340 WBS655338:WBS655340 WLO655338:WLO655340 WVK655338:WVK655340 C720874:C720876 IY720874:IY720876 SU720874:SU720876 ACQ720874:ACQ720876 AMM720874:AMM720876 AWI720874:AWI720876 BGE720874:BGE720876 BQA720874:BQA720876 BZW720874:BZW720876 CJS720874:CJS720876 CTO720874:CTO720876 DDK720874:DDK720876 DNG720874:DNG720876 DXC720874:DXC720876 EGY720874:EGY720876 EQU720874:EQU720876 FAQ720874:FAQ720876 FKM720874:FKM720876 FUI720874:FUI720876 GEE720874:GEE720876 GOA720874:GOA720876 GXW720874:GXW720876 HHS720874:HHS720876 HRO720874:HRO720876 IBK720874:IBK720876 ILG720874:ILG720876 IVC720874:IVC720876 JEY720874:JEY720876 JOU720874:JOU720876 JYQ720874:JYQ720876 KIM720874:KIM720876 KSI720874:KSI720876 LCE720874:LCE720876 LMA720874:LMA720876 LVW720874:LVW720876 MFS720874:MFS720876 MPO720874:MPO720876 MZK720874:MZK720876 NJG720874:NJG720876 NTC720874:NTC720876 OCY720874:OCY720876 OMU720874:OMU720876 OWQ720874:OWQ720876 PGM720874:PGM720876 PQI720874:PQI720876 QAE720874:QAE720876 QKA720874:QKA720876 QTW720874:QTW720876 RDS720874:RDS720876 RNO720874:RNO720876 RXK720874:RXK720876 SHG720874:SHG720876 SRC720874:SRC720876 TAY720874:TAY720876 TKU720874:TKU720876 TUQ720874:TUQ720876 UEM720874:UEM720876 UOI720874:UOI720876 UYE720874:UYE720876 VIA720874:VIA720876 VRW720874:VRW720876 WBS720874:WBS720876 WLO720874:WLO720876 WVK720874:WVK720876 C786410:C786412 IY786410:IY786412 SU786410:SU786412 ACQ786410:ACQ786412 AMM786410:AMM786412 AWI786410:AWI786412 BGE786410:BGE786412 BQA786410:BQA786412 BZW786410:BZW786412 CJS786410:CJS786412 CTO786410:CTO786412 DDK786410:DDK786412 DNG786410:DNG786412 DXC786410:DXC786412 EGY786410:EGY786412 EQU786410:EQU786412 FAQ786410:FAQ786412 FKM786410:FKM786412 FUI786410:FUI786412 GEE786410:GEE786412 GOA786410:GOA786412 GXW786410:GXW786412 HHS786410:HHS786412 HRO786410:HRO786412 IBK786410:IBK786412 ILG786410:ILG786412 IVC786410:IVC786412 JEY786410:JEY786412 JOU786410:JOU786412 JYQ786410:JYQ786412 KIM786410:KIM786412 KSI786410:KSI786412 LCE786410:LCE786412 LMA786410:LMA786412 LVW786410:LVW786412 MFS786410:MFS786412 MPO786410:MPO786412 MZK786410:MZK786412 NJG786410:NJG786412 NTC786410:NTC786412 OCY786410:OCY786412 OMU786410:OMU786412 OWQ786410:OWQ786412 PGM786410:PGM786412 PQI786410:PQI786412 QAE786410:QAE786412 QKA786410:QKA786412 QTW786410:QTW786412 RDS786410:RDS786412 RNO786410:RNO786412 RXK786410:RXK786412 SHG786410:SHG786412 SRC786410:SRC786412 TAY786410:TAY786412 TKU786410:TKU786412 TUQ786410:TUQ786412 UEM786410:UEM786412 UOI786410:UOI786412 UYE786410:UYE786412 VIA786410:VIA786412 VRW786410:VRW786412 WBS786410:WBS786412 WLO786410:WLO786412 WVK786410:WVK786412 C851946:C851948 IY851946:IY851948 SU851946:SU851948 ACQ851946:ACQ851948 AMM851946:AMM851948 AWI851946:AWI851948 BGE851946:BGE851948 BQA851946:BQA851948 BZW851946:BZW851948 CJS851946:CJS851948 CTO851946:CTO851948 DDK851946:DDK851948 DNG851946:DNG851948 DXC851946:DXC851948 EGY851946:EGY851948 EQU851946:EQU851948 FAQ851946:FAQ851948 FKM851946:FKM851948 FUI851946:FUI851948 GEE851946:GEE851948 GOA851946:GOA851948 GXW851946:GXW851948 HHS851946:HHS851948 HRO851946:HRO851948 IBK851946:IBK851948 ILG851946:ILG851948 IVC851946:IVC851948 JEY851946:JEY851948 JOU851946:JOU851948 JYQ851946:JYQ851948 KIM851946:KIM851948 KSI851946:KSI851948 LCE851946:LCE851948 LMA851946:LMA851948 LVW851946:LVW851948 MFS851946:MFS851948 MPO851946:MPO851948 MZK851946:MZK851948 NJG851946:NJG851948 NTC851946:NTC851948 OCY851946:OCY851948 OMU851946:OMU851948 OWQ851946:OWQ851948 PGM851946:PGM851948 PQI851946:PQI851948 QAE851946:QAE851948 QKA851946:QKA851948 QTW851946:QTW851948 RDS851946:RDS851948 RNO851946:RNO851948 RXK851946:RXK851948 SHG851946:SHG851948 SRC851946:SRC851948 TAY851946:TAY851948 TKU851946:TKU851948 TUQ851946:TUQ851948 UEM851946:UEM851948 UOI851946:UOI851948 UYE851946:UYE851948 VIA851946:VIA851948 VRW851946:VRW851948 WBS851946:WBS851948 WLO851946:WLO851948 WVK851946:WVK851948 C917482:C917484 IY917482:IY917484 SU917482:SU917484 ACQ917482:ACQ917484 AMM917482:AMM917484 AWI917482:AWI917484 BGE917482:BGE917484 BQA917482:BQA917484 BZW917482:BZW917484 CJS917482:CJS917484 CTO917482:CTO917484 DDK917482:DDK917484 DNG917482:DNG917484 DXC917482:DXC917484 EGY917482:EGY917484 EQU917482:EQU917484 FAQ917482:FAQ917484 FKM917482:FKM917484 FUI917482:FUI917484 GEE917482:GEE917484 GOA917482:GOA917484 GXW917482:GXW917484 HHS917482:HHS917484 HRO917482:HRO917484 IBK917482:IBK917484 ILG917482:ILG917484 IVC917482:IVC917484 JEY917482:JEY917484 JOU917482:JOU917484 JYQ917482:JYQ917484 KIM917482:KIM917484 KSI917482:KSI917484 LCE917482:LCE917484 LMA917482:LMA917484 LVW917482:LVW917484 MFS917482:MFS917484 MPO917482:MPO917484 MZK917482:MZK917484 NJG917482:NJG917484 NTC917482:NTC917484 OCY917482:OCY917484 OMU917482:OMU917484 OWQ917482:OWQ917484 PGM917482:PGM917484 PQI917482:PQI917484 QAE917482:QAE917484 QKA917482:QKA917484 QTW917482:QTW917484 RDS917482:RDS917484 RNO917482:RNO917484 RXK917482:RXK917484 SHG917482:SHG917484 SRC917482:SRC917484 TAY917482:TAY917484 TKU917482:TKU917484 TUQ917482:TUQ917484 UEM917482:UEM917484 UOI917482:UOI917484 UYE917482:UYE917484 VIA917482:VIA917484 VRW917482:VRW917484 WBS917482:WBS917484 WLO917482:WLO917484 WVK917482:WVK917484 C983018:C983020 IY983018:IY983020 SU983018:SU983020 ACQ983018:ACQ983020 AMM983018:AMM983020 AWI983018:AWI983020 BGE983018:BGE983020 BQA983018:BQA983020 BZW983018:BZW983020 CJS983018:CJS983020 CTO983018:CTO983020 DDK983018:DDK983020 DNG983018:DNG983020 DXC983018:DXC983020 EGY983018:EGY983020 EQU983018:EQU983020 FAQ983018:FAQ983020 FKM983018:FKM983020 FUI983018:FUI983020 GEE983018:GEE983020 GOA983018:GOA983020 GXW983018:GXW983020 HHS983018:HHS983020 HRO983018:HRO983020 IBK983018:IBK983020 ILG983018:ILG983020 IVC983018:IVC983020 JEY983018:JEY983020 JOU983018:JOU983020 JYQ983018:JYQ983020 KIM983018:KIM983020 KSI983018:KSI983020 LCE983018:LCE983020 LMA983018:LMA983020 LVW983018:LVW983020 MFS983018:MFS983020 MPO983018:MPO983020 MZK983018:MZK983020 NJG983018:NJG983020 NTC983018:NTC983020 OCY983018:OCY983020 OMU983018:OMU983020 OWQ983018:OWQ983020 PGM983018:PGM983020 PQI983018:PQI983020 QAE983018:QAE983020 QKA983018:QKA983020 QTW983018:QTW983020 RDS983018:RDS983020 RNO983018:RNO983020 RXK983018:RXK983020 SHG983018:SHG983020 SRC983018:SRC983020 TAY983018:TAY983020 TKU983018:TKU983020 TUQ983018:TUQ983020 UEM983018:UEM983020 UOI983018:UOI983020 UYE983018:UYE983020 VIA983018:VIA983020 VRW983018:VRW983020 WBS983018:WBS983020 WLO983018:WLO983020 WVK983018:WVK983020 C65510:C65511 IY65510:IY65511 SU65510:SU65511 ACQ65510:ACQ65511 AMM65510:AMM65511 AWI65510:AWI65511 BGE65510:BGE65511 BQA65510:BQA65511 BZW65510:BZW65511 CJS65510:CJS65511 CTO65510:CTO65511 DDK65510:DDK65511 DNG65510:DNG65511 DXC65510:DXC65511 EGY65510:EGY65511 EQU65510:EQU65511 FAQ65510:FAQ65511 FKM65510:FKM65511 FUI65510:FUI65511 GEE65510:GEE65511 GOA65510:GOA65511 GXW65510:GXW65511 HHS65510:HHS65511 HRO65510:HRO65511 IBK65510:IBK65511 ILG65510:ILG65511 IVC65510:IVC65511 JEY65510:JEY65511 JOU65510:JOU65511 JYQ65510:JYQ65511 KIM65510:KIM65511 KSI65510:KSI65511 LCE65510:LCE65511 LMA65510:LMA65511 LVW65510:LVW65511 MFS65510:MFS65511 MPO65510:MPO65511 MZK65510:MZK65511 NJG65510:NJG65511 NTC65510:NTC65511 OCY65510:OCY65511 OMU65510:OMU65511 OWQ65510:OWQ65511 PGM65510:PGM65511 PQI65510:PQI65511 QAE65510:QAE65511 QKA65510:QKA65511 QTW65510:QTW65511 RDS65510:RDS65511 RNO65510:RNO65511 RXK65510:RXK65511 SHG65510:SHG65511 SRC65510:SRC65511 TAY65510:TAY65511 TKU65510:TKU65511 TUQ65510:TUQ65511 UEM65510:UEM65511 UOI65510:UOI65511 UYE65510:UYE65511 VIA65510:VIA65511 VRW65510:VRW65511 WBS65510:WBS65511 WLO65510:WLO65511 WVK65510:WVK65511 C131046:C131047 IY131046:IY131047 SU131046:SU131047 ACQ131046:ACQ131047 AMM131046:AMM131047 AWI131046:AWI131047 BGE131046:BGE131047 BQA131046:BQA131047 BZW131046:BZW131047 CJS131046:CJS131047 CTO131046:CTO131047 DDK131046:DDK131047 DNG131046:DNG131047 DXC131046:DXC131047 EGY131046:EGY131047 EQU131046:EQU131047 FAQ131046:FAQ131047 FKM131046:FKM131047 FUI131046:FUI131047 GEE131046:GEE131047 GOA131046:GOA131047 GXW131046:GXW131047 HHS131046:HHS131047 HRO131046:HRO131047 IBK131046:IBK131047 ILG131046:ILG131047 IVC131046:IVC131047 JEY131046:JEY131047 JOU131046:JOU131047 JYQ131046:JYQ131047 KIM131046:KIM131047 KSI131046:KSI131047 LCE131046:LCE131047 LMA131046:LMA131047 LVW131046:LVW131047 MFS131046:MFS131047 MPO131046:MPO131047 MZK131046:MZK131047 NJG131046:NJG131047 NTC131046:NTC131047 OCY131046:OCY131047 OMU131046:OMU131047 OWQ131046:OWQ131047 PGM131046:PGM131047 PQI131046:PQI131047 QAE131046:QAE131047 QKA131046:QKA131047 QTW131046:QTW131047 RDS131046:RDS131047 RNO131046:RNO131047 RXK131046:RXK131047 SHG131046:SHG131047 SRC131046:SRC131047 TAY131046:TAY131047 TKU131046:TKU131047 TUQ131046:TUQ131047 UEM131046:UEM131047 UOI131046:UOI131047 UYE131046:UYE131047 VIA131046:VIA131047 VRW131046:VRW131047 WBS131046:WBS131047 WLO131046:WLO131047 WVK131046:WVK131047 C196582:C196583 IY196582:IY196583 SU196582:SU196583 ACQ196582:ACQ196583 AMM196582:AMM196583 AWI196582:AWI196583 BGE196582:BGE196583 BQA196582:BQA196583 BZW196582:BZW196583 CJS196582:CJS196583 CTO196582:CTO196583 DDK196582:DDK196583 DNG196582:DNG196583 DXC196582:DXC196583 EGY196582:EGY196583 EQU196582:EQU196583 FAQ196582:FAQ196583 FKM196582:FKM196583 FUI196582:FUI196583 GEE196582:GEE196583 GOA196582:GOA196583 GXW196582:GXW196583 HHS196582:HHS196583 HRO196582:HRO196583 IBK196582:IBK196583 ILG196582:ILG196583 IVC196582:IVC196583 JEY196582:JEY196583 JOU196582:JOU196583 JYQ196582:JYQ196583 KIM196582:KIM196583 KSI196582:KSI196583 LCE196582:LCE196583 LMA196582:LMA196583 LVW196582:LVW196583 MFS196582:MFS196583 MPO196582:MPO196583 MZK196582:MZK196583 NJG196582:NJG196583 NTC196582:NTC196583 OCY196582:OCY196583 OMU196582:OMU196583 OWQ196582:OWQ196583 PGM196582:PGM196583 PQI196582:PQI196583 QAE196582:QAE196583 QKA196582:QKA196583 QTW196582:QTW196583 RDS196582:RDS196583 RNO196582:RNO196583 RXK196582:RXK196583 SHG196582:SHG196583 SRC196582:SRC196583 TAY196582:TAY196583 TKU196582:TKU196583 TUQ196582:TUQ196583 UEM196582:UEM196583 UOI196582:UOI196583 UYE196582:UYE196583 VIA196582:VIA196583 VRW196582:VRW196583 WBS196582:WBS196583 WLO196582:WLO196583 WVK196582:WVK196583 C262118:C262119 IY262118:IY262119 SU262118:SU262119 ACQ262118:ACQ262119 AMM262118:AMM262119 AWI262118:AWI262119 BGE262118:BGE262119 BQA262118:BQA262119 BZW262118:BZW262119 CJS262118:CJS262119 CTO262118:CTO262119 DDK262118:DDK262119 DNG262118:DNG262119 DXC262118:DXC262119 EGY262118:EGY262119 EQU262118:EQU262119 FAQ262118:FAQ262119 FKM262118:FKM262119 FUI262118:FUI262119 GEE262118:GEE262119 GOA262118:GOA262119 GXW262118:GXW262119 HHS262118:HHS262119 HRO262118:HRO262119 IBK262118:IBK262119 ILG262118:ILG262119 IVC262118:IVC262119 JEY262118:JEY262119 JOU262118:JOU262119 JYQ262118:JYQ262119 KIM262118:KIM262119 KSI262118:KSI262119 LCE262118:LCE262119 LMA262118:LMA262119 LVW262118:LVW262119 MFS262118:MFS262119 MPO262118:MPO262119 MZK262118:MZK262119 NJG262118:NJG262119 NTC262118:NTC262119 OCY262118:OCY262119 OMU262118:OMU262119 OWQ262118:OWQ262119 PGM262118:PGM262119 PQI262118:PQI262119 QAE262118:QAE262119 QKA262118:QKA262119 QTW262118:QTW262119 RDS262118:RDS262119 RNO262118:RNO262119 RXK262118:RXK262119 SHG262118:SHG262119 SRC262118:SRC262119 TAY262118:TAY262119 TKU262118:TKU262119 TUQ262118:TUQ262119 UEM262118:UEM262119 UOI262118:UOI262119 UYE262118:UYE262119 VIA262118:VIA262119 VRW262118:VRW262119 WBS262118:WBS262119 WLO262118:WLO262119 WVK262118:WVK262119 C327654:C327655 IY327654:IY327655 SU327654:SU327655 ACQ327654:ACQ327655 AMM327654:AMM327655 AWI327654:AWI327655 BGE327654:BGE327655 BQA327654:BQA327655 BZW327654:BZW327655 CJS327654:CJS327655 CTO327654:CTO327655 DDK327654:DDK327655 DNG327654:DNG327655 DXC327654:DXC327655 EGY327654:EGY327655 EQU327654:EQU327655 FAQ327654:FAQ327655 FKM327654:FKM327655 FUI327654:FUI327655 GEE327654:GEE327655 GOA327654:GOA327655 GXW327654:GXW327655 HHS327654:HHS327655 HRO327654:HRO327655 IBK327654:IBK327655 ILG327654:ILG327655 IVC327654:IVC327655 JEY327654:JEY327655 JOU327654:JOU327655 JYQ327654:JYQ327655 KIM327654:KIM327655 KSI327654:KSI327655 LCE327654:LCE327655 LMA327654:LMA327655 LVW327654:LVW327655 MFS327654:MFS327655 MPO327654:MPO327655 MZK327654:MZK327655 NJG327654:NJG327655 NTC327654:NTC327655 OCY327654:OCY327655 OMU327654:OMU327655 OWQ327654:OWQ327655 PGM327654:PGM327655 PQI327654:PQI327655 QAE327654:QAE327655 QKA327654:QKA327655 QTW327654:QTW327655 RDS327654:RDS327655 RNO327654:RNO327655 RXK327654:RXK327655 SHG327654:SHG327655 SRC327654:SRC327655 TAY327654:TAY327655 TKU327654:TKU327655 TUQ327654:TUQ327655 UEM327654:UEM327655 UOI327654:UOI327655 UYE327654:UYE327655 VIA327654:VIA327655 VRW327654:VRW327655 WBS327654:WBS327655 WLO327654:WLO327655 WVK327654:WVK327655 C393190:C393191 IY393190:IY393191 SU393190:SU393191 ACQ393190:ACQ393191 AMM393190:AMM393191 AWI393190:AWI393191 BGE393190:BGE393191 BQA393190:BQA393191 BZW393190:BZW393191 CJS393190:CJS393191 CTO393190:CTO393191 DDK393190:DDK393191 DNG393190:DNG393191 DXC393190:DXC393191 EGY393190:EGY393191 EQU393190:EQU393191 FAQ393190:FAQ393191 FKM393190:FKM393191 FUI393190:FUI393191 GEE393190:GEE393191 GOA393190:GOA393191 GXW393190:GXW393191 HHS393190:HHS393191 HRO393190:HRO393191 IBK393190:IBK393191 ILG393190:ILG393191 IVC393190:IVC393191 JEY393190:JEY393191 JOU393190:JOU393191 JYQ393190:JYQ393191 KIM393190:KIM393191 KSI393190:KSI393191 LCE393190:LCE393191 LMA393190:LMA393191 LVW393190:LVW393191 MFS393190:MFS393191 MPO393190:MPO393191 MZK393190:MZK393191 NJG393190:NJG393191 NTC393190:NTC393191 OCY393190:OCY393191 OMU393190:OMU393191 OWQ393190:OWQ393191 PGM393190:PGM393191 PQI393190:PQI393191 QAE393190:QAE393191 QKA393190:QKA393191 QTW393190:QTW393191 RDS393190:RDS393191 RNO393190:RNO393191 RXK393190:RXK393191 SHG393190:SHG393191 SRC393190:SRC393191 TAY393190:TAY393191 TKU393190:TKU393191 TUQ393190:TUQ393191 UEM393190:UEM393191 UOI393190:UOI393191 UYE393190:UYE393191 VIA393190:VIA393191 VRW393190:VRW393191 WBS393190:WBS393191 WLO393190:WLO393191 WVK393190:WVK393191 C458726:C458727 IY458726:IY458727 SU458726:SU458727 ACQ458726:ACQ458727 AMM458726:AMM458727 AWI458726:AWI458727 BGE458726:BGE458727 BQA458726:BQA458727 BZW458726:BZW458727 CJS458726:CJS458727 CTO458726:CTO458727 DDK458726:DDK458727 DNG458726:DNG458727 DXC458726:DXC458727 EGY458726:EGY458727 EQU458726:EQU458727 FAQ458726:FAQ458727 FKM458726:FKM458727 FUI458726:FUI458727 GEE458726:GEE458727 GOA458726:GOA458727 GXW458726:GXW458727 HHS458726:HHS458727 HRO458726:HRO458727 IBK458726:IBK458727 ILG458726:ILG458727 IVC458726:IVC458727 JEY458726:JEY458727 JOU458726:JOU458727 JYQ458726:JYQ458727 KIM458726:KIM458727 KSI458726:KSI458727 LCE458726:LCE458727 LMA458726:LMA458727 LVW458726:LVW458727 MFS458726:MFS458727 MPO458726:MPO458727 MZK458726:MZK458727 NJG458726:NJG458727 NTC458726:NTC458727 OCY458726:OCY458727 OMU458726:OMU458727 OWQ458726:OWQ458727 PGM458726:PGM458727 PQI458726:PQI458727 QAE458726:QAE458727 QKA458726:QKA458727 QTW458726:QTW458727 RDS458726:RDS458727 RNO458726:RNO458727 RXK458726:RXK458727 SHG458726:SHG458727 SRC458726:SRC458727 TAY458726:TAY458727 TKU458726:TKU458727 TUQ458726:TUQ458727 UEM458726:UEM458727 UOI458726:UOI458727 UYE458726:UYE458727 VIA458726:VIA458727 VRW458726:VRW458727 WBS458726:WBS458727 WLO458726:WLO458727 WVK458726:WVK458727 C524262:C524263 IY524262:IY524263 SU524262:SU524263 ACQ524262:ACQ524263 AMM524262:AMM524263 AWI524262:AWI524263 BGE524262:BGE524263 BQA524262:BQA524263 BZW524262:BZW524263 CJS524262:CJS524263 CTO524262:CTO524263 DDK524262:DDK524263 DNG524262:DNG524263 DXC524262:DXC524263 EGY524262:EGY524263 EQU524262:EQU524263 FAQ524262:FAQ524263 FKM524262:FKM524263 FUI524262:FUI524263 GEE524262:GEE524263 GOA524262:GOA524263 GXW524262:GXW524263 HHS524262:HHS524263 HRO524262:HRO524263 IBK524262:IBK524263 ILG524262:ILG524263 IVC524262:IVC524263 JEY524262:JEY524263 JOU524262:JOU524263 JYQ524262:JYQ524263 KIM524262:KIM524263 KSI524262:KSI524263 LCE524262:LCE524263 LMA524262:LMA524263 LVW524262:LVW524263 MFS524262:MFS524263 MPO524262:MPO524263 MZK524262:MZK524263 NJG524262:NJG524263 NTC524262:NTC524263 OCY524262:OCY524263 OMU524262:OMU524263 OWQ524262:OWQ524263 PGM524262:PGM524263 PQI524262:PQI524263 QAE524262:QAE524263 QKA524262:QKA524263 QTW524262:QTW524263 RDS524262:RDS524263 RNO524262:RNO524263 RXK524262:RXK524263 SHG524262:SHG524263 SRC524262:SRC524263 TAY524262:TAY524263 TKU524262:TKU524263 TUQ524262:TUQ524263 UEM524262:UEM524263 UOI524262:UOI524263 UYE524262:UYE524263 VIA524262:VIA524263 VRW524262:VRW524263 WBS524262:WBS524263 WLO524262:WLO524263 WVK524262:WVK524263 C589798:C589799 IY589798:IY589799 SU589798:SU589799 ACQ589798:ACQ589799 AMM589798:AMM589799 AWI589798:AWI589799 BGE589798:BGE589799 BQA589798:BQA589799 BZW589798:BZW589799 CJS589798:CJS589799 CTO589798:CTO589799 DDK589798:DDK589799 DNG589798:DNG589799 DXC589798:DXC589799 EGY589798:EGY589799 EQU589798:EQU589799 FAQ589798:FAQ589799 FKM589798:FKM589799 FUI589798:FUI589799 GEE589798:GEE589799 GOA589798:GOA589799 GXW589798:GXW589799 HHS589798:HHS589799 HRO589798:HRO589799 IBK589798:IBK589799 ILG589798:ILG589799 IVC589798:IVC589799 JEY589798:JEY589799 JOU589798:JOU589799 JYQ589798:JYQ589799 KIM589798:KIM589799 KSI589798:KSI589799 LCE589798:LCE589799 LMA589798:LMA589799 LVW589798:LVW589799 MFS589798:MFS589799 MPO589798:MPO589799 MZK589798:MZK589799 NJG589798:NJG589799 NTC589798:NTC589799 OCY589798:OCY589799 OMU589798:OMU589799 OWQ589798:OWQ589799 PGM589798:PGM589799 PQI589798:PQI589799 QAE589798:QAE589799 QKA589798:QKA589799 QTW589798:QTW589799 RDS589798:RDS589799 RNO589798:RNO589799 RXK589798:RXK589799 SHG589798:SHG589799 SRC589798:SRC589799 TAY589798:TAY589799 TKU589798:TKU589799 TUQ589798:TUQ589799 UEM589798:UEM589799 UOI589798:UOI589799 UYE589798:UYE589799 VIA589798:VIA589799 VRW589798:VRW589799 WBS589798:WBS589799 WLO589798:WLO589799 WVK589798:WVK589799 C655334:C655335 IY655334:IY655335 SU655334:SU655335 ACQ655334:ACQ655335 AMM655334:AMM655335 AWI655334:AWI655335 BGE655334:BGE655335 BQA655334:BQA655335 BZW655334:BZW655335 CJS655334:CJS655335 CTO655334:CTO655335 DDK655334:DDK655335 DNG655334:DNG655335 DXC655334:DXC655335 EGY655334:EGY655335 EQU655334:EQU655335 FAQ655334:FAQ655335 FKM655334:FKM655335 FUI655334:FUI655335 GEE655334:GEE655335 GOA655334:GOA655335 GXW655334:GXW655335 HHS655334:HHS655335 HRO655334:HRO655335 IBK655334:IBK655335 ILG655334:ILG655335 IVC655334:IVC655335 JEY655334:JEY655335 JOU655334:JOU655335 JYQ655334:JYQ655335 KIM655334:KIM655335 KSI655334:KSI655335 LCE655334:LCE655335 LMA655334:LMA655335 LVW655334:LVW655335 MFS655334:MFS655335 MPO655334:MPO655335 MZK655334:MZK655335 NJG655334:NJG655335 NTC655334:NTC655335 OCY655334:OCY655335 OMU655334:OMU655335 OWQ655334:OWQ655335 PGM655334:PGM655335 PQI655334:PQI655335 QAE655334:QAE655335 QKA655334:QKA655335 QTW655334:QTW655335 RDS655334:RDS655335 RNO655334:RNO655335 RXK655334:RXK655335 SHG655334:SHG655335 SRC655334:SRC655335 TAY655334:TAY655335 TKU655334:TKU655335 TUQ655334:TUQ655335 UEM655334:UEM655335 UOI655334:UOI655335 UYE655334:UYE655335 VIA655334:VIA655335 VRW655334:VRW655335 WBS655334:WBS655335 WLO655334:WLO655335 WVK655334:WVK655335 C720870:C720871 IY720870:IY720871 SU720870:SU720871 ACQ720870:ACQ720871 AMM720870:AMM720871 AWI720870:AWI720871 BGE720870:BGE720871 BQA720870:BQA720871 BZW720870:BZW720871 CJS720870:CJS720871 CTO720870:CTO720871 DDK720870:DDK720871 DNG720870:DNG720871 DXC720870:DXC720871 EGY720870:EGY720871 EQU720870:EQU720871 FAQ720870:FAQ720871 FKM720870:FKM720871 FUI720870:FUI720871 GEE720870:GEE720871 GOA720870:GOA720871 GXW720870:GXW720871 HHS720870:HHS720871 HRO720870:HRO720871 IBK720870:IBK720871 ILG720870:ILG720871 IVC720870:IVC720871 JEY720870:JEY720871 JOU720870:JOU720871 JYQ720870:JYQ720871 KIM720870:KIM720871 KSI720870:KSI720871 LCE720870:LCE720871 LMA720870:LMA720871 LVW720870:LVW720871 MFS720870:MFS720871 MPO720870:MPO720871 MZK720870:MZK720871 NJG720870:NJG720871 NTC720870:NTC720871 OCY720870:OCY720871 OMU720870:OMU720871 OWQ720870:OWQ720871 PGM720870:PGM720871 PQI720870:PQI720871 QAE720870:QAE720871 QKA720870:QKA720871 QTW720870:QTW720871 RDS720870:RDS720871 RNO720870:RNO720871 RXK720870:RXK720871 SHG720870:SHG720871 SRC720870:SRC720871 TAY720870:TAY720871 TKU720870:TKU720871 TUQ720870:TUQ720871 UEM720870:UEM720871 UOI720870:UOI720871 UYE720870:UYE720871 VIA720870:VIA720871 VRW720870:VRW720871 WBS720870:WBS720871 WLO720870:WLO720871 WVK720870:WVK720871 C786406:C786407 IY786406:IY786407 SU786406:SU786407 ACQ786406:ACQ786407 AMM786406:AMM786407 AWI786406:AWI786407 BGE786406:BGE786407 BQA786406:BQA786407 BZW786406:BZW786407 CJS786406:CJS786407 CTO786406:CTO786407 DDK786406:DDK786407 DNG786406:DNG786407 DXC786406:DXC786407 EGY786406:EGY786407 EQU786406:EQU786407 FAQ786406:FAQ786407 FKM786406:FKM786407 FUI786406:FUI786407 GEE786406:GEE786407 GOA786406:GOA786407 GXW786406:GXW786407 HHS786406:HHS786407 HRO786406:HRO786407 IBK786406:IBK786407 ILG786406:ILG786407 IVC786406:IVC786407 JEY786406:JEY786407 JOU786406:JOU786407 JYQ786406:JYQ786407 KIM786406:KIM786407 KSI786406:KSI786407 LCE786406:LCE786407 LMA786406:LMA786407 LVW786406:LVW786407 MFS786406:MFS786407 MPO786406:MPO786407 MZK786406:MZK786407 NJG786406:NJG786407 NTC786406:NTC786407 OCY786406:OCY786407 OMU786406:OMU786407 OWQ786406:OWQ786407 PGM786406:PGM786407 PQI786406:PQI786407 QAE786406:QAE786407 QKA786406:QKA786407 QTW786406:QTW786407 RDS786406:RDS786407 RNO786406:RNO786407 RXK786406:RXK786407 SHG786406:SHG786407 SRC786406:SRC786407 TAY786406:TAY786407 TKU786406:TKU786407 TUQ786406:TUQ786407 UEM786406:UEM786407 UOI786406:UOI786407 UYE786406:UYE786407 VIA786406:VIA786407 VRW786406:VRW786407 WBS786406:WBS786407 WLO786406:WLO786407 WVK786406:WVK786407 C851942:C851943 IY851942:IY851943 SU851942:SU851943 ACQ851942:ACQ851943 AMM851942:AMM851943 AWI851942:AWI851943 BGE851942:BGE851943 BQA851942:BQA851943 BZW851942:BZW851943 CJS851942:CJS851943 CTO851942:CTO851943 DDK851942:DDK851943 DNG851942:DNG851943 DXC851942:DXC851943 EGY851942:EGY851943 EQU851942:EQU851943 FAQ851942:FAQ851943 FKM851942:FKM851943 FUI851942:FUI851943 GEE851942:GEE851943 GOA851942:GOA851943 GXW851942:GXW851943 HHS851942:HHS851943 HRO851942:HRO851943 IBK851942:IBK851943 ILG851942:ILG851943 IVC851942:IVC851943 JEY851942:JEY851943 JOU851942:JOU851943 JYQ851942:JYQ851943 KIM851942:KIM851943 KSI851942:KSI851943 LCE851942:LCE851943 LMA851942:LMA851943 LVW851942:LVW851943 MFS851942:MFS851943 MPO851942:MPO851943 MZK851942:MZK851943 NJG851942:NJG851943 NTC851942:NTC851943 OCY851942:OCY851943 OMU851942:OMU851943 OWQ851942:OWQ851943 PGM851942:PGM851943 PQI851942:PQI851943 QAE851942:QAE851943 QKA851942:QKA851943 QTW851942:QTW851943 RDS851942:RDS851943 RNO851942:RNO851943 RXK851942:RXK851943 SHG851942:SHG851943 SRC851942:SRC851943 TAY851942:TAY851943 TKU851942:TKU851943 TUQ851942:TUQ851943 UEM851942:UEM851943 UOI851942:UOI851943 UYE851942:UYE851943 VIA851942:VIA851943 VRW851942:VRW851943 WBS851942:WBS851943 WLO851942:WLO851943 WVK851942:WVK851943 C917478:C917479 IY917478:IY917479 SU917478:SU917479 ACQ917478:ACQ917479 AMM917478:AMM917479 AWI917478:AWI917479 BGE917478:BGE917479 BQA917478:BQA917479 BZW917478:BZW917479 CJS917478:CJS917479 CTO917478:CTO917479 DDK917478:DDK917479 DNG917478:DNG917479 DXC917478:DXC917479 EGY917478:EGY917479 EQU917478:EQU917479 FAQ917478:FAQ917479 FKM917478:FKM917479 FUI917478:FUI917479 GEE917478:GEE917479 GOA917478:GOA917479 GXW917478:GXW917479 HHS917478:HHS917479 HRO917478:HRO917479 IBK917478:IBK917479 ILG917478:ILG917479 IVC917478:IVC917479 JEY917478:JEY917479 JOU917478:JOU917479 JYQ917478:JYQ917479 KIM917478:KIM917479 KSI917478:KSI917479 LCE917478:LCE917479 LMA917478:LMA917479 LVW917478:LVW917479 MFS917478:MFS917479 MPO917478:MPO917479 MZK917478:MZK917479 NJG917478:NJG917479 NTC917478:NTC917479 OCY917478:OCY917479 OMU917478:OMU917479 OWQ917478:OWQ917479 PGM917478:PGM917479 PQI917478:PQI917479 QAE917478:QAE917479 QKA917478:QKA917479 QTW917478:QTW917479 RDS917478:RDS917479 RNO917478:RNO917479 RXK917478:RXK917479 SHG917478:SHG917479 SRC917478:SRC917479 TAY917478:TAY917479 TKU917478:TKU917479 TUQ917478:TUQ917479 UEM917478:UEM917479 UOI917478:UOI917479 UYE917478:UYE917479 VIA917478:VIA917479 VRW917478:VRW917479 WBS917478:WBS917479 WLO917478:WLO917479 WVK917478:WVK917479 C983014:C983015 IY983014:IY983015 SU983014:SU983015 ACQ983014:ACQ983015 AMM983014:AMM983015 AWI983014:AWI983015 BGE983014:BGE983015 BQA983014:BQA983015 BZW983014:BZW983015 CJS983014:CJS983015 CTO983014:CTO983015 DDK983014:DDK983015 DNG983014:DNG983015 DXC983014:DXC983015 EGY983014:EGY983015 EQU983014:EQU983015 FAQ983014:FAQ983015 FKM983014:FKM983015 FUI983014:FUI983015 GEE983014:GEE983015 GOA983014:GOA983015 GXW983014:GXW983015 HHS983014:HHS983015 HRO983014:HRO983015 IBK983014:IBK983015 ILG983014:ILG983015 IVC983014:IVC983015 JEY983014:JEY983015 JOU983014:JOU983015 JYQ983014:JYQ983015 KIM983014:KIM983015 KSI983014:KSI983015 LCE983014:LCE983015 LMA983014:LMA983015 LVW983014:LVW983015 MFS983014:MFS983015 MPO983014:MPO983015 MZK983014:MZK983015 NJG983014:NJG983015 NTC983014:NTC983015 OCY983014:OCY983015 OMU983014:OMU983015 OWQ983014:OWQ983015 PGM983014:PGM983015 PQI983014:PQI983015 QAE983014:QAE983015 QKA983014:QKA983015 QTW983014:QTW983015 RDS983014:RDS983015 RNO983014:RNO983015 RXK983014:RXK983015 SHG983014:SHG983015 SRC983014:SRC983015 TAY983014:TAY983015 TKU983014:TKU983015 TUQ983014:TUQ983015 UEM983014:UEM983015 UOI983014:UOI983015 UYE983014:UYE983015 VIA983014:VIA983015 VRW983014:VRW983015 WBS983014:WBS983015 WLO983014:WLO983015 WVK983014:WVK983015 C29">
       <formula1>"Positive,Negative"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5838,7 +5837,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>"PASS,FAIL"</xm:f>
           </x14:formula1>
@@ -5851,7 +5850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -6248,13 +6247,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="75"/>
@@ -6283,37 +6282,37 @@
       <c r="A5" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="160"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="169"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="156"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="165"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="156"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="152"/>
+      <c r="A8" s="161"/>
       <c r="B8" s="82" t="s">
         <v>38</v>
       </c>
@@ -6328,46 +6327,46 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="152"/>
+      <c r="A9" s="161"/>
       <c r="B9" s="81"/>
       <c r="C9" s="81"/>
       <c r="D9" s="81"/>
       <c r="E9" s="81"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="152"/>
+      <c r="A10" s="161"/>
       <c r="B10" s="81"/>
       <c r="C10" s="81"/>
       <c r="D10" s="81"/>
       <c r="E10" s="81"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="152"/>
+      <c r="A11" s="161"/>
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
       <c r="D11" s="81"/>
       <c r="E11" s="81"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="153"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="81"/>
       <c r="C12" s="81"/>
       <c r="D12" s="81"/>
       <c r="E12" s="81"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="163" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="165"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="152"/>
+      <c r="A14" s="161"/>
       <c r="B14" s="82" t="s">
         <v>38</v>
       </c>
@@ -6382,28 +6381,28 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="152"/>
+      <c r="A15" s="161"/>
       <c r="B15" s="81"/>
       <c r="C15" s="81"/>
       <c r="D15" s="81"/>
       <c r="E15" s="81"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="152"/>
+      <c r="A16" s="161"/>
       <c r="B16" s="81"/>
       <c r="C16" s="81"/>
       <c r="D16" s="81"/>
       <c r="E16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="152"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="81"/>
       <c r="C17" s="81"/>
       <c r="D17" s="81"/>
       <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="153"/>
+      <c r="A18" s="162"/>
       <c r="B18" s="81"/>
       <c r="C18" s="81"/>
       <c r="D18" s="81"/>
@@ -6429,9 +6428,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6632,27 +6634,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFEF68F-8E5F-450C-8B20-096CDF132AD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C9126F-7184-43AD-8535-1AA11D6F7687}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6677,9 +6667,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C9126F-7184-43AD-8535-1AA11D6F7687}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFEF68F-8E5F-450C-8B20-096CDF132AD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/My Project/03-Unit_Test_Cases-(Smart Shop).xlsx
+++ b/Documentation/My Project/03-Unit_Test_Cases-(Smart Shop).xlsx
@@ -67,7 +67,7 @@
     <definedName name="Team">#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="173">
   <si>
     <t>Prepared By / Last Updated By</t>
   </si>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>project shows same as expected behaviour</t>
   </si>
   <si>
     <t>null</t>
@@ -599,6 +596,66 @@
   </si>
   <si>
     <t>Diptendu Sil</t>
+  </si>
+  <si>
+    <t>Field of User ID required and is to be unique</t>
+  </si>
+  <si>
+    <t>/authenticate return token for valid users, 401 for invalid and 403 for unapproved</t>
+  </si>
+  <si>
+    <t>On admin login, redirect to admin dashboard</t>
+  </si>
+  <si>
+    <t>On admin clicking Add Manager,  redirect to Shop Manager register page with validations same as user sign up form</t>
+  </si>
+  <si>
+    <t>On shop manager login, redirect to shop manager dashboard</t>
+  </si>
+  <si>
+    <t>All url work properly, returning object or list or throw Exceptions as expected.</t>
+  </si>
+  <si>
+    <t>On clicking edit on product,product updation form opens</t>
+  </si>
+  <si>
+    <t>On clicking add button add product form  open</t>
+  </si>
+  <si>
+    <t>Submit button  enable only when all input fields are valid</t>
+  </si>
+  <si>
+    <t>Add button  enable only when all fields are valid</t>
+  </si>
+  <si>
+    <t>On user login  redirect to user dashboard</t>
+  </si>
+  <si>
+    <t>Search bar  filter products according to user input</t>
+  </si>
+  <si>
+    <t>On clicking a product, details  be shown</t>
+  </si>
+  <si>
+    <t>Manager on clicking bill  redirect to new bill form</t>
+  </si>
+  <si>
+    <t>On adding bill, data  be added to billed user's purchase history</t>
+  </si>
+  <si>
+    <t>User dashboard and anonymous user home page  display current day's flash offers</t>
+  </si>
+  <si>
+    <t>On clicking edit, offer update form  open</t>
+  </si>
+  <si>
+    <t>User on clicking purchase history  display all billed purchases</t>
+  </si>
+  <si>
+    <t>User dashboard  view recommendations based on previous purchases</t>
+  </si>
+  <si>
+    <t>On clicking logout, user  be logged out and  not be able to go back without logging in</t>
   </si>
 </sst>
 </file>
@@ -822,7 +879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1145,6 +1202,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1154,7 +1226,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1504,6 +1576,45 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1536,45 +1647,6 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1628,6 +1700,16 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3524,7 +3606,7 @@
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="122"/>
       <c r="D8" s="122"/>
@@ -3678,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
@@ -4133,25 +4215,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="41" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="135"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
@@ -4176,83 +4258,83 @@
       <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
     </row>
     <row r="7" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="142"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
     </row>
     <row r="9" spans="1:4" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
     </row>
     <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="145"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
     </row>
     <row r="11" spans="1:4" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="147"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138"/>
     </row>
     <row r="12" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="145"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
     </row>
     <row r="13" spans="1:4" s="48" customFormat="1" ht="124.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="150"/>
-      <c r="D13" s="151"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="141"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4300,8 +4382,8 @@
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <pane ySplit="4" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4776,15 +4858,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="56" customFormat="1" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="131" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
+      <c r="B1" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
       <c r="G1" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
@@ -4876,19 +4958,19 @@
     </row>
     <row r="5" spans="1:25" s="58" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A5" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="C5" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="90" t="s">
+      <c r="E5" s="90" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>58</v>
       </c>
       <c r="F5" s="90" t="s">
         <v>49</v>
@@ -4897,7 +4979,7 @@
         <v>49</v>
       </c>
       <c r="H5" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5" s="59"/>
       <c r="J5" s="59"/>
@@ -4919,19 +5001,19 @@
     </row>
     <row r="6" spans="1:25" s="58" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="C6" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="90" t="s">
+      <c r="E6" s="90" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>62</v>
       </c>
       <c r="F6" s="90" t="s">
         <v>49</v>
@@ -4940,7 +5022,7 @@
         <v>49</v>
       </c>
       <c r="H6" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
@@ -4962,19 +5044,19 @@
     </row>
     <row r="7" spans="1:25" s="58" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="C7" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="96" t="s">
+      <c r="E7" s="90" t="s">
         <v>68</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="90" t="s">
         <v>49</v>
@@ -4983,7 +5065,7 @@
         <v>49</v>
       </c>
       <c r="H7" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="59"/>
       <c r="J7" s="59"/>
@@ -5005,19 +5087,19 @@
     </row>
     <row r="8" spans="1:25" ht="101.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="C8" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="98" t="s">
+      <c r="E8" s="90" t="s">
         <v>72</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>73</v>
       </c>
       <c r="F8" s="90" t="s">
         <v>49</v>
@@ -5026,24 +5108,24 @@
         <v>49</v>
       </c>
       <c r="H8" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="C9" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="100" t="s">
+      <c r="E9" s="90" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>77</v>
       </c>
       <c r="F9" s="90" t="s">
         <v>49</v>
@@ -5052,24 +5134,24 @@
         <v>49</v>
       </c>
       <c r="H9" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="C10" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="100" t="s">
+      <c r="E10" s="90" t="s">
         <v>80</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>81</v>
       </c>
       <c r="F10" s="90" t="s">
         <v>49</v>
@@ -5078,24 +5160,24 @@
         <v>49</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="109" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="109" customFormat="1" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="156" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="158" t="s">
-        <v>79</v>
-      </c>
       <c r="C11" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>153</v>
       </c>
       <c r="F11" s="90" t="s">
         <v>49</v>
@@ -5104,20 +5186,20 @@
         <v>49</v>
       </c>
       <c r="H11" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="113" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="113" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="157"/>
       <c r="B12" s="159"/>
       <c r="C12" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="110" t="s">
-        <v>50</v>
+        <v>82</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>82</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>49</v>
@@ -5126,24 +5208,24 @@
         <v>49</v>
       </c>
       <c r="H12" s="112" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="C13" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>50</v>
+      <c r="E13" s="100" t="s">
+        <v>154</v>
       </c>
       <c r="F13" s="106" t="s">
         <v>49</v>
@@ -5152,24 +5234,24 @@
         <v>49</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="100" t="s">
+      <c r="C14" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>50</v>
+      <c r="E14" s="100" t="s">
+        <v>155</v>
       </c>
       <c r="F14" s="90" t="s">
         <v>49</v>
@@ -5178,24 +5260,24 @@
         <v>49</v>
       </c>
       <c r="H14" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="96.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="90" t="s">
-        <v>50</v>
+      <c r="E15" s="100" t="s">
+        <v>156</v>
       </c>
       <c r="F15" s="90" t="s">
         <v>49</v>
@@ -5204,24 +5286,24 @@
         <v>49</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>50</v>
+      <c r="E16" s="100" t="s">
+        <v>157</v>
       </c>
       <c r="F16" s="90" t="s">
         <v>49</v>
@@ -5230,24 +5312,24 @@
         <v>49</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="C17" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>50</v>
+      <c r="E17" s="101" t="s">
+        <v>158</v>
       </c>
       <c r="F17" s="90" t="s">
         <v>49</v>
@@ -5256,24 +5338,24 @@
         <v>49</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="C18" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="90" t="s">
-        <v>50</v>
+      <c r="E18" s="100" t="s">
+        <v>159</v>
       </c>
       <c r="F18" s="90" t="s">
         <v>49</v>
@@ -5282,24 +5364,24 @@
         <v>49</v>
       </c>
       <c r="H18" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>50</v>
+      <c r="E19" s="100" t="s">
+        <v>161</v>
       </c>
       <c r="F19" s="90" t="s">
         <v>49</v>
@@ -5308,24 +5390,24 @@
         <v>49</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="C20" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>50</v>
+      <c r="E20" s="100" t="s">
+        <v>160</v>
       </c>
       <c r="F20" s="90" t="s">
         <v>49</v>
@@ -5334,26 +5416,26 @@
         <v>49</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" s="87"/>
       <c r="N20" s="85"/>
     </row>
-    <row r="21" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>50</v>
+      <c r="E21" s="96" t="s">
+        <v>162</v>
       </c>
       <c r="F21" s="90" t="s">
         <v>49</v>
@@ -5362,26 +5444,26 @@
         <v>49</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="87"/>
       <c r="N21" s="86"/>
     </row>
-    <row r="22" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="98" t="s">
+      <c r="C22" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>50</v>
+      <c r="E22" s="98" t="s">
+        <v>163</v>
       </c>
       <c r="F22" s="90" t="s">
         <v>49</v>
@@ -5390,26 +5472,26 @@
         <v>49</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M22" s="87"/>
       <c r="N22" s="88"/>
     </row>
-    <row r="23" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="C23" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="90" t="s">
-        <v>50</v>
+      <c r="E23" s="100" t="s">
+        <v>164</v>
       </c>
       <c r="F23" s="90" t="s">
         <v>49</v>
@@ -5418,26 +5500,26 @@
         <v>49</v>
       </c>
       <c r="H23" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M23" s="87"/>
       <c r="N23" s="89"/>
     </row>
-    <row r="24" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="C24" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>50</v>
+      <c r="E24" s="100" t="s">
+        <v>165</v>
       </c>
       <c r="F24" s="90" t="s">
         <v>49</v>
@@ -5446,24 +5528,24 @@
         <v>49</v>
       </c>
       <c r="H24" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="C25" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="90" t="s">
-        <v>50</v>
+      <c r="E25" s="100" t="s">
+        <v>166</v>
       </c>
       <c r="F25" s="90" t="s">
         <v>49</v>
@@ -5472,24 +5554,24 @@
         <v>49</v>
       </c>
       <c r="H25" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="C26" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="100" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>50</v>
+      <c r="E26" s="100" t="s">
+        <v>122</v>
       </c>
       <c r="F26" s="90" t="s">
         <v>49</v>
@@ -5498,24 +5580,24 @@
         <v>49</v>
       </c>
       <c r="H26" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="C27" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>50</v>
+      <c r="E27" s="100" t="s">
+        <v>125</v>
       </c>
       <c r="F27" s="90" t="s">
         <v>49</v>
@@ -5524,24 +5606,24 @@
         <v>49</v>
       </c>
       <c r="H27" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="B28" s="100" t="s">
+      <c r="C28" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="100" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="90" t="s">
-        <v>50</v>
+      <c r="E28" s="100" t="s">
+        <v>167</v>
       </c>
       <c r="F28" s="90" t="s">
         <v>49</v>
@@ -5550,24 +5632,24 @@
         <v>49</v>
       </c>
       <c r="H28" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="103" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="100.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="170" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="171" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="172" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>50</v>
+      <c r="E29" s="172" t="s">
+        <v>168</v>
       </c>
       <c r="F29" s="90" t="s">
         <v>49</v>
@@ -5576,24 +5658,24 @@
         <v>49</v>
       </c>
       <c r="H29" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="104" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="C30" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="98" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="90" t="s">
-        <v>50</v>
+      <c r="E30" s="98" t="s">
+        <v>169</v>
       </c>
       <c r="F30" s="90" t="s">
         <v>49</v>
@@ -5602,24 +5684,24 @@
         <v>49</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="102" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="90" t="s">
-        <v>50</v>
+        <v>102</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>161</v>
       </c>
       <c r="F31" s="90" t="s">
         <v>49</v>
@@ -5628,24 +5710,24 @@
         <v>49</v>
       </c>
       <c r="H31" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="C32" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="100" t="s">
         <v>138</v>
       </c>
-      <c r="C32" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="100" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>50</v>
+      <c r="E32" s="100" t="s">
+        <v>138</v>
       </c>
       <c r="F32" s="90" t="s">
         <v>49</v>
@@ -5654,24 +5736,24 @@
         <v>49</v>
       </c>
       <c r="H32" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="48.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="B33" s="100" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>50</v>
+      <c r="E33" s="100" t="s">
+        <v>170</v>
       </c>
       <c r="F33" s="90" t="s">
         <v>49</v>
@@ -5680,24 +5762,24 @@
         <v>49</v>
       </c>
       <c r="H33" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="102" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="C34" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="C34" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>50</v>
+      <c r="E34" s="101" t="s">
+        <v>171</v>
       </c>
       <c r="F34" s="90" t="s">
         <v>49</v>
@@ -5706,24 +5788,24 @@
         <v>49</v>
       </c>
       <c r="H34" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="72.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="C35" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="90" t="s">
-        <v>50</v>
+      <c r="E35" s="101" t="s">
+        <v>172</v>
       </c>
       <c r="F35" s="90" t="s">
         <v>49</v>
@@ -5732,24 +5814,24 @@
         <v>49</v>
       </c>
       <c r="H35" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="100" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="C36" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="90" t="s">
-        <v>50</v>
+      <c r="E36" s="101" t="s">
+        <v>149</v>
       </c>
       <c r="F36" s="90" t="s">
         <v>49</v>
@@ -5758,24 +5840,24 @@
         <v>49</v>
       </c>
       <c r="H36" s="92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="84.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="100" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="C37" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="90" t="s">
-        <v>50</v>
+      <c r="E37" s="101" t="s">
+        <v>151</v>
       </c>
       <c r="F37" s="90" t="s">
         <v>49</v>
@@ -5784,7 +5866,7 @@
         <v>49</v>
       </c>
       <c r="H37" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6428,12 +6510,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6634,15 +6713,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C9126F-7184-43AD-8535-1AA11D6F7687}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFEF68F-8E5F-450C-8B20-096CDF132AD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6667,18 +6758,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AFEF68F-8E5F-450C-8B20-096CDF132AD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55C9126F-7184-43AD-8535-1AA11D6F7687}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="eac52b12-2228-488c-9d59-8a93d308b64e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>